--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00337623</t>

--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -73,409 +73,436 @@
     <t>NCT00355277</t>
   </si>
   <si>
+    <t>NCT00241566</t>
+  </si>
+  <si>
     <t>NCT01874717</t>
   </si>
   <si>
-    <t>NCT00241566</t>
+    <t>NCT00487175</t>
   </si>
   <si>
     <t>NCT00313378</t>
   </si>
   <si>
+    <t>NCT00750347</t>
+  </si>
+  <si>
+    <t>NCT01121653</t>
+  </si>
+  <si>
+    <t>NCT00487812</t>
+  </si>
+  <si>
     <t>NCT00560092</t>
   </si>
   <si>
-    <t>NCT00487812</t>
+    <t>NCT00750048</t>
   </si>
   <si>
     <t>NCT01116596</t>
   </si>
   <si>
-    <t>NCT00750048</t>
-  </si>
-  <si>
-    <t>NCT00750347</t>
-  </si>
-  <si>
-    <t>NCT01121653</t>
-  </si>
-  <si>
-    <t>NCT00487175</t>
+    <t>NCT00484549</t>
+  </si>
+  <si>
+    <t>NCT00488410</t>
+  </si>
+  <si>
+    <t>NCT01196754</t>
+  </si>
+  <si>
+    <t>NCT00852384</t>
+  </si>
+  <si>
+    <t>NCT00639574</t>
+  </si>
+  <si>
+    <t>NCT00852735</t>
+  </si>
+  <si>
+    <t>NCT00487110</t>
   </si>
   <si>
     <t>NCT01014299</t>
   </si>
   <si>
-    <t>NCT00487110</t>
-  </si>
-  <si>
-    <t>NCT00488410</t>
-  </si>
-  <si>
     <t>NCT00664157</t>
   </si>
   <si>
-    <t>NCT00852384</t>
-  </si>
-  <si>
-    <t>NCT00852735</t>
-  </si>
-  <si>
-    <t>NCT00639574</t>
-  </si>
-  <si>
-    <t>NCT01196754</t>
-  </si>
-  <si>
-    <t>NCT00484549</t>
+    <t>NCT01196767</t>
   </si>
   <si>
     <t>NCT00983125</t>
   </si>
   <si>
-    <t>NCT01196767</t>
-  </si>
-  <si>
     <t>NCT01053650</t>
   </si>
   <si>
+    <t>NCT01349179</t>
+  </si>
+  <si>
+    <t>NCT01206985</t>
+  </si>
+  <si>
+    <t>NCT01053845</t>
+  </si>
+  <si>
+    <t>NCT01272167</t>
+  </si>
+  <si>
+    <t>NCT00917917</t>
+  </si>
+  <si>
+    <t>NCT01225419</t>
+  </si>
+  <si>
     <t>NCT01139671</t>
   </si>
   <si>
-    <t>NCT01349179</t>
-  </si>
-  <si>
-    <t>NCT01053845</t>
+    <t>NCT01429909</t>
+  </si>
+  <si>
+    <t>NCT01874704</t>
+  </si>
+  <si>
+    <t>NCT01226381</t>
   </si>
   <si>
     <t>NCT00333099</t>
   </si>
   <si>
-    <t>NCT01429909</t>
-  </si>
-  <si>
-    <t>NCT01206985</t>
-  </si>
-  <si>
-    <t>NCT00917917</t>
-  </si>
-  <si>
-    <t>NCT01874704</t>
-  </si>
-  <si>
-    <t>NCT01272167</t>
-  </si>
-  <si>
-    <t>NCT01225419</t>
-  </si>
-  <si>
-    <t>NCT01226381</t>
+    <t>NCT00980616</t>
+  </si>
+  <si>
+    <t>NCT01766531</t>
+  </si>
+  <si>
+    <t>NCT01282996</t>
+  </si>
+  <si>
+    <t>NCT01543386</t>
   </si>
   <si>
     <t>NCT01747759</t>
   </si>
   <si>
-    <t>NCT01543386</t>
-  </si>
-  <si>
-    <t>NCT00980616</t>
+    <t>NCT01560390</t>
+  </si>
+  <si>
+    <t>NCT01334645</t>
+  </si>
+  <si>
+    <t>NCT01426178</t>
   </si>
   <si>
     <t>NCT01800851</t>
   </si>
   <si>
-    <t>NCT01766531</t>
-  </si>
-  <si>
-    <t>NCT01560390</t>
+    <t>NCT01562704</t>
   </si>
   <si>
     <t>NCT01685476</t>
   </si>
   <si>
-    <t>NCT01426178</t>
-  </si>
-  <si>
-    <t>NCT01562704</t>
-  </si>
-  <si>
-    <t>NCT01282996</t>
-  </si>
-  <si>
-    <t>NCT01334645</t>
+    <t>NCT01520792</t>
+  </si>
+  <si>
+    <t>NCT01156766</t>
+  </si>
+  <si>
+    <t>NCT01782638</t>
+  </si>
+  <si>
+    <t>NCT01586143</t>
+  </si>
+  <si>
+    <t>NCT01536314</t>
+  </si>
+  <si>
+    <t>NCT01935570</t>
+  </si>
+  <si>
+    <t>NCT01702779</t>
+  </si>
+  <si>
+    <t>NCT01955018</t>
+  </si>
+  <si>
+    <t>NCT00690209</t>
   </si>
   <si>
     <t>NCT01794195</t>
   </si>
   <si>
-    <t>NCT01702779</t>
+    <t>NCT01643395</t>
+  </si>
+  <si>
+    <t>NCT01699269</t>
+  </si>
+  <si>
+    <t>NCT01017744</t>
+  </si>
+  <si>
+    <t>NCT00750529</t>
+  </si>
+  <si>
+    <t>NCT01600651</t>
   </si>
   <si>
     <t>NCT01906203</t>
   </si>
   <si>
-    <t>NCT00690209</t>
-  </si>
-  <si>
-    <t>NCT01536314</t>
-  </si>
-  <si>
-    <t>NCT01643395</t>
-  </si>
-  <si>
     <t>NCT01390623</t>
   </si>
   <si>
-    <t>NCT00750529</t>
-  </si>
-  <si>
-    <t>NCT01600651</t>
-  </si>
-  <si>
-    <t>NCT01017744</t>
-  </si>
-  <si>
-    <t>NCT01520792</t>
-  </si>
-  <si>
-    <t>NCT01699269</t>
-  </si>
-  <si>
-    <t>NCT01782638</t>
-  </si>
-  <si>
-    <t>NCT01955018</t>
-  </si>
-  <si>
     <t>NCT00875069</t>
   </si>
   <si>
-    <t>NCT01156766</t>
-  </si>
-  <si>
-    <t>NCT01935570</t>
-  </si>
-  <si>
     <t>NCT01794273</t>
   </si>
   <si>
-    <t>NCT01586143</t>
+    <t>NCT02082834</t>
   </si>
   <si>
     <t>NCT02094313</t>
   </si>
   <si>
+    <t>NCT02076737</t>
+  </si>
+  <si>
     <t>NCT01793363</t>
   </si>
   <si>
+    <t>NCT02174068</t>
+  </si>
+  <si>
+    <t>NCT02206178</t>
+  </si>
+  <si>
     <t>NCT01437371</t>
   </si>
   <si>
-    <t>NCT02174068</t>
-  </si>
-  <si>
     <t>NCT02202720</t>
   </si>
   <si>
-    <t>NCT02076737</t>
-  </si>
-  <si>
-    <t>NCT02206178</t>
-  </si>
-  <si>
-    <t>NCT02082834</t>
+    <t>NCT02350244</t>
+  </si>
+  <si>
+    <t>NCT02664844</t>
+  </si>
+  <si>
+    <t>NCT01888094</t>
+  </si>
+  <si>
+    <t>NCT01249326</t>
+  </si>
+  <si>
+    <t>NCT02042612</t>
   </si>
   <si>
     <t>NCT01775449</t>
   </si>
   <si>
-    <t>NCT02350244</t>
-  </si>
-  <si>
-    <t>NCT02664844</t>
-  </si>
-  <si>
-    <t>NCT02042612</t>
+    <t>NCT02048683</t>
+  </si>
+  <si>
+    <t>NCT01887015</t>
   </si>
   <si>
     <t>NCT01828788</t>
   </si>
   <si>
-    <t>NCT01249326</t>
-  </si>
-  <si>
-    <t>NCT01887015</t>
-  </si>
-  <si>
-    <t>NCT01888094</t>
-  </si>
-  <si>
-    <t>NCT02048683</t>
+    <t>NCT01536470</t>
+  </si>
+  <si>
+    <t>NCT01392872</t>
+  </si>
+  <si>
+    <t>NCT02678559</t>
+  </si>
+  <si>
+    <t>NCT01718249</t>
+  </si>
+  <si>
+    <t>NCT01602185</t>
+  </si>
+  <si>
+    <t>NCT03338179</t>
   </si>
   <si>
     <t>NCT01887028</t>
   </si>
   <si>
+    <t>NCT02844088</t>
+  </si>
+  <si>
+    <t>NCT02847611</t>
+  </si>
+  <si>
+    <t>NCT02166853</t>
+  </si>
+  <si>
+    <t>NCT02569424</t>
+  </si>
+  <si>
     <t>NCT02596360</t>
   </si>
   <si>
-    <t>NCT02678559</t>
+    <t>NCT02662816</t>
   </si>
   <si>
     <t>NCT01785693</t>
   </si>
   <si>
-    <t>NCT01392872</t>
-  </si>
-  <si>
-    <t>NCT02662816</t>
-  </si>
-  <si>
-    <t>NCT02569424</t>
-  </si>
-  <si>
-    <t>NCT02844088</t>
-  </si>
-  <si>
-    <t>NCT02166853</t>
-  </si>
-  <si>
-    <t>NCT03338179</t>
-  </si>
-  <si>
-    <t>NCT01718249</t>
-  </si>
-  <si>
-    <t>NCT02847611</t>
-  </si>
-  <si>
-    <t>NCT01602185</t>
-  </si>
-  <si>
-    <t>NCT01536470</t>
+    <t>NCT02824341</t>
+  </si>
+  <si>
+    <t>NCT02006810</t>
+  </si>
+  <si>
+    <t>NCT01811251</t>
+  </si>
+  <si>
+    <t>NCT02904538</t>
+  </si>
+  <si>
+    <t>NCT02970513</t>
   </si>
   <si>
     <t>NCT03045822</t>
   </si>
   <si>
+    <t>NCT03745742</t>
+  </si>
+  <si>
+    <t>NCT02598804</t>
+  </si>
+  <si>
+    <t>NCT03277963</t>
+  </si>
+  <si>
+    <t>NCT02100046</t>
+  </si>
+  <si>
+    <t>NCT02763592</t>
+  </si>
+  <si>
     <t>NCT02474745</t>
   </si>
   <si>
-    <t>NCT01811251</t>
-  </si>
-  <si>
-    <t>NCT02970513</t>
-  </si>
-  <si>
-    <t>NCT02598804</t>
-  </si>
-  <si>
-    <t>NCT03745742</t>
-  </si>
-  <si>
-    <t>NCT02904538</t>
-  </si>
-  <si>
-    <t>NCT02100046</t>
-  </si>
-  <si>
-    <t>NCT02763592</t>
-  </si>
-  <si>
-    <t>NCT02006810</t>
-  </si>
-  <si>
-    <t>NCT03277963</t>
-  </si>
-  <si>
-    <t>NCT02824341</t>
+    <t>NCT03113903</t>
+  </si>
+  <si>
+    <t>NCT03420261</t>
+  </si>
+  <si>
+    <t>NCT03378895</t>
+  </si>
+  <si>
+    <t>NCT01586130</t>
+  </si>
+  <si>
+    <t>NCT02123940</t>
+  </si>
+  <si>
+    <t>NCT02359461</t>
+  </si>
+  <si>
+    <t>NCT03453918</t>
+  </si>
+  <si>
+    <t>NCT03101410</t>
   </si>
   <si>
     <t>NCT00529724</t>
   </si>
   <si>
-    <t>NCT03378895</t>
-  </si>
-  <si>
-    <t>NCT02123940</t>
-  </si>
-  <si>
-    <t>NCT02359461</t>
-  </si>
-  <si>
     <t>NCT02502773</t>
   </si>
   <si>
-    <t>NCT03420261</t>
-  </si>
-  <si>
-    <t>NCT01586130</t>
+    <t>NCT02149589</t>
+  </si>
+  <si>
+    <t>NCT03125083</t>
   </si>
   <si>
     <t>NCT02255370</t>
   </si>
   <si>
-    <t>NCT03101410</t>
-  </si>
-  <si>
-    <t>NCT03453918</t>
-  </si>
-  <si>
-    <t>NCT03113903</t>
-  </si>
-  <si>
-    <t>NCT03125083</t>
-  </si>
-  <si>
-    <t>NCT02149589</t>
+    <t>NCT03967782</t>
+  </si>
+  <si>
+    <t>NCT03963440</t>
+  </si>
+  <si>
+    <t>NCT03166644</t>
+  </si>
+  <si>
+    <t>NCT02973503</t>
+  </si>
+  <si>
+    <t>NCT03807609</t>
   </si>
   <si>
     <t>NCT02126332</t>
   </si>
   <si>
-    <t>NCT03807609</t>
+    <t>NCT03742622</t>
+  </si>
+  <si>
+    <t>NCT01935544</t>
   </si>
   <si>
     <t>NCT04189380</t>
   </si>
   <si>
-    <t>NCT03742622</t>
-  </si>
-  <si>
-    <t>NCT02973503</t>
-  </si>
-  <si>
     <t>NCT02799186</t>
   </si>
   <si>
-    <t>NCT03166644</t>
-  </si>
-  <si>
-    <t>NCT03963440</t>
-  </si>
-  <si>
-    <t>NCT03967782</t>
-  </si>
-  <si>
-    <t>NCT01935544</t>
+    <t>NCT03229148</t>
+  </si>
+  <si>
+    <t>NCT03923244</t>
+  </si>
+  <si>
+    <t>NCT02618720</t>
+  </si>
+  <si>
+    <t>NCT03840785</t>
+  </si>
+  <si>
+    <t>NCT04174209</t>
   </si>
   <si>
     <t>NCT03887000</t>
   </si>
   <si>
-    <t>NCT02618720</t>
-  </si>
-  <si>
-    <t>NCT03923244</t>
-  </si>
-  <si>
-    <t>NCT04174209</t>
-  </si>
-  <si>
-    <t>NCT03229148</t>
-  </si>
-  <si>
-    <t>NCT03840785</t>
+    <t>NCT04492813</t>
+  </si>
+  <si>
+    <t>NCT04700150</t>
+  </si>
+  <si>
+    <t>NCT02340403</t>
+  </si>
+  <si>
+    <t>NCT04399278</t>
+  </si>
+  <si>
+    <t>NCT04246788</t>
+  </si>
+  <si>
+    <t>NCT04391452</t>
+  </si>
+  <si>
+    <t>NCT03339141</t>
+  </si>
+  <si>
+    <t>NCT04739189</t>
+  </si>
+  <si>
+    <t>NCT03838939</t>
   </si>
   <si>
     <t>NCT04371016</t>
@@ -490,174 +517,147 @@
     <t>NCT04482530</t>
   </si>
   <si>
-    <t>NCT04739189</t>
-  </si>
-  <si>
-    <t>NCT03838939</t>
-  </si>
-  <si>
-    <t>NCT02340403</t>
-  </si>
-  <si>
-    <t>NCT03339141</t>
-  </si>
-  <si>
     <t>NCT04880759</t>
   </si>
   <si>
-    <t>NCT04492813</t>
-  </si>
-  <si>
-    <t>NCT04391452</t>
-  </si>
-  <si>
-    <t>NCT04700150</t>
-  </si>
-  <si>
-    <t>NCT04246788</t>
-  </si>
-  <si>
-    <t>NCT04399278</t>
+    <t>NCT05188755</t>
+  </si>
+  <si>
+    <t>NCT04923555</t>
+  </si>
+  <si>
+    <t>NCT05147610</t>
+  </si>
+  <si>
+    <t>NCT05085119</t>
+  </si>
+  <si>
+    <t>NCT05365113</t>
+  </si>
+  <si>
+    <t>NCT04236518</t>
+  </si>
+  <si>
+    <t>NCT04935814</t>
   </si>
   <si>
     <t>NCT03987789</t>
   </si>
   <si>
+    <t>NCT04355312</t>
+  </si>
+  <si>
     <t>NCT05160298</t>
   </si>
   <si>
+    <t>NCT04624581</t>
+  </si>
+  <si>
+    <t>NCT02555982</t>
+  </si>
+  <si>
+    <t>NCT02819778</t>
+  </si>
+  <si>
+    <t>NCT04268875</t>
+  </si>
+  <si>
+    <t>NCT04902001</t>
+  </si>
+  <si>
+    <t>NCT04368858</t>
+  </si>
+  <si>
+    <t>NCT04551326</t>
+  </si>
+  <si>
+    <t>NCT04903860</t>
+  </si>
+  <si>
     <t>NCT04753580</t>
   </si>
   <si>
-    <t>NCT02819778</t>
-  </si>
-  <si>
-    <t>NCT04903860</t>
-  </si>
-  <si>
-    <t>NCT02555982</t>
-  </si>
-  <si>
-    <t>NCT04236518</t>
-  </si>
-  <si>
-    <t>NCT04551326</t>
-  </si>
-  <si>
-    <t>NCT04355312</t>
-  </si>
-  <si>
-    <t>NCT04923555</t>
-  </si>
-  <si>
-    <t>NCT04368858</t>
-  </si>
-  <si>
-    <t>NCT04902001</t>
-  </si>
-  <si>
-    <t>NCT05147610</t>
-  </si>
-  <si>
-    <t>NCT04624581</t>
-  </si>
-  <si>
-    <t>NCT05085119</t>
-  </si>
-  <si>
-    <t>NCT04935814</t>
-  </si>
-  <si>
-    <t>NCT05188755</t>
-  </si>
-  <si>
-    <t>NCT04268875</t>
-  </si>
-  <si>
-    <t>NCT05365113</t>
+    <t>NCT04438317</t>
+  </si>
+  <si>
+    <t>NCT03317067</t>
+  </si>
+  <si>
+    <t>NCT06017440</t>
+  </si>
+  <si>
+    <t>NCT04107545</t>
+  </si>
+  <si>
+    <t>NCT04334083</t>
+  </si>
+  <si>
+    <t>NCT03966092</t>
+  </si>
+  <si>
+    <t>NCT05225376</t>
+  </si>
+  <si>
+    <t>NCT04487639</t>
+  </si>
+  <si>
+    <t>NCT03971513</t>
+  </si>
+  <si>
+    <t>NCT04041817</t>
+  </si>
+  <si>
+    <t>NCT04731987</t>
+  </si>
+  <si>
+    <t>NCT04864028</t>
   </si>
   <si>
     <t>NCT04887077</t>
   </si>
   <si>
-    <t>NCT04107545</t>
-  </si>
-  <si>
-    <t>NCT03971513</t>
-  </si>
-  <si>
-    <t>NCT04438317</t>
-  </si>
-  <si>
-    <t>NCT06017440</t>
-  </si>
-  <si>
-    <t>NCT05225376</t>
-  </si>
-  <si>
-    <t>NCT04731987</t>
-  </si>
-  <si>
-    <t>NCT04334083</t>
-  </si>
-  <si>
-    <t>NCT03966092</t>
+    <t>NCT03981432</t>
   </si>
   <si>
     <t>NCT04264949</t>
   </si>
   <si>
-    <t>NCT04864028</t>
-  </si>
-  <si>
-    <t>NCT04041817</t>
-  </si>
-  <si>
     <t>NCT03818243</t>
   </si>
   <si>
-    <t>NCT03317067</t>
-  </si>
-  <si>
-    <t>NCT03981432</t>
-  </si>
-  <si>
     <t>NCT02907554</t>
   </si>
   <si>
-    <t>NCT04487639</t>
+    <t>NCT06396377</t>
+  </si>
+  <si>
+    <t>NCT04235608</t>
+  </si>
+  <si>
+    <t>NCT03915223</t>
   </si>
   <si>
     <t>NCT05142059</t>
   </si>
   <si>
+    <t>NCT05328154</t>
+  </si>
+  <si>
+    <t>NCT05416190</t>
+  </si>
+  <si>
+    <t>NCT05405088</t>
+  </si>
+  <si>
+    <t>NCT04212234</t>
+  </si>
+  <si>
     <t>NCT05026281</t>
   </si>
   <si>
-    <t>NCT04235608</t>
-  </si>
-  <si>
     <t>NCT05254639</t>
   </si>
   <si>
-    <t>NCT05405088</t>
-  </si>
-  <si>
-    <t>NCT05328154</t>
-  </si>
-  <si>
-    <t>NCT04212234</t>
-  </si>
-  <si>
-    <t>NCT05416190</t>
-  </si>
-  <si>
-    <t>NCT03915223</t>
-  </si>
-  <si>
-    <t>NCT06396377</t>
-  </si>
-  <si>
     <t>NCT04935658</t>
   </si>
   <si>
@@ -676,12 +676,12 @@
     <t>2012-002768-28</t>
   </si>
   <si>
+    <t>2012-002123-15</t>
+  </si>
+  <si>
     <t>2015-005601-37</t>
   </si>
   <si>
-    <t>2012-002123-15</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -745,599 +745,602 @@
     <t>Local Anaesthetic Effects of Transcutaneous Amitriptyline in Human Volunteers : a Controlled, Double-blinded, Randomised Study Versus Placebo and Transcutaneous Local Anaesthetic (EMLA(R))</t>
   </si>
   <si>
+    <t>Economic Medical Evaluation of Treatment of the Neuropathic Pain Rebel by Cortical Stimulation</t>
+  </si>
+  <si>
     <t>Conscious Sedation With Midazolam in Dentally Anxious Patients: Effect of the Administration Route (Oral Versus Intravenous Administration)</t>
   </si>
   <si>
-    <t>Economic Medical Evaluation of Treatment of the Neuropathic Pain Rebel by Cortical Stimulation</t>
+    <t>Tramadol and Pain Sensitization</t>
   </si>
   <si>
     <t>Effects of Perioperative Systemic Ketamine on Development of Long-term Neuropathic Pain After Thoracotomy.</t>
   </si>
   <si>
+    <t>Evaluation of the Interaction of Rimonabant (Antagonist of CB1 Receptor) on the Analgesic Effect of Paracetamol in Intravenous Administration</t>
+  </si>
+  <si>
+    <t>Impact of Oral Magnesium on Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Prediction of Left Ventricular Remodelling in Patients Treated by Angioplasty in the Acute of Phase of a First Myocardial Infarction by Low-Dose Dobutamine Tc-99m-Mibi Gated SPECT</t>
+  </si>
+  <si>
     <t>Effects of a Single Dose of Intrathecal Magnesium Sulfate on Postoperative Morphine Consumption After Total Hip Replacement</t>
   </si>
   <si>
-    <t>Prediction of Left Ventricular Remodelling in Patients Treated by Angioplasty in the Acute of Phase of a First Myocardial Infarction by Low-Dose Dobutamine Tc-99m-Mibi Gated SPECT</t>
+    <t>Impact of Naloxone on the Analgesic Effect of Paracetamol in Healthy Volunteers</t>
   </si>
   <si>
     <t>Effect of Paracetamol on the Status in Glutathione for the Aged Person</t>
   </si>
   <si>
-    <t>Impact of Naloxone on the Analgesic Effect of Paracetamol in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interaction of Rimonabant (Antagonist of CB1 Receptor) on the Analgesic Effect of Paracetamol in Intravenous Administration</t>
-  </si>
-  <si>
-    <t>Impact of Oral Magnesium on Neuropathic Pain</t>
-  </si>
-  <si>
-    <t>Tramadol and Pain Sensitization</t>
+    <t>National, Multicenter, Prospective Study of Screening of Fabry Disease in a Population of Men Over 28 Days Old and Less Than 55 Years, Hospitalized for an Ischemic Stroke.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Forecasts Parameters of Real Time Three-dimensional Doppler Echocardiography in Selecting Patients With Chronic Heart Failure for Cardiac Resynchronisation Therapy</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic of Sevoflurane During a 48h Sedation in ICU With AnaConDa®</t>
+  </si>
+  <si>
+    <t>Non Invasive Pressure Support Ventilation (NIPPV) Versus Conventionnal Approach and Early Recruitment Maneuver (RM) for Preoxygenation of Morbidly Obese Patient</t>
+  </si>
+  <si>
+    <t>Interest of Néfopam in the Treatment of Pain During the Intense Ureteral Calculi Uncomplicated in Adults in Emergencies Unit.</t>
+  </si>
+  <si>
+    <t>Effect of the Antioxidant Micronutrients of Rapeseed Oil on the Prevention of Cardiovascular Diseases</t>
   </si>
   <si>
     <t>Recruitment Maneuver Increases Oxygenation After Intubation in Hypoxemic ICU Patients: a Randomized Controlled Study</t>
   </si>
   <si>
-    <t>Evaluation of the Forecasts Parameters of Real Time Three-dimensional Doppler Echocardiography in Selecting Patients With Chronic Heart Failure for Cardiac Resynchronisation Therapy</t>
-  </si>
-  <si>
     <t>Facial Expression Recognition of Emotion and Categorization of Emotional Words in Parkinson's Disease. Impact of L-Dopa and Deep Brain Stimulation of Subthalamic Nucleus .</t>
   </si>
   <si>
-    <t>Non Invasive Pressure Support Ventilation (NIPPV) Versus Conventionnal Approach and Early Recruitment Maneuver (RM) for Preoxygenation of Morbidly Obese Patient</t>
-  </si>
-  <si>
-    <t>Effect of the Antioxidant Micronutrients of Rapeseed Oil on the Prevention of Cardiovascular Diseases</t>
-  </si>
-  <si>
-    <t>Interest of Néfopam in the Treatment of Pain During the Intense Ureteral Calculi Uncomplicated in Adults in Emergencies Unit.</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic of Sevoflurane During a 48h Sedation in ICU With AnaConDa®</t>
-  </si>
-  <si>
-    <t>National, Multicenter, Prospective Study of Screening of Fabry Disease in a Population of Men Over 28 Days Old and Less Than 55 Years, Hospitalized for an Ischemic Stroke.</t>
+    <t>Postoperative Analgesia After Cardiac Surgery: Effects of a Continuous Infusion of Ropivacaine Through Laterosternal Catheters</t>
   </si>
   <si>
     <t>Effects of a Systematic Addition of Clonidine in the Local Anaesthetic and Opiate Solution for Epidural Patient Controlled Analgesia in Labour (Levobupivacaine 0.568 mg.mLl-1 + Sufentanil 0.45 µg.mL-1)</t>
   </si>
   <si>
-    <t>Postoperative Analgesia After Cardiac Surgery: Effects of a Continuous Infusion of Ropivacaine Through Laterosternal Catheters</t>
-  </si>
-  <si>
     <t>Placebo Effect of Paracetamol in Healthy Volunteers</t>
   </si>
   <si>
+    <t>Scan Evaluation at 9 Years of the Bone Acetabular Supporting Cups Without Cement (Couple Metal/Metal in Diameter 28 mm)</t>
+  </si>
+  <si>
+    <t>Pharmacodynamic Study of 125 mg of Paracetamol Permucosal Administered by Sublingual and Buccal Route</t>
+  </si>
+  <si>
+    <t>Study of Integrity of Down Inhibitor Bundle at Patients Suffering of Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Effects of a Long-term and Regular Grapefruit Juice Consumption on Vascular Protection and Bone Metabolism : a Cross-over Designed Study to Determine the Specific Role of Naringin</t>
+  </si>
+  <si>
+    <t>Role of Combined Intervention of Physical Activity and Nutrition in Metabolic Syndrome Treatment on Cardio-vascular Risk and Muscular- Skeletal Functions in Human Subject. Analysis of Patient's Compliance in Patient's Follow-up.</t>
+  </si>
+  <si>
+    <t>Mobilization by Plerixafor of Haematopoietic Stem Cells in Children</t>
+  </si>
+  <si>
     <t>Comparison of Sufentanil and Remifentanil Infusion During General Anaesthesia for Removal of Wisdom Teeth in Ambulatory Surgery</t>
   </si>
   <si>
-    <t>Scan Evaluation at 9 Years of the Bone Acetabular Supporting Cups Without Cement (Couple Metal/Metal in Diameter 28 mm)</t>
-  </si>
-  <si>
-    <t>Study of Integrity of Down Inhibitor Bundle at Patients Suffering of Neuropathic Pain</t>
+    <t>Optimization of fMRI for the Study of Basal Ganglia Activation in Parkinson's Disease: T2* Measurement in the Cortex and the Basal Ganglia</t>
+  </si>
+  <si>
+    <t>Comparison of Biomarkers of Stress in Emergency Physicians Working a 24-hour Shift or a 14-hour Night Shift - the JOBSTRESS Randomized Trial</t>
+  </si>
+  <si>
+    <t>Comparative Study of the Influence of Two Antagonist Receptors 5-HT3, tropisétron and granisétron, on the Analgesic Effect of Paracétamol</t>
   </si>
   <si>
     <t>Effect of Enteral Immunonutrition During Chemoradiotherapy in Patients With Head and Neck Cancer or Esophageal Cancer</t>
   </si>
   <si>
-    <t>Optimization of fMRI for the Study of Basal Ganglia Activation in Parkinson's Disease: T2* Measurement in the Cortex and the Basal Ganglia</t>
-  </si>
-  <si>
-    <t>Pharmacodynamic Study of 125 mg of Paracetamol Permucosal Administered by Sublingual and Buccal Route</t>
-  </si>
-  <si>
-    <t>Role of Combined Intervention of Physical Activity and Nutrition in Metabolic Syndrome Treatment on Cardio-vascular Risk and Muscular- Skeletal Functions in Human Subject. Analysis of Patient's Compliance in Patient's Follow-up.</t>
-  </si>
-  <si>
-    <t>Comparison of Biomarkers of Stress in Emergency Physicians Working a 24-hour Shift or a 14-hour Night Shift - the JOBSTRESS Randomized Trial</t>
-  </si>
-  <si>
-    <t>Effects of a Long-term and Regular Grapefruit Juice Consumption on Vascular Protection and Bone Metabolism : a Cross-over Designed Study to Determine the Specific Role of Naringin</t>
-  </si>
-  <si>
-    <t>Mobilization by Plerixafor of Haematopoietic Stem Cells in Children</t>
-  </si>
-  <si>
-    <t>Comparative Study of the Influence of Two Antagonist Receptors 5-HT3, tropisétron and granisétron, on the Analgesic Effect of Paracétamol</t>
+    <t>Effect of the Injection of Local Analgesia With Epinephrine During Total Hip Arthroplasty on the Blood Losses Per and Operatively.</t>
+  </si>
+  <si>
+    <t>Evaluation of Nutritional Status in ICU : Interest for the Measurement of Body Composition by Body Bioelectrical Impedance and Comparison With Several Methods</t>
+  </si>
+  <si>
+    <t>Intraoperative Lung Protective Ventilation in Abdominal Surgery: A Randomized Controlled Study</t>
   </si>
   <si>
     <t>Effects of Curcumin Loading Dose on Vascular Reactivity of Healthy Middle-aged Smokers</t>
   </si>
   <si>
-    <t>Effect of the Injection of Local Analgesia With Epinephrine During Total Hip Arthroplasty on the Blood Losses Per and Operatively.</t>
+    <t>Use of Ketamine Associate With an Opioid for Sedation in ICU : a Randomized Controlled Double Blind Study</t>
+  </si>
+  <si>
+    <t>Diagnostic Value of Copeptin Assay for Acute Coronary Syndrome Without ST-segment Elevation</t>
+  </si>
+  <si>
+    <t>Neurally Adjusted Ventilatory Assist (NAVA) in NonInvasive Ventilation (NIV)</t>
   </si>
   <si>
     <t>Calorimetry, Insulin Resistance and Energy Metabolism Study to Understand the Risk of Obesity in Kidney Transplanted Patients</t>
   </si>
   <si>
-    <t>Evaluation of Nutritional Status in ICU : Interest for the Measurement of Body Composition by Body Bioelectrical Impedance and Comparison With Several Methods</t>
-  </si>
-  <si>
-    <t>Use of Ketamine Associate With an Opioid for Sedation in ICU : a Randomized Controlled Double Blind Study</t>
+    <t>Visualisation of the Central Analgesic Effect of Paracetamol in Functional MRI</t>
   </si>
   <si>
     <t>Validation of a New Non Invasive Method for Intracranial Pressure Monitoring</t>
   </si>
   <si>
-    <t>Neurally Adjusted Ventilatory Assist (NAVA) in NonInvasive Ventilation (NIV)</t>
-  </si>
-  <si>
-    <t>Visualisation of the Central Analgesic Effect of Paracetamol in Functional MRI</t>
-  </si>
-  <si>
-    <t>Intraoperative Lung Protective Ventilation in Abdominal Surgery: A Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Diagnostic Value of Copeptin Assay for Acute Coronary Syndrome Without ST-segment Elevation</t>
+    <t>Paracétamol and Pharmacogenetic in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Locking Plate Versus Pins for Surgical Treatment of Posteriorly Tilted Distal Radius Fracture</t>
+  </si>
+  <si>
+    <t>Effect of Deep Brain Stimulation on Gait of Patients With Parkinson's Disease Depending on Electrode Location in Subthalamic Area.</t>
+  </si>
+  <si>
+    <t>Clinical Study Comparing the Efficacy of Transbuccal Paracetamol 125 mg Versus Paracetamol Injection 1g in Slow Infusion IV in Patients With Acute Pain</t>
+  </si>
+  <si>
+    <t>Preventing the Development of Neuropathic Pain Post-mastectomy/Tumorectomy by Pre-emptive or Post-operative Memantine Administration</t>
+  </si>
+  <si>
+    <t>Comparative Study of the Bioavailability of Magnesium Administrated by Two ChronoMag Smart Tablet® 50 mg Versus Three Mag2® Tablets 100mg.</t>
+  </si>
+  <si>
+    <t>Comparison of the Ultra-low-dose Veo Algorithm With the Gold Standard Filtered Back Projection for Detecting Pulmonary Asbestos-related Conditions</t>
+  </si>
+  <si>
+    <t>Efficacy of Surgical Coronary Revascularization Associated With Stem Cells Injection in Patients With Severe Chronic Ischemic Heart Disease With Residual Viability. A Prospective, Controlled Pilot Trial.</t>
   </si>
   <si>
     <t>Role of Mesocorticolimbic Pathway in Apathy of Patients With Parkinson's Disease. - Study Using Diffusion Tensor Imaging and Fibres Tracking</t>
   </si>
   <si>
+    <t>VertebrOpLasty Versus Conservative Treatment in Acute Non Osteoporotic Vertebral Fractures</t>
+  </si>
+  <si>
+    <t>Histopathologic Evaluation of High Grade Brain Tumors by High Order Diffusion Tensor Imaging: Peritumoral Glial Cell Infiltration Quantitative Method</t>
+  </si>
+  <si>
+    <t>Respiratory Mechanical Effects of Sevoflurane Administered With the Anesthetic Conserving Device in Pressure Support Ventilation</t>
+  </si>
+  <si>
+    <t>Effects of Galantamine and Donépézil on the Amount and the Quality oh the Sleep in Patients Suffering From Alzheimer Disease.</t>
+  </si>
+  <si>
+    <t>Effets potentiels d’une supplémentation en oméga 3 sur la membrane des cardiomyocytes de patients atteints d’athérosclérose coronaire ?</t>
+  </si>
+  <si>
+    <t>Effects Of A Recruitment Maneuver On Plasma Levels of sRAGE, The Soluble Form of The Receptor For Advanced Glycation End Products, In Patients With Diffuse Acute Respiratory Distress Syndrome (ARDS)</t>
+  </si>
+  <si>
     <t>Evaluation of Indices of Body Composition During Ultramarathon : Measure by Body Bioelectrical Impedance</t>
   </si>
   <si>
-    <t>Efficacy of Surgical Coronary Revascularization Associated With Stem Cells Injection in Patients With Severe Chronic Ischemic Heart Disease With Residual Viability. A Prospective, Controlled Pilot Trial.</t>
-  </si>
-  <si>
-    <t>Preventing the Development of Neuropathic Pain Post-mastectomy/Tumorectomy by Pre-emptive or Post-operative Memantine Administration</t>
-  </si>
-  <si>
-    <t>VertebrOpLasty Versus Conservative Treatment in Acute Non Osteoporotic Vertebral Fractures</t>
-  </si>
-  <si>
     <t>Efficacy and Safety Study of Short Term Antibiotic During Seven Days With Ceftriaxone Intravenous the First Day Then Cefixime the Second Day Till the Seventh Day of Acute Uncomplicated Pyelonephritis in Women Between 18 and 65 Years Old</t>
   </si>
   <si>
-    <t>Effects of Galantamine and Donépézil on the Amount and the Quality oh the Sleep in Patients Suffering From Alzheimer Disease.</t>
-  </si>
-  <si>
-    <t>Effects Of A Recruitment Maneuver On Plasma Levels of sRAGE, The Soluble Form of The Receptor For Advanced Glycation End Products, In Patients With Diffuse Acute Respiratory Distress Syndrome (ARDS)</t>
-  </si>
-  <si>
-    <t>Effets potentiels d’une supplémentation en oméga 3 sur la membrane des cardiomyocytes de patients atteints d’athérosclérose coronaire ?</t>
-  </si>
-  <si>
-    <t>Respiratory Mechanical Effects of Sevoflurane Administered With the Anesthetic Conserving Device in Pressure Support Ventilation</t>
-  </si>
-  <si>
-    <t>Paracétamol and Pharmacogenetic in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Histopathologic Evaluation of High Grade Brain Tumors by High Order Diffusion Tensor Imaging: Peritumoral Glial Cell Infiltration Quantitative Method</t>
-  </si>
-  <si>
-    <t>Effect of Deep Brain Stimulation on Gait of Patients With Parkinson's Disease Depending on Electrode Location in Subthalamic Area.</t>
-  </si>
-  <si>
-    <t>Comparison of the Ultra-low-dose Veo Algorithm With the Gold Standard Filtered Back Projection for Detecting Pulmonary Asbestos-related Conditions</t>
-  </si>
-  <si>
     <t>Efficacy and Safety of Ethanol Lock Solution in Prevention of Catheter Related Bloodstream Infection for Patients Suffering Acute Renal Failure, and Hospitalized in Intensive Care Unit. A Multi-Center, Randomized, Versus Placebo, Double Blinded Clinical Trial.</t>
   </si>
   <si>
-    <t>Locking Plate Versus Pins for Surgical Treatment of Posteriorly Tilted Distal Radius Fracture</t>
-  </si>
-  <si>
-    <t>Comparative Study of the Bioavailability of Magnesium Administrated by Two ChronoMag Smart Tablet® 50 mg Versus Three Mag2® Tablets 100mg.</t>
-  </si>
-  <si>
     <t>Compared Efficacy and Tolerance of Two Vasopressors Used to Treat Preoperative Hypotension During Carotid Surgery. Prospective Randomised Controlled and Single Centre Trial</t>
   </si>
   <si>
-    <t>Clinical Study Comparing the Efficacy of Transbuccal Paracetamol 125 mg Versus Paracetamol Injection 1g in Slow Infusion IV in Patients With Acute Pain</t>
+    <t>Post EVAR Endoleak Detection : Model-based Iterative Reconstruction (MBIR) vs Adaptive Statistical Iterative Reconstruction (ASIR) CTA; a Prospective Study</t>
   </si>
   <si>
     <t>Effects of Decrease in Cholesterol Levels Induced by a Statin on Sperm Quality</t>
   </si>
   <si>
+    <t>Model-based Iterative Reconstruction (MB-IR VEOTM) in Ultra Low-dose Abdominal CT Versus Adaptative Statistical Iterative Reconstruction (ASIR): A Prospective Study for Acute Renal Colic</t>
+  </si>
+  <si>
     <t>Tracheostomy and Weaning From Mechanical Ventilation : Evaluation of the Lung Ultrasound Score</t>
   </si>
   <si>
+    <t>A Pharmacokinetic Drug Interaction and Tolerance Study of Paracetamol and Nefopam</t>
+  </si>
+  <si>
+    <t>ACETAMINOPHEN ANTINOCICEPTIVE EFFECT WHEN ASSOCIATED WITH N-ACETYLCYSTENEINE</t>
+  </si>
+  <si>
     <t>Is There a Benefit to Optimize HF (Heart Failure) Treatment in Aged Over 80 Year's Old Patients?</t>
   </si>
   <si>
-    <t>A Pharmacokinetic Drug Interaction and Tolerance Study of Paracetamol and Nefopam</t>
-  </si>
-  <si>
     <t>Evaluation of Richmond Agitation Sedation Scale According to Alveolar Concentration of Sevoflurane During a Sedation With Sevoflurane in ICU Patients</t>
   </si>
   <si>
-    <t>Model-based Iterative Reconstruction (MB-IR VEOTM) in Ultra Low-dose Abdominal CT Versus Adaptative Statistical Iterative Reconstruction (ASIR): A Prospective Study for Acute Renal Colic</t>
-  </si>
-  <si>
-    <t>ACETAMINOPHEN ANTINOCICEPTIVE EFFECT WHEN ASSOCIATED WITH N-ACETYLCYSTENEINE</t>
-  </si>
-  <si>
-    <t>Post EVAR Endoleak Detection : Model-based Iterative Reconstruction (MBIR) vs Adaptive Statistical Iterative Reconstruction (ASIR) CTA; a Prospective Study</t>
+    <t>Active Prevention of MSDs (Musculoskeletal Disorders, Upper and Spine Members) in the Context of Computer Screen Work</t>
+  </si>
+  <si>
+    <t>Physical Activity and Food Intake Interaction: Effect of Weight Loss in Obese Adolescent</t>
+  </si>
+  <si>
+    <t>SUBclavian Central Venous Catheters Guidance and Examination by UltraSound : a Randomized Controlled Study Versus Landmark Method</t>
+  </si>
+  <si>
+    <t>Protein Need and Interest of " Quick Proteins " to the Obese Subject Operated by Bariatric Surgery (BIBOP)</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic Study of 48-hour Sevoflurane Inhalation Using a Disposable Delivery System (AnaConDa©) in Obese ICU Patients</t>
   </si>
   <si>
     <t>Prevention of Oxaliplatin-induced Neuropathic Pain by a Specific Diet</t>
   </si>
   <si>
-    <t>Active Prevention of MSDs (Musculoskeletal Disorders, Upper and Spine Members) in the Context of Computer Screen Work</t>
-  </si>
-  <si>
-    <t>Physical Activity and Food Intake Interaction: Effect of Weight Loss in Obese Adolescent</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic Study of 48-hour Sevoflurane Inhalation Using a Disposable Delivery System (AnaConDa©) in Obese ICU Patients</t>
+    <t>A Pharmacokinetic Study of Sevoflurane Inhalation in Burn ICU Patients</t>
+  </si>
+  <si>
+    <t>Early Nasal High Flow Oxygen Therapy for Prevention of Postoperative Hypoxemia After Abdominal Surgery: A Multicenter Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Postoperative Rehabilitation After Cardiac Surgery in Patients at Risk of Respiratory Complications. Effects of a Continuous Bi-laterosternal Infusion of Ropivacaine Through Multihole Catheters.</t>
   </si>
   <si>
-    <t>Protein Need and Interest of " Quick Proteins " to the Obese Subject Operated by Bariatric Surgery (BIBOP)</t>
-  </si>
-  <si>
-    <t>Early Nasal High Flow Oxygen Therapy for Prevention of Postoperative Hypoxemia After Abdominal Surgery: A Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>SUBclavian Central Venous Catheters Guidance and Examination by UltraSound : a Randomized Controlled Study Versus Landmark Method</t>
-  </si>
-  <si>
-    <t>A Pharmacokinetic Study of Sevoflurane Inhalation in Burn ICU Patients</t>
+    <t>Effectiveness of Noradrenaline to Control Intraoperative Arterial Pressure in High-risk Surgical Patients: A Multicentre Prospective Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of Cognitive Disability and Quality of Life of Patients Suffering From Multiple Scleroses and Treat With Immunosuppressant</t>
+  </si>
+  <si>
+    <t>Preload Dependency Evaluation With Stroke Volume Variation During Alveolar Recruitment Manoeuvres</t>
+  </si>
+  <si>
+    <t>Study of Conscious Behavior Under Low-frequency Deep Brain Stimulation in Chronic and Severe Post-coma Disorders of Consciousness</t>
+  </si>
+  <si>
+    <t>Antagonists NMDA in Relay to Ketamine in Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Evaluation of Metamemory in Patients With Schizophrenia</t>
   </si>
   <si>
     <t>A Single-blind, Randomized Study to Compare Impacts of Intraperitoneal Pressure (8mmHg Versus 12 mmHg) and CO2 Gas (Cool, Dry CO2 Gas Versus Warmed; Humidified Co2 Gas) on Surgical Peritoneal Environment During Laparoscopic Surgery</t>
   </si>
   <si>
+    <t>Evaluation of the Persistence in 2016 of Vaccinal Immunity Against Meningococcus C Among Children and Teenagers Who Received Meningococcus C Conjugate Vaccine in January 2002 During the Puy-de-Dôme Campaign and of Natural Immunity Among Unvaccinated People</t>
+  </si>
+  <si>
+    <t>Validation of the Dynamometer LABIN</t>
+  </si>
+  <si>
+    <t>Effect of Early 48-hour Sevoflurane Inhalation on Gas Exchange and Inflammation in Patients Presenting With Acute Respiratory Distress Syndrome (ARDS) : a Monocentric, Prospective, Randomized Study.</t>
+  </si>
+  <si>
+    <t>Effect of PEEP and Trendelenburg on Ultrasound Size of Internal Jugular and Subclavian Veins: A Cross-over Randomized Controlled Study</t>
+  </si>
+  <si>
     <t>Dextromethorphan Effect on Central Sensitization to Pain in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Preload Dependency Evaluation With Stroke Volume Variation During Alveolar Recruitment Manoeuvres</t>
+    <t>Feasibility Study of the Quantification of Glutathione Concentrations in Muscle and Liver Using in Vivo Proton Magnetic Resonance Spectroscopy (1H MRS)in Human</t>
   </si>
   <si>
     <t>Interest of a Bi-truncal Nerve Block (Femoral + Sciatic) Extended, Systematically Associated With General Anesthesia, in the Femoropopliteal Bypass: Study of Post-operative Analgesia and Peripheral Circulation Downstream.</t>
   </si>
   <si>
-    <t>Evaluation of Cognitive Disability and Quality of Life of Patients Suffering From Multiple Scleroses and Treat With Immunosuppressant</t>
-  </si>
-  <si>
-    <t>Feasibility Study of the Quantification of Glutathione Concentrations in Muscle and Liver Using in Vivo Proton Magnetic Resonance Spectroscopy (1H MRS)in Human</t>
-  </si>
-  <si>
-    <t>Effect of PEEP and Trendelenburg on Ultrasound Size of Internal Jugular and Subclavian Veins: A Cross-over Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Persistence in 2016 of Vaccinal Immunity Against Meningococcus C Among Children and Teenagers Who Received Meningococcus C Conjugate Vaccine in January 2002 During the Puy-de-Dôme Campaign and of Natural Immunity Among Unvaccinated People</t>
-  </si>
-  <si>
-    <t>Effect of Early 48-hour Sevoflurane Inhalation on Gas Exchange and Inflammation in Patients Presenting With Acute Respiratory Distress Syndrome (ARDS) : a Monocentric, Prospective, Randomized Study.</t>
-  </si>
-  <si>
-    <t>Evaluation of Metamemory in Patients With Schizophrenia</t>
-  </si>
-  <si>
-    <t>Study of Conscious Behavior Under Low-frequency Deep Brain Stimulation in Chronic and Severe Post-coma Disorders of Consciousness</t>
-  </si>
-  <si>
-    <t>Validation of the Dynamometer LABIN</t>
-  </si>
-  <si>
-    <t>Antagonists NMDA in Relay to Ketamine in Neuropathic Pain</t>
-  </si>
-  <si>
-    <t>Effectiveness of Noradrenaline to Control Intraoperative Arterial Pressure in High-risk Surgical Patients: A Multicentre Prospective Randomized Controlled Trial</t>
+    <t>Exploration of the Reward System by Functional MRI in Parkinson's Disease Patients With and Without REM Sleep Behavior Disorder</t>
+  </si>
+  <si>
+    <t>Development of Endothelial Biomarkers for Use in Cohort Studies. Comparison With Reference Biomarkers.</t>
+  </si>
+  <si>
+    <t>Co-analgesic Effects of Dexamethasone and Pregabalin After Lumbar Slipped Disc Surgery</t>
+  </si>
+  <si>
+    <t>Perineural Versus Systemic Dexamethasone to Prolong Regional Anesthesia in Front Foot Surgery</t>
+  </si>
+  <si>
+    <t>Psychological Evaluation According Colonic Colonization by Escherichia Coli of Patients After Colorectal Surgery</t>
   </si>
   <si>
     <t>Evaluation of the Impact of Bioimpedance Analysis in Patients With Cardiac Implantable Electronic Devices</t>
   </si>
   <si>
+    <t>Post Myocardial Infarction's Rehabilitation Guided by Heart Rate Variability</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of Self Management Program on Changes in Physical Activity Level of Knee Osteoarthritis Patients in Spa Therapy</t>
+  </si>
+  <si>
+    <t>Perception of Pain During Obstructive Sleep Apnea Syndrome in Obese Patient</t>
+  </si>
+  <si>
+    <t>Assessment of the Effectiveness of Ethosuximide in the Treatment of Peripheral Neuropathic Pain.</t>
+  </si>
+  <si>
+    <t>Impact of 5% Lidocaine Medicated Plaster on Allodynic Symptoms of Localized Neuropathic Pain After Knee Surgery</t>
+  </si>
+  <si>
     <t>Effect of the Type of Maternal Pushing During the Second Stage of Labor on Obstetric and Neonatal Outcome: a Multicenter Randomized Trial</t>
   </si>
   <si>
-    <t>Co-analgesic Effects of Dexamethasone and Pregabalin After Lumbar Slipped Disc Surgery</t>
-  </si>
-  <si>
-    <t>Psychological Evaluation According Colonic Colonization by Escherichia Coli of Patients After Colorectal Surgery</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of Self Management Program on Changes in Physical Activity Level of Knee Osteoarthritis Patients in Spa Therapy</t>
-  </si>
-  <si>
-    <t>Post Myocardial Infarction's Rehabilitation Guided by Heart Rate Variability</t>
-  </si>
-  <si>
-    <t>Perineural Versus Systemic Dexamethasone to Prolong Regional Anesthesia in Front Foot Surgery</t>
-  </si>
-  <si>
-    <t>Assessment of the Effectiveness of Ethosuximide in the Treatment of Peripheral Neuropathic Pain.</t>
-  </si>
-  <si>
-    <t>Impact of 5% Lidocaine Medicated Plaster on Allodynic Symptoms of Localized Neuropathic Pain After Knee Surgery</t>
-  </si>
-  <si>
-    <t>Development of Endothelial Biomarkers for Use in Cohort Studies. Comparison With Reference Biomarkers.</t>
-  </si>
-  <si>
-    <t>Perception of Pain During Obstructive Sleep Apnea Syndrome in Obese Patient</t>
-  </si>
-  <si>
-    <t>Exploration of the Reward System by Functional MRI in Parkinson's Disease Patients With and Without REM Sleep Behavior Disorder</t>
+    <t>Validation of the French Version of the Pain Sensitivity Questionnaire</t>
+  </si>
+  <si>
+    <t>Hemostasis Evolution During Fluid Loading in Abdominal Surgery. Effects of Fluid Choice: Saline Versus Hydroxyethyl Starch (HAEMO Study, an Ancillary Study of FLASH Trial)</t>
+  </si>
+  <si>
+    <t>CEPPPIA Pilot. Experimental Center of Participative and Individualized Predictive Prevention in Auvergne</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of Isokinetic Muscular Strengthening in Eccentric Mode in the Medical Treatment of Knee Osteoarthritis.</t>
+  </si>
+  <si>
+    <t>Treatment Strategy in Patients With High-risk of Postextubation Distress in ICU Based on a Lung Ultrasound Score Versus Standard Strategy</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of Pulsatile Cuts Stendo3 on Vascular Function Patients With Diabetes Type 2</t>
+  </si>
+  <si>
+    <t>Effects of Polyphenols on Iron Absorption in Iron Overload Disorders.</t>
+  </si>
+  <si>
+    <t>Gluten Sensibility in Elite Athletes</t>
   </si>
   <si>
     <t>Mechanisms of Body Weight Gain in Patients With Parkinson's Disease After Subthalamic Stimulation</t>
   </si>
   <si>
-    <t>CEPPPIA Pilot. Experimental Center of Participative and Individualized Predictive Prevention in Auvergne</t>
-  </si>
-  <si>
-    <t>Treatment Strategy in Patients With High-risk of Postextubation Distress in ICU Based on a Lung Ultrasound Score Versus Standard Strategy</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Pulsatile Cuts Stendo3 on Vascular Function Patients With Diabetes Type 2</t>
-  </si>
-  <si>
     <t>Fluid Loading in Abdominal Surgery: Saline Versus Hydroxyethyl Starch: A Double-blinded Multicenter Prospective Randomized Trial (FLASH Study)</t>
   </si>
   <si>
-    <t>Hemostasis Evolution During Fluid Loading in Abdominal Surgery. Effects of Fluid Choice: Saline Versus Hydroxyethyl Starch (HAEMO Study, an Ancillary Study of FLASH Trial)</t>
-  </si>
-  <si>
-    <t>Assessing the Impact of Isokinetic Muscular Strengthening in Eccentric Mode in the Medical Treatment of Knee Osteoarthritis.</t>
+    <t>Lung Imaging for Ventilatory Setting in ARDS</t>
+  </si>
+  <si>
+    <t>Role of Inflammation in Psychiatric Disorders in Patients With Cutaneous Lupus</t>
   </si>
   <si>
     <t>Controlled, Randomized, Double Blind Study, Comparing Curcumin to Thiopurines in the Prevention of Post-op Recurrence in Crohn Disease</t>
   </si>
   <si>
-    <t>Gluten Sensibility in Elite Athletes</t>
-  </si>
-  <si>
-    <t>Effects of Polyphenols on Iron Absorption in Iron Overload Disorders.</t>
-  </si>
-  <si>
-    <t>Validation of the French Version of the Pain Sensitivity Questionnaire</t>
-  </si>
-  <si>
-    <t>Role of Inflammation in Psychiatric Disorders in Patients With Cutaneous Lupus</t>
-  </si>
-  <si>
-    <t>Lung Imaging for Ventilatory Setting in ARDS</t>
+    <t>Effect of the Exercise-meal Timing on Energy Intake and Appetite in Adolescents With Obesity: the TIMEX 2 Study</t>
+  </si>
+  <si>
+    <t>Cross-cultural Validation in French Language of the Questionnaire EARS Adapted to the Chronic Low Back Pain</t>
+  </si>
+  <si>
+    <t>Individualized Goal-directed Sufentanil Administration Versus Standard Therapy in Patients Undergoing Major Abdominal Surgery: A Randomized Controlled Feasibility Trial.</t>
+  </si>
+  <si>
+    <t>A Phase 3, Global, Multicenter, Open-Label Study to Investigate the Efficacy of Elbasvir/Grazoprevir Fixed-Dose Combination for 8 Weeks in Treatment-Naïve, HCV GT1b-Infected Patients, With Non-severe Fibrosis</t>
+  </si>
+  <si>
+    <t>Does Exercise Timing Modify Post-exercise Energy Intake in Adolescents With Obesity</t>
   </si>
   <si>
     <t>A MULTICENTER, RANDOMIZED, CONTROLLED STUDY OF EPIDURAL ANALGESIA FOR SEVERE ACUTE PANCREATITIS</t>
   </si>
   <si>
-    <t>Does Exercise Timing Modify Post-exercise Energy Intake in Adolescents With Obesity</t>
+    <t>Does Energy Replacement Modify Post-exercise Energy Intake in Adolescents With Obesity?</t>
+  </si>
+  <si>
+    <t>Effectiveness of Two Techniques in Injection Site Spotting for Botulinum Toxin Injections: Echography or Electro Stimulation.</t>
   </si>
   <si>
     <t>Therapeutic Literacy Evaluation in Liver Transplanted Patients</t>
   </si>
   <si>
-    <t>Does Energy Replacement Modify Post-exercise Energy Intake in Adolescents With Obesity?</t>
-  </si>
-  <si>
-    <t>A Phase 3, Global, Multicenter, Open-Label Study to Investigate the Efficacy of Elbasvir/Grazoprevir Fixed-Dose Combination for 8 Weeks in Treatment-Naïve, HCV GT1b-Infected Patients, With Non-severe Fibrosis</t>
-  </si>
-  <si>
     <t>PREVALENCE STUDY OF FIBROMUSCULAR DYSPLASIA IN PATIENTS WITH HAEMATOMA OR SPONTANEOUS CORONARY ARTERY DISSECTION</t>
   </si>
   <si>
-    <t>Individualized Goal-directed Sufentanil Administration Versus Standard Therapy in Patients Undergoing Major Abdominal Surgery: A Randomized Controlled Feasibility Trial.</t>
-  </si>
-  <si>
-    <t>Cross-cultural Validation in French Language of the Questionnaire EARS Adapted to the Chronic Low Back Pain</t>
-  </si>
-  <si>
-    <t>Effect of the Exercise-meal Timing on Energy Intake and Appetite in Adolescents With Obesity: the TIMEX 2 Study</t>
-  </si>
-  <si>
-    <t>Effectiveness of Two Techniques in Injection Site Spotting for Botulinum Toxin Injections: Echography or Electro Stimulation.</t>
+    <t>Evaluation du nalméfène dans les troubles du contrôle des impulsions chez des patients ayant une maladie de Parkinson : une étude thérapeutique prospective ouverte</t>
+  </si>
+  <si>
+    <t>Anesthesia Management in Endovascular Therapy for Ischemic Stroke: A Multicenter Randomised Study</t>
+  </si>
+  <si>
+    <t>Dry Eye Syndrome Description During Cataract Surgery, With Multimodal Analysis of the Ocular Surface</t>
+  </si>
+  <si>
+    <t>Intravenous Versus Combined Oral and Intravenous Antimicrobial Prophylaxis for the Prevention of Surgical Site Infection in Elective Colorectal Surgery: A Double-blinded Multicenter Prospective Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Effect of Argentine Tango Protocol on Total Physical Activity in Patients With Chronic Inflammatory Arthritis</t>
+  </si>
+  <si>
+    <t>CHOICE OF SUBJECTIVE OCULAR REFRACTION TECHNIQUE AND CORNEAL TOPOGRAPHY OF KERATOCONUS</t>
   </si>
   <si>
     <t>Effect of Magnesium on Stress in Fibromyalgia: Randomized Double-blind Placebo Controlled Trial</t>
   </si>
   <si>
-    <t>Intravenous Versus Combined Oral and Intravenous Antimicrobial Prophylaxis for the Prevention of Surgical Site Infection in Elective Colorectal Surgery: A Double-blinded Multicenter Prospective Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Dry Eye Syndrome Description During Cataract Surgery, With Multimodal Analysis of the Ocular Surface</t>
-  </si>
-  <si>
-    <t>Evaluation du nalméfène dans les troubles du contrôle des impulsions chez des patients ayant une maladie de Parkinson : une étude thérapeutique prospective ouverte</t>
-  </si>
-  <si>
-    <t>CHOICE OF SUBJECTIVE OCULAR REFRACTION TECHNIQUE AND CORNEAL TOPOGRAPHY OF KERATOCONUS</t>
-  </si>
-  <si>
-    <t>Anesthesia Management in Endovascular Therapy for Ischemic Stroke: A Multicenter Randomised Study</t>
-  </si>
-  <si>
-    <t>Effect of Argentine Tango Protocol on Total Physical Activity in Patients With Chronic Inflammatory Arthritis</t>
-  </si>
-  <si>
-    <t>Pulmonary and Ventilatory Effects of Bed Verticalization in Patients With Acute Respiratory Distress Syndrome: An Exploratory and Pathophysiology Study</t>
-  </si>
-  <si>
-    <t>The Effect of Continuous Administration of Ropivacaine by Bi-laterosternal Multiperforated Catheters Placed Before a Sternotomy for Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Appetite Response to Exercise- Versus Mixed (Exercise + Dietary Restriction)-Induced Energy Deficit in Adolescents With Obesity</t>
-  </si>
-  <si>
-    <t>Food Matrices Based on Fruit Pastes as Vectors of Carbohydrates for the Prevention and Management of Protein-energy Undernutrition in the Elderly: Proof of Clinical Concept</t>
-  </si>
-  <si>
-    <t>Appetite Response to Exercise- Versus Energy Restriction-induced Energy Deficit in Adolescents With Obesity.</t>
+    <t>Comparison of Plasmatic Concentrations of Propofol and Remifentanil During Monitored Anesthesia in Obese and Non Obese Patients.</t>
+  </si>
+  <si>
+    <t>Effect of Tai Chi Protocol on Global Physical Activity in Patients With Spondyloarthitis in Comparison With a Control Group</t>
+  </si>
+  <si>
+    <t>Exploration by NMR Spectroscopy of the Choline Concentrations in the Insular Cortex of Patients Suffering of Neuropathic Pain Induced by Oxaliplatin</t>
+  </si>
+  <si>
+    <t>End-eXpiratory Occlusion Test to Predict fluId REsponsiveness in the Operating Room: Prospective Randomized Clinical Trial Comparing Two Occlusion Tests (EXPIRE)</t>
   </si>
   <si>
     <t>Evaluation of botulinum toxin injection efficacy in the treatment of head essential tremor by a multi-center, randomized, double–blind, parallel-group, placebo-controlled study 
  Evaluation de l’efficacité d’injections de toxine botulinique dans le traitement du tremblement du chef par une étude multicentrique, randomisée, en double aveugle, en groupe parallèle, contrôlée versus placebo</t>
   </si>
   <si>
+    <t>Intensive Robotic Rehabilitation in Children With Hemiparesia Using GEOSYSTEM</t>
+  </si>
+  <si>
+    <t>Effect of a Dietary Supplement Based on Magnesium, Vitamins, Rhodiola and L-theanine (Stress Resist®), on Stress in Stressed Subjects: Randomized Study Versus Placebo.</t>
+  </si>
+  <si>
+    <t>Comparison of Intubating Conditions in 25° Head-up Position and Strict Supine</t>
+  </si>
+  <si>
+    <t>Appetite Response to Exercise- Versus Energy Restriction-induced Energy Deficit in Adolescents With Obesity.</t>
+  </si>
+  <si>
     <t>Impact of Association of Individual and Group Therapeutic Education Sessions on the Acquisition of Safety Skills by Patients With Chronic Inflammatory Rheumatism (CIR) Treated With Subcutaneous Biotherapy, Compared to Individual Therapeutic Education Sessions Alone</t>
   </si>
   <si>
-    <t>Exploration by NMR Spectroscopy of the Choline Concentrations in the Insular Cortex of Patients Suffering of Neuropathic Pain Induced by Oxaliplatin</t>
-  </si>
-  <si>
-    <t>Comparison of Intubating Conditions in 25° Head-up Position and Strict Supine</t>
+    <t>Pulmonary and Ventilatory Effects of Bed Verticalization in Patients With Acute Respiratory Distress Syndrome: An Exploratory and Pathophysiology Study</t>
+  </si>
+  <si>
+    <t>The Effect of Continuous Administration of Ropivacaine by Bi-laterosternal Multiperforated Catheters Placed Before a Sternotomy for Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Appetite Response to Exercise- Versus Mixed (Exercise + Dietary Restriction)-Induced Energy Deficit in Adolescents With Obesity</t>
+  </si>
+  <si>
+    <t>Food Matrices Based on Fruit Pastes as Vectors of Carbohydrates for the Prevention and Management of Protein-energy Undernutrition in the Elderly: Proof of Clinical Concept</t>
   </si>
   <si>
     <t>Pilot Study of Active Desk in Primary School : Effects on the Attention, Cognitive Capacities, Physical Capacities, Concentration and Well-being of Student and on the Classroom Climate</t>
   </si>
   <si>
-    <t>Comparison of Plasmatic Concentrations of Propofol and Remifentanil During Monitored Anesthesia in Obese and Non Obese Patients.</t>
-  </si>
-  <si>
-    <t>Effect of a Dietary Supplement Based on Magnesium, Vitamins, Rhodiola and L-theanine (Stress Resist®), on Stress in Stressed Subjects: Randomized Study Versus Placebo.</t>
-  </si>
-  <si>
-    <t>Effect of Tai Chi Protocol on Global Physical Activity in Patients With Spondyloarthitis in Comparison With a Control Group</t>
-  </si>
-  <si>
-    <t>Intensive Robotic Rehabilitation in Children With Hemiparesia Using GEOSYSTEM</t>
-  </si>
-  <si>
-    <t>End-eXpiratory Occlusion Test to Predict fluId REsponsiveness in the Operating Room: Prospective Randomized Clinical Trial Comparing Two Occlusion Tests (EXPIRE)</t>
+    <t>Fitness Assessment in Young Adults Recovered From Lymphoma or Hodgkin's Disease</t>
+  </si>
+  <si>
+    <t>Analysis of the Postprandial Effects of a Vegetable Protein Mixture Rich in Arginine, Cysteine and Leucine on Endothelial Dysfunction and Inflammation at Low Noise in Elderly People With Cardiometabolic Risk</t>
+  </si>
+  <si>
+    <t>Estimation of the Precision of the Icare200 in the Measurement of Intraocular Pressure in Comparison to the Gold Standard : Goldmann Applanation Tonometer</t>
+  </si>
+  <si>
+    <t>Validation of the Relationship Between Oxygenation Parameters and the Oxygen Reserve Index (ORI™), in Mechanically Ventilated ICU Patients: An Exploratory Pathophysiology Study</t>
+  </si>
+  <si>
+    <t>Comparison of Hemodynamic Effects of Two Modalities of Alveolar Recruitment Maneuvers in Major Abdominal Surgery Patients: A Physiological Study</t>
+  </si>
+  <si>
+    <t>Nutritional Transitions to More Plant Proteins and Less Animal Proteins: Understanding the Induced Metabolic Reorientations and Searching for Their Biomarkers</t>
+  </si>
+  <si>
+    <t>Cardiac Output Response to Vasopressin Infusion In Abdominal Surgery Patients Under Mechanical Ventilation: A Clinical Pharmacodynamics Study</t>
   </si>
   <si>
     <t>Intraoperative Protective Mechanical Ventilation in Patients Requiring Emergency Abdominal Surgery: IMPROVE-2 Multicenter Prospective Randomized Trial</t>
   </si>
   <si>
+    <t>Using INDOcyanine Green to Analyse Ovarian Vascularization After Ovarian Laparoscopic CYStectomy</t>
+  </si>
+  <si>
     <t>Analgesic Effect of Bilateral Erector Spinae Plane Block With Ropivacaine After Sternotomy in Cardiac Surgery</t>
   </si>
   <si>
+    <t>Genetic Characteristics and Determinants of Central Sensitization of Nociception in Fibromylagic Syndrome</t>
+  </si>
+  <si>
+    <t>Evaluation of Botulinum Toxin Injection Efficacy in the Treatment of Head Essential Tremor by a Multi-center, Randomized, Double-Blind, Parallel-group, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Interventional Study Assessing Evaluation of the Interest of Serum S100B Protein Determination in the Management of Pediatric Mild Traumatic Brain Injury</t>
+  </si>
+  <si>
+    <t>Morphological Parameters of In-stent RESTenosis Assessed and Identified by OCT</t>
+  </si>
+  <si>
+    <t>Role of Mechanical Load on Metabolic Exercise Adaptations in Response to Weight Loss in Obese Adolescents: The POWELL Study</t>
+  </si>
+  <si>
+    <t>Towards the Use of Instrumented Tests for Screening the Risk of Falling in Patients With Chronic Illness.</t>
+  </si>
+  <si>
+    <t>Immediate Effect of Hamstring Stretching in Patients With Chronic Low Back Pain</t>
+  </si>
+  <si>
+    <t>Comparison of the Use of Conventional Ancillary Reaming and Single-use Ancillary Reaming Material in Total Hip Replacement</t>
+  </si>
+  <si>
     <t>Sampling of Human Microbiota in Order to Test, on a Mouse Model, Individualized Intervention Strategies During Aging</t>
   </si>
   <si>
-    <t>Interventional Study Assessing Evaluation of the Interest of Serum S100B Protein Determination in the Management of Pediatric Mild Traumatic Brain Injury</t>
-  </si>
-  <si>
-    <t>Comparison of the Use of Conventional Ancillary Reaming and Single-use Ancillary Reaming Material in Total Hip Replacement</t>
-  </si>
-  <si>
-    <t>Evaluation of Botulinum Toxin Injection Efficacy in the Treatment of Head Essential Tremor by a Multi-center, Randomized, Double-Blind, Parallel-group, Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Nutritional Transitions to More Plant Proteins and Less Animal Proteins: Understanding the Induced Metabolic Reorientations and Searching for Their Biomarkers</t>
-  </si>
-  <si>
-    <t>Immediate Effect of Hamstring Stretching in Patients With Chronic Low Back Pain</t>
-  </si>
-  <si>
-    <t>Using INDOcyanine Green to Analyse Ovarian Vascularization After Ovarian Laparoscopic CYStectomy</t>
-  </si>
-  <si>
-    <t>Analysis of the Postprandial Effects of a Vegetable Protein Mixture Rich in Arginine, Cysteine and Leucine on Endothelial Dysfunction and Inflammation at Low Noise in Elderly People With Cardiometabolic Risk</t>
-  </si>
-  <si>
-    <t>Towards the Use of Instrumented Tests for Screening the Risk of Falling in Patients With Chronic Illness.</t>
-  </si>
-  <si>
-    <t>Role of Mechanical Load on Metabolic Exercise Adaptations in Response to Weight Loss in Obese Adolescents: The POWELL Study</t>
-  </si>
-  <si>
-    <t>Estimation of the Precision of the Icare200 in the Measurement of Intraocular Pressure in Comparison to the Gold Standard : Goldmann Applanation Tonometer</t>
-  </si>
-  <si>
-    <t>Genetic Characteristics and Determinants of Central Sensitization of Nociception in Fibromylagic Syndrome</t>
-  </si>
-  <si>
-    <t>Validation of the Relationship Between Oxygenation Parameters and the Oxygen Reserve Index (ORI™), in Mechanically Ventilated ICU Patients: An Exploratory Pathophysiology Study</t>
-  </si>
-  <si>
-    <t>Cardiac Output Response to Vasopressin Infusion In Abdominal Surgery Patients Under Mechanical Ventilation: A Clinical Pharmacodynamics Study</t>
-  </si>
-  <si>
-    <t>Fitness Assessment in Young Adults Recovered From Lymphoma or Hodgkin's Disease</t>
-  </si>
-  <si>
-    <t>Morphological Parameters of In-stent RESTenosis Assessed and Identified by OCT</t>
-  </si>
-  <si>
-    <t>Comparison of Hemodynamic Effects of Two Modalities of Alveolar Recruitment Maneuvers in Major Abdominal Surgery Patients: A Physiological Study</t>
+    <t>Thoracic Drains in Intensive Care Units. Comparison of Seldinger and Surgical Methods: A Prospective Randomized Multicenter Study</t>
+  </si>
+  <si>
+    <t>Effects of Dexmedetomidine on Delirium Duration of Non-intubated ICU Patients (4D Trial)</t>
+  </si>
+  <si>
+    <t>Effect of Acute Exercise on Sensory and Hedonic Responses to a Fixed Meal in Adolescents With Obesity</t>
+  </si>
+  <si>
+    <t>Efficacy of Testosterone gel to restore normal serum values of testosterone during the acute phase of critical illness in adult ICU patients. An open-label parallel randomized controlled pilot study</t>
+  </si>
+  <si>
+    <t>Metabolic, Functional and Nutritional Responses to Weight Cycling in Athletes: The WAVE Study</t>
+  </si>
+  <si>
+    <t>Biomarkers Of Job STRess In Emergency Senior Physicians - Detection of Stressful Events</t>
+  </si>
+  <si>
+    <t>Analgesic Effect of Bilateral Quadratus Lumborum Block in the End of Colorectal Laparosopic Surgery: a Prospective Randomized Pilot Study</t>
+  </si>
+  <si>
+    <t>Physical Activity and Sedentary Lifestyle During Pregnancy: Feasibility and Impact Study on Sedentary Behavior</t>
+  </si>
+  <si>
+    <t>Presence of SARS-CoV-2 in Semen: Impact on Fertility Preservation in Male Oncological Patients During the COVID-19 Pandemic ?</t>
+  </si>
+  <si>
+    <t>Trans Abdominal Plane Block (TAP Block) in Surgery of Stoma Reversal and Its Effect on Post Operative Recovery: a Prospective, Randomized, Muticenter Study</t>
+  </si>
+  <si>
+    <t>Pulmonary and Ventilatory Effects of Trigger Modulation in Intubated ICU Patients Spontaneously Breathing With Pressure Support Ventilation. A Physiopathology Exploratory Study.</t>
+  </si>
+  <si>
+    <t>Orange Juice, Hesperidin and Their Role in Vascular Health Benefit: a Human Double Blind, Randomized, Controlled, Cross Over Study</t>
+  </si>
+  <si>
+    <t>Energy Adaptations During Active Workstation Use: Strategy for Individualization of Active Desk Programs</t>
   </si>
   <si>
     <t>Digital Intervention Promoting Physical Activity Among Obese People Randomized Controlled Trial: Assessing the Effects of a Digital Intervention to Promote Physical Activity in Patients With Obesity and/or Type 2 Diabetes Mellitus</t>
   </si>
   <si>
-    <t>Metabolic, Functional and Nutritional Responses to Weight Cycling in Athletes: The WAVE Study</t>
-  </si>
-  <si>
-    <t>Trans Abdominal Plane Block (TAP Block) in Surgery of Stoma Reversal and Its Effect on Post Operative Recovery: a Prospective, Randomized, Muticenter Study</t>
-  </si>
-  <si>
-    <t>Thoracic Drains in Intensive Care Units. Comparison of Seldinger and Surgical Methods: A Prospective Randomized Multicenter Study</t>
-  </si>
-  <si>
-    <t>Effect of Acute Exercise on Sensory and Hedonic Responses to a Fixed Meal in Adolescents With Obesity</t>
-  </si>
-  <si>
-    <t>Physical Activity and Sedentary Lifestyle During Pregnancy: Feasibility and Impact Study on Sedentary Behavior</t>
-  </si>
-  <si>
-    <t>Orange Juice, Hesperidin and Their Role in Vascular Health Benefit: a Human Double Blind, Randomized, Controlled, Cross Over Study</t>
-  </si>
-  <si>
-    <t>Efficacy of Testosterone gel to restore normal serum values of testosterone during the acute phase of critical illness in adult ICU patients. An open-label parallel randomized controlled pilot study</t>
-  </si>
-  <si>
-    <t>Biomarkers Of Job STRess In Emergency Senior Physicians - Detection of Stressful Events</t>
-  </si>
-  <si>
-    <t>Analgesic Effect of Bilateral Quadratus Lumborum Block in the End of Colorectal Laparosopic Surgery: a Prospective Randomized Pilot Study</t>
+    <t>Identification of the Physical and Dietary Profile on Constitutionally Lean People: the NUTRILEAN Study</t>
   </si>
   <si>
     <t>E-lombactifs: Evaluation of the Impact a Smartphone Application on Adherence an Exercise Program in Chronic Low Back Pain</t>
   </si>
   <si>
-    <t>Energy Adaptations During Active Workstation Use: Strategy for Individualization of Active Desk Programs</t>
-  </si>
-  <si>
-    <t>Pulmonary and Ventilatory Effects of Trigger Modulation in Intubated ICU Patients Spontaneously Breathing With Pressure Support Ventilation. A Physiopathology Exploratory Study.</t>
-  </si>
-  <si>
     <t>Circadian Character of Food Compulsions and Impulses Control Disorders in Parkinsonian Patients With and Without Resting Leg Syndrome</t>
   </si>
   <si>
-    <t>Effects of Dexmedetomidine on Delirium Duration of Non-intubated ICU Patients (4D Trial)</t>
-  </si>
-  <si>
-    <t>Identification of the Physical and Dietary Profile on Constitutionally Lean People: the NUTRILEAN Study</t>
-  </si>
-  <si>
     <t>Effects of Cyclosporine a Pretreatment of Deceased Donor on Kidney Graft Function: a Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Presence of SARS-CoV-2 in Semen: Impact on Fertility Preservation in Male Oncological Patients During the COVID-19 Pandemic ?</t>
+    <t>Interest of the Reborn® Doll as a Therapeutic Object in the Care of Residents With Alzheimer's Disease or a Related Disorder : Pilote Study</t>
+  </si>
+  <si>
+    <t>Sevoflurane for Sedation in Acute Respiratory Distress Syndrome: a Multicenter Prospective Randomized Trial</t>
+  </si>
+  <si>
+    <t>Interest of Preoperative Corticosteroid Therapy for Surgical Fractures of the Lower Limb</t>
   </si>
   <si>
     <t>Fall Risk Assessment in a Population of Charcot-Marie-Tooth Disease Type 1A (CMT 1A) by Timed Up and Go Test</t>
   </si>
   <si>
+    <t>Effects of the Combination of Magnesium Bisphosphonates Versus Bisphosphonates Alone on Bone Remodeling: Randomized Pilot Clinical Trial</t>
+  </si>
+  <si>
+    <t>Effect of Injectable Anticoagulants on Research for a Circulating Lupus-type Anticoagulant</t>
+  </si>
+  <si>
+    <t>Identification of Predictive Factors of Postoperative Pain After Oral Surgery From Phenotypic Parameters Easily Accessible Preoperatively</t>
+  </si>
+  <si>
+    <t>Echography in Pregnant Obese Women and Ultrasound Speed.</t>
+  </si>
+  <si>
     <t>Intérêt de l'Utilisation du "Quantra® Haemostasis Analyser" Lors de la Prise en Charge Des Patients présentant Une hémorragie Grave Sous Anticoagulant Oral</t>
   </si>
   <si>
-    <t>Sevoflurane for Sedation in Acute Respiratory Distress Syndrome: a Multicenter Prospective Randomized Trial</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficacy of Donepezil in the Treatment of Oxaliplatin-induced Peripheral Neuropathy: Proof of Concept Study</t>
   </si>
   <si>
-    <t>Identification of Predictive Factors of Postoperative Pain After Oral Surgery From Phenotypic Parameters Easily Accessible Preoperatively</t>
-  </si>
-  <si>
-    <t>Effects of the Combination of Magnesium Bisphosphonates Versus Bisphosphonates Alone on Bone Remodeling: Randomized Pilot Clinical Trial</t>
-  </si>
-  <si>
-    <t>Echography in Pregnant Obese Women and Ultrasound Speed.</t>
-  </si>
-  <si>
-    <t>Effect of Injectable Anticoagulants on Research for a Circulating Lupus-type Anticoagulant</t>
-  </si>
-  <si>
-    <t>Interest of Preoperative Corticosteroid Therapy for Surgical Fractures of the Lower Limb</t>
-  </si>
-  <si>
-    <t>Interest of the Reborn® Doll as a Therapeutic Object in the Care of Residents With Alzheimer's Disease or a Related Disorder : Pilote Study</t>
-  </si>
-  <si>
     <t>Study of Analgesic Effect of Virtual Reality During Oocyte Retrieval in in Vitro Fecondation Protocols: Controlled Randomized Trial</t>
   </si>
   <si>
     <t>Rôle de la dopamine dans le comportement d’aversion à la perte : étude chez le patient parkinsonien</t>
+  </si>
+  <si>
+    <t>Intérêt d’un bloc nerveux bi-tronculaire (fémoral + sciatique) prolongé associé systématiquement à l’anesthésie générale au cours du pontage fémoro-poplité : étude de l'analgésie post-opératoire et de la circulation périphérique d’aval.</t>
   </si>
   <si>
     <t>IMPACT OF 5% LIDOCAINE MEDICATED PLASTER ON ALLODYNIC SYMPTOMS OF LOCALIZED NEUROPATHIC PAIN AFTER KNEE SURGERY. A prospective, randomized, placebo controlled study in parallel groups. 
@@ -1345,229 +1348,238 @@
  Étude prospective, randomisée, en double aveugle, contrôlée versus placebo</t>
   </si>
   <si>
-    <t>Intérêt d’un bloc nerveux bi-tronculaire (fémoral + sciatique) prolongé associé systématiquement à l’anesthésie générale au cours du pontage fémoro-poplité : étude de l'analgésie post-opératoire et de la circulation périphérique d’aval.</t>
-  </si>
-  <si>
     <t>TRAMADOL</t>
   </si>
   <si>
+    <t>FIND</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
     <t>Tropisétron</t>
   </si>
   <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
-    <t>FIND</t>
-  </si>
-  <si>
     <t>HOP</t>
   </si>
   <si>
+    <t>ETOSA</t>
+  </si>
+  <si>
+    <t>PhyDoNe</t>
+  </si>
+  <si>
+    <t>MEP1</t>
+  </si>
+  <si>
     <t>SUF-REM-DDS</t>
   </si>
   <si>
-    <t>ETOSA</t>
-  </si>
-  <si>
-    <t>PhyDoNe</t>
-  </si>
-  <si>
     <t>2010-A01115-34</t>
   </si>
   <si>
     <t>JOBSTRESS</t>
   </si>
   <si>
-    <t>MEP1</t>
+    <t>IMPREA</t>
+  </si>
+  <si>
+    <t>CURCUMIN</t>
   </si>
   <si>
     <t>EPOP</t>
   </si>
   <si>
-    <t>CURCUMIN</t>
+    <t>KetaRea</t>
   </si>
   <si>
     <t>CALIMERO</t>
   </si>
   <si>
-    <t>IMPREA</t>
-  </si>
-  <si>
-    <t>KetaRea</t>
+    <t>IRMf</t>
   </si>
   <si>
     <t>MINIPIC REA</t>
   </si>
   <si>
-    <t>IRMf</t>
+    <t>PARAJUG</t>
+  </si>
+  <si>
+    <t>MEMANTINE</t>
+  </si>
+  <si>
+    <t>BioChronoMag</t>
   </si>
   <si>
     <t>HiFloLUS</t>
   </si>
   <si>
+    <t>VOLCANO</t>
+  </si>
+  <si>
+    <t>TeDi-C2</t>
+  </si>
+  <si>
+    <t>CORONOMEGA3</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
     <t>IMPETRAIL</t>
   </si>
   <si>
-    <t>MEMANTINE</t>
-  </si>
-  <si>
-    <t>VOLCANO</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>CORONOMEGA3</t>
-  </si>
-  <si>
-    <t>TeDi-C2</t>
-  </si>
-  <si>
     <t>ELVIS</t>
   </si>
   <si>
-    <t>BioChronoMag</t>
-  </si>
-  <si>
     <t>VP-hTA-XCar</t>
   </si>
   <si>
-    <t>PARAJUG</t>
+    <t>VEOLITH</t>
   </si>
   <si>
     <t>TRAWELUS</t>
   </si>
   <si>
+    <t>PARA-NEF</t>
+  </si>
+  <si>
+    <t>PANACE</t>
+  </si>
+  <si>
     <t>HF 80</t>
   </si>
   <si>
-    <t>PARA-NEF</t>
-  </si>
-  <si>
     <t>SEVORASS</t>
   </si>
   <si>
-    <t>VEOLITH</t>
-  </si>
-  <si>
-    <t>PANACE</t>
+    <t>I-Preventive</t>
+  </si>
+  <si>
+    <t>SUBGEUS</t>
+  </si>
+  <si>
+    <t>BIBOP</t>
+  </si>
+  <si>
+    <t>CISEVOB</t>
   </si>
   <si>
     <t>NEUROXAPOL</t>
   </si>
   <si>
-    <t>I-Preventive</t>
-  </si>
-  <si>
-    <t>CISEVOB</t>
+    <t>SEVOBURN</t>
+  </si>
+  <si>
+    <t>OPERA</t>
   </si>
   <si>
     <t>BLS-Sterno</t>
   </si>
   <si>
-    <t>BIBOP</t>
-  </si>
-  <si>
-    <t>OPERA</t>
-  </si>
-  <si>
-    <t>SUBGEUS</t>
-  </si>
-  <si>
-    <t>SEVOBURN</t>
+    <t>INPRESS</t>
+  </si>
+  <si>
+    <t>CoQualSEP</t>
+  </si>
+  <si>
+    <t>PreDeARM</t>
+  </si>
+  <si>
+    <t>Post-coma DBS</t>
+  </si>
+  <si>
+    <t>NMDA</t>
+  </si>
+  <si>
+    <t>DYNAVAL</t>
+  </si>
+  <si>
+    <t>SEGA</t>
+  </si>
+  <si>
+    <t>PEEPUS</t>
   </si>
   <si>
     <t>Hydex</t>
   </si>
   <si>
-    <t>PreDeARM</t>
-  </si>
-  <si>
     <t>BLOC-FEMPOP</t>
   </si>
   <si>
-    <t>CoQualSEP</t>
-  </si>
-  <si>
-    <t>PEEPUS</t>
-  </si>
-  <si>
-    <t>SEGA</t>
-  </si>
-  <si>
-    <t>Post-coma DBS</t>
-  </si>
-  <si>
-    <t>DYNAVAL</t>
-  </si>
-  <si>
-    <t>NMDA</t>
-  </si>
-  <si>
-    <t>INPRESS</t>
+    <t>MP-TCSP-IRMf</t>
+  </si>
+  <si>
+    <t>NUTREND</t>
+  </si>
+  <si>
+    <t>DEXA-PG-HD</t>
+  </si>
+  <si>
+    <t>ADRIATIC</t>
+  </si>
+  <si>
+    <t>MicrobioPSY</t>
+  </si>
+  <si>
+    <t>HRV REEDUC</t>
+  </si>
+  <si>
+    <t>GEET One</t>
+  </si>
+  <si>
+    <t>EDONOT</t>
+  </si>
+  <si>
+    <t>LiNe</t>
   </si>
   <si>
     <t>EOLE</t>
   </si>
   <si>
-    <t>DEXA-PG-HD</t>
-  </si>
-  <si>
-    <t>MicrobioPSY</t>
-  </si>
-  <si>
-    <t>GEET One</t>
-  </si>
-  <si>
-    <t>HRV REEDUC</t>
-  </si>
-  <si>
-    <t>ADRIATIC</t>
-  </si>
-  <si>
-    <t>EDONOT</t>
-  </si>
-  <si>
-    <t>LiNe</t>
-  </si>
-  <si>
-    <t>NUTREND</t>
-  </si>
-  <si>
-    <t>MP-TCSP-IRMf</t>
+    <t>PSQ-F</t>
+  </si>
+  <si>
+    <t>HAEMO</t>
   </si>
   <si>
     <t>CEPPPIA</t>
   </si>
   <si>
+    <t>ISOGO</t>
+  </si>
+  <si>
     <t>WIN IN WEAN</t>
   </si>
   <si>
     <t>STENDO3</t>
   </si>
   <si>
+    <t>POLYFER</t>
+  </si>
+  <si>
+    <t>GLUTHEALTH</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
-    <t>HAEMO</t>
-  </si>
-  <si>
-    <t>ISOGO</t>
+    <t>RIP-LC</t>
   </si>
   <si>
     <t>POPCUR</t>
   </si>
   <si>
-    <t>GLUTHEALTH</t>
-  </si>
-  <si>
-    <t>POLYFER</t>
-  </si>
-  <si>
-    <t>PSQ-F</t>
-  </si>
-  <si>
-    <t>RIP-LC</t>
+    <t>TIMEX2</t>
+  </si>
+  <si>
+    <t>EARS</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>STREAGER</t>
   </si>
   <si>
     <t>EPIPAN</t>
@@ -1576,223 +1588,211 @@
     <t>THELEHEPAT</t>
   </si>
   <si>
-    <t>STREAGER</t>
-  </si>
-  <si>
     <t>DISCO</t>
   </si>
   <si>
-    <t>PHOENIX</t>
-  </si>
-  <si>
-    <t>EARS</t>
-  </si>
-  <si>
-    <t>TIMEX2</t>
+    <t>NALMEFENE et TCI</t>
+  </si>
+  <si>
+    <t>AMETIS</t>
+  </si>
+  <si>
+    <t>C-SS0</t>
+  </si>
+  <si>
+    <t>COMBINE</t>
+  </si>
+  <si>
+    <t>IATANGO</t>
+  </si>
+  <si>
+    <t>RE-CON</t>
   </si>
   <si>
     <t>SeMAFor</t>
   </si>
   <si>
-    <t>COMBINE</t>
-  </si>
-  <si>
-    <t>C-SS0</t>
-  </si>
-  <si>
-    <t>NALMEFENE et TCI</t>
-  </si>
-  <si>
-    <t>RE-CON</t>
-  </si>
-  <si>
-    <t>AMETIS</t>
-  </si>
-  <si>
-    <t>IATANGO</t>
-  </si>
-  <si>
-    <t>ERECTION</t>
-  </si>
-  <si>
-    <t>Pre-BLS-Sterno</t>
-  </si>
-  <si>
-    <t>IDEX2</t>
-  </si>
-  <si>
-    <t>Fruisenior</t>
-  </si>
-  <si>
-    <t>IDEX1</t>
+    <t>COCOPOPONO</t>
+  </si>
+  <si>
+    <t>TaiChiSpA</t>
+  </si>
+  <si>
+    <t>INSULOX</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
   </si>
   <si>
     <t>Btx-HT 
  Btx-HT</t>
   </si>
   <si>
+    <t>RIPHIGEO</t>
+  </si>
+  <si>
+    <t>MAGRITTE</t>
+  </si>
+  <si>
+    <t>InSizeS25</t>
+  </si>
+  <si>
+    <t>IDEX1</t>
+  </si>
+  <si>
     <t>ERIBIO</t>
   </si>
   <si>
-    <t>INSULOX</t>
-  </si>
-  <si>
-    <t>InSizeS25</t>
+    <t>ERECTION</t>
+  </si>
+  <si>
+    <t>Pre-BLS-Sterno</t>
+  </si>
+  <si>
+    <t>IDEX2</t>
+  </si>
+  <si>
+    <t>Fruisenior</t>
   </si>
   <si>
     <t>BICLASS</t>
   </si>
   <si>
-    <t>COCOPOPONO</t>
-  </si>
-  <si>
-    <t>MAGRITTE</t>
-  </si>
-  <si>
-    <t>TaiChiSpA</t>
-  </si>
-  <si>
-    <t>RIPHIGEO</t>
-  </si>
-  <si>
-    <t>EXPIRE</t>
+    <t>CUPCAKE</t>
+  </si>
+  <si>
+    <t>P-PROBS CM</t>
+  </si>
+  <si>
+    <t>FiO2RI</t>
+  </si>
+  <si>
+    <t>CHARM-Bloc</t>
+  </si>
+  <si>
+    <t>ProVegOmics</t>
+  </si>
+  <si>
+    <t>CORVaso</t>
   </si>
   <si>
     <t>IMPROVE-2</t>
   </si>
   <si>
+    <t>KYSINDO</t>
+  </si>
+  <si>
     <t>ESB-Sterno</t>
   </si>
   <si>
+    <t>FIDGIS</t>
+  </si>
+  <si>
+    <t>Btx-HT</t>
+  </si>
+  <si>
+    <t>PROS100B</t>
+  </si>
+  <si>
+    <t>RESTO</t>
+  </si>
+  <si>
+    <t>POWELL</t>
+  </si>
+  <si>
+    <t>DETECACTI</t>
+  </si>
+  <si>
+    <t>EFIM1</t>
+  </si>
+  <si>
+    <t>LUUC</t>
+  </si>
+  <si>
     <t>FRAGIBIOTE</t>
   </si>
   <si>
-    <t>PROS100B</t>
-  </si>
-  <si>
-    <t>LUUC</t>
-  </si>
-  <si>
-    <t>Btx-HT</t>
-  </si>
-  <si>
-    <t>ProVegOmics</t>
-  </si>
-  <si>
-    <t>EFIM1</t>
-  </si>
-  <si>
-    <t>KYSINDO</t>
-  </si>
-  <si>
-    <t>P-PROBS CM</t>
-  </si>
-  <si>
-    <t>DETECACTI</t>
-  </si>
-  <si>
-    <t>POWELL</t>
-  </si>
-  <si>
-    <t>FIDGIS</t>
-  </si>
-  <si>
-    <t>FiO2RI</t>
-  </si>
-  <si>
-    <t>CORVaso</t>
-  </si>
-  <si>
-    <t>CUPCAKE</t>
-  </si>
-  <si>
-    <t>RESTO</t>
-  </si>
-  <si>
-    <t>CHARM-Bloc</t>
+    <t>DrainICU</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>SMASH</t>
+  </si>
+  <si>
+    <t>TestICU-1</t>
+  </si>
+  <si>
+    <t>WAVE</t>
+  </si>
+  <si>
+    <t>Coloqual</t>
+  </si>
+  <si>
+    <t>PregMouv</t>
+  </si>
+  <si>
+    <t>FERTICOVID</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>HESPER-HEALTH</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
   </si>
   <si>
     <t>DIPPAO</t>
   </si>
   <si>
-    <t>WAVE</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>DrainICU</t>
-  </si>
-  <si>
-    <t>SMASH</t>
-  </si>
-  <si>
-    <t>PregMouv</t>
-  </si>
-  <si>
-    <t>HESPER-HEALTH</t>
-  </si>
-  <si>
-    <t>TestICU-1</t>
-  </si>
-  <si>
-    <t>Coloqual</t>
+    <t>Nutrilean</t>
   </si>
   <si>
     <t>E-lombactifs</t>
   </si>
   <si>
-    <t>PROFILE</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>RLS nighfood</t>
   </si>
   <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>Nutrilean</t>
-  </si>
-  <si>
     <t>Cis-A-Rein</t>
   </si>
   <si>
-    <t>FERTICOVID</t>
+    <t>PROTMA</t>
+  </si>
+  <si>
+    <t>SESAR</t>
+  </si>
+  <si>
+    <t>ICOMI</t>
   </si>
   <si>
     <t>DeteCTCMT</t>
   </si>
   <si>
+    <t>MAGELLAN</t>
+  </si>
+  <si>
+    <t>ANTICOLA</t>
+  </si>
+  <si>
+    <t>PHEDOPO</t>
+  </si>
+  <si>
+    <t>EPOWUS</t>
+  </si>
+  <si>
     <t>BOA</t>
   </si>
   <si>
-    <t>SESAR</t>
-  </si>
-  <si>
     <t>DONEPEZOX</t>
   </si>
   <si>
-    <t>PHEDOPO</t>
-  </si>
-  <si>
-    <t>MAGELLAN</t>
-  </si>
-  <si>
-    <t>EPOWUS</t>
-  </si>
-  <si>
-    <t>ANTICOLA</t>
-  </si>
-  <si>
-    <t>ICOMI</t>
-  </si>
-  <si>
-    <t>PROTMA</t>
-  </si>
-  <si>
     <t>REVPO</t>
   </si>
   <si>
@@ -1811,10 +1811,10 @@
     <t>OTHER</t>
   </si>
   <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2273,15 +2273,15 @@
         <v>243</v>
       </c>
       <c r="I4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2293,15 +2293,15 @@
         <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2312,16 +2312,19 @@
       <c r="G6" t="s">
         <v>245</v>
       </c>
+      <c r="H6" t="s">
+        <v>443</v>
+      </c>
       <c r="I6" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2338,10 +2341,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -2353,7 +2356,7 @@
         <v>247</v>
       </c>
       <c r="I8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2378,10 +2381,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2393,7 +2396,7 @@
         <v>249</v>
       </c>
       <c r="I10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2452,19 +2455,16 @@
       <c r="G13" t="s">
         <v>252</v>
       </c>
-      <c r="H13" t="s">
-        <v>443</v>
-      </c>
       <c r="I13" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2475,8 +2475,11 @@
       <c r="G14" t="s">
         <v>253</v>
       </c>
+      <c r="H14" t="s">
+        <v>444</v>
+      </c>
       <c r="I14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2492,11 +2495,11 @@
       <c r="F15" t="s">
         <v>225</v>
       </c>
-      <c r="H15" t="s">
-        <v>444</v>
+      <c r="G15" t="s">
+        <v>254</v>
       </c>
       <c r="I15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2513,18 +2516,21 @@
         <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="H16" t="s">
+        <v>445</v>
       </c>
       <c r="I16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2533,10 +2539,10 @@
         <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2553,10 +2559,10 @@
         <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2573,18 +2579,18 @@
         <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -2592,8 +2598,8 @@
       <c r="F20" t="s">
         <v>225</v>
       </c>
-      <c r="G20" t="s">
-        <v>258</v>
+      <c r="H20" t="s">
+        <v>446</v>
       </c>
       <c r="I20" t="s">
         <v>593</v>
@@ -2601,10 +2607,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2615,9 +2621,6 @@
       <c r="G21" t="s">
         <v>259</v>
       </c>
-      <c r="H21" t="s">
-        <v>445</v>
-      </c>
       <c r="I21" t="s">
         <v>596</v>
       </c>
@@ -2638,11 +2641,8 @@
       <c r="G22" t="s">
         <v>260</v>
       </c>
-      <c r="H22" t="s">
-        <v>446</v>
-      </c>
       <c r="I22" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2728,7 +2728,7 @@
         <v>448</v>
       </c>
       <c r="I26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2747,11 +2747,8 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="H27" t="s">
-        <v>449</v>
-      </c>
       <c r="I27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2771,7 +2768,7 @@
         <v>266</v>
       </c>
       <c r="H28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I28" t="s">
         <v>596</v>
@@ -2779,10 +2776,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2799,10 +2796,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -2813,11 +2810,8 @@
       <c r="G30" t="s">
         <v>268</v>
       </c>
-      <c r="H30" t="s">
-        <v>451</v>
-      </c>
       <c r="I30" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2836,16 +2830,19 @@
       <c r="G31" t="s">
         <v>269</v>
       </c>
+      <c r="H31" t="s">
+        <v>450</v>
+      </c>
       <c r="I31" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2856,16 +2853,19 @@
       <c r="G32" t="s">
         <v>270</v>
       </c>
+      <c r="H32" t="s">
+        <v>451</v>
+      </c>
       <c r="I32" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2880,7 +2880,7 @@
         <v>452</v>
       </c>
       <c r="I33" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2899,8 +2899,11 @@
       <c r="G34" t="s">
         <v>272</v>
       </c>
+      <c r="H34" t="s">
+        <v>453</v>
+      </c>
       <c r="I34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2919,19 +2922,16 @@
       <c r="G35" t="s">
         <v>273</v>
       </c>
-      <c r="H35" t="s">
-        <v>453</v>
-      </c>
       <c r="I35" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2943,15 +2943,15 @@
         <v>274</v>
       </c>
       <c r="I36" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -2959,19 +2959,19 @@
       <c r="F37" t="s">
         <v>228</v>
       </c>
-      <c r="H37" t="s">
-        <v>454</v>
+      <c r="G37" t="s">
+        <v>275</v>
       </c>
       <c r="I37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2980,21 +2980,21 @@
         <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I38" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -3003,18 +3003,18 @@
         <v>228</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -3023,21 +3023,21 @@
         <v>228</v>
       </c>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I40" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -3045,14 +3045,11 @@
       <c r="F41" t="s">
         <v>228</v>
       </c>
-      <c r="G41" t="s">
-        <v>278</v>
-      </c>
       <c r="H41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I41" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3072,7 +3069,7 @@
         <v>279</v>
       </c>
       <c r="H42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I42" t="s">
         <v>593</v>
@@ -3080,10 +3077,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -3094,11 +3091,8 @@
       <c r="G43" t="s">
         <v>280</v>
       </c>
-      <c r="H43" t="s">
-        <v>459</v>
-      </c>
       <c r="I43" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3123,10 +3117,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -3138,18 +3132,18 @@
         <v>282</v>
       </c>
       <c r="H45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I45" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -3160,16 +3154,19 @@
       <c r="G46" t="s">
         <v>283</v>
       </c>
+      <c r="H46" t="s">
+        <v>459</v>
+      </c>
       <c r="I46" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3180,16 +3177,19 @@
       <c r="G47" t="s">
         <v>284</v>
       </c>
+      <c r="H47" t="s">
+        <v>460</v>
+      </c>
       <c r="I47" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -3201,7 +3201,7 @@
         <v>285</v>
       </c>
       <c r="I48" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3217,11 +3217,11 @@
       <c r="F49" t="s">
         <v>229</v>
       </c>
-      <c r="H49" t="s">
-        <v>461</v>
+      <c r="G49" t="s">
+        <v>286</v>
       </c>
       <c r="I49" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3238,21 +3238,18 @@
         <v>229</v>
       </c>
       <c r="G50" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="I50" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -3261,10 +3258,13 @@
         <v>229</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="H51" t="s">
+        <v>461</v>
       </c>
       <c r="I51" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3281,10 +3281,10 @@
         <v>229</v>
       </c>
       <c r="G52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I52" t="s">
         <v>593</v>
@@ -3304,21 +3304,21 @@
         <v>229</v>
       </c>
       <c r="G53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I53" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -3326,19 +3326,19 @@
       <c r="F54" t="s">
         <v>229</v>
       </c>
-      <c r="G54" t="s">
-        <v>290</v>
+      <c r="H54" t="s">
+        <v>464</v>
       </c>
       <c r="I54" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
@@ -3350,15 +3350,15 @@
         <v>291</v>
       </c>
       <c r="I55" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -3369,11 +3369,8 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="H56" t="s">
-        <v>465</v>
-      </c>
       <c r="I56" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3383,8 +3380,8 @@
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" t="s">
-        <v>215</v>
+      <c r="C57" t="s">
+        <v>72</v>
       </c>
       <c r="F57" t="s">
         <v>229</v>
@@ -3392,8 +3389,8 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="H57" t="s">
-        <v>466</v>
+      <c r="I57" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3404,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>229</v>
@@ -3412,19 +3409,22 @@
       <c r="G58" t="s">
         <v>294</v>
       </c>
+      <c r="H58" t="s">
+        <v>465</v>
+      </c>
       <c r="I58" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
         <v>229</v>
@@ -3432,8 +3432,11 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
+      <c r="H59" t="s">
+        <v>466</v>
+      </c>
       <c r="I59" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3444,7 +3447,7 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
         <v>229</v>
@@ -3452,11 +3455,8 @@
       <c r="G60" t="s">
         <v>296</v>
       </c>
-      <c r="H60" t="s">
-        <v>467</v>
-      </c>
       <c r="I60" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3467,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
         <v>229</v>
@@ -3476,18 +3476,18 @@
         <v>297</v>
       </c>
       <c r="I61" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>215</v>
       </c>
       <c r="F62" t="s">
         <v>229</v>
@@ -3495,8 +3495,8 @@
       <c r="G62" t="s">
         <v>298</v>
       </c>
-      <c r="I62" t="s">
-        <v>594</v>
+      <c r="H62" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3538,16 +3538,19 @@
       <c r="G64" t="s">
         <v>300</v>
       </c>
+      <c r="H64" t="s">
+        <v>469</v>
+      </c>
       <c r="I64" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
@@ -3558,19 +3561,16 @@
       <c r="G65" t="s">
         <v>301</v>
       </c>
-      <c r="H65" t="s">
-        <v>469</v>
-      </c>
       <c r="I65" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -3585,15 +3585,15 @@
         <v>470</v>
       </c>
       <c r="I66" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
@@ -3628,15 +3628,15 @@
         <v>304</v>
       </c>
       <c r="I68" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
@@ -3647,19 +3647,16 @@
       <c r="G69" t="s">
         <v>305</v>
       </c>
-      <c r="H69" t="s">
-        <v>472</v>
-      </c>
       <c r="I69" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
@@ -3671,10 +3668,10 @@
         <v>306</v>
       </c>
       <c r="H70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I70" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3694,10 +3691,10 @@
         <v>307</v>
       </c>
       <c r="H71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I71" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3717,7 +3714,7 @@
         <v>308</v>
       </c>
       <c r="H72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I72" t="s">
         <v>593</v>
@@ -3740,18 +3737,18 @@
         <v>309</v>
       </c>
       <c r="H73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I73" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -3763,7 +3760,7 @@
         <v>310</v>
       </c>
       <c r="H74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I74" t="s">
         <v>593</v>
@@ -3785,16 +3782,19 @@
       <c r="G75" t="s">
         <v>311</v>
       </c>
+      <c r="H75" t="s">
+        <v>477</v>
+      </c>
       <c r="I75" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
@@ -3809,15 +3809,15 @@
         <v>478</v>
       </c>
       <c r="I76" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>91</v>
@@ -3828,19 +3828,16 @@
       <c r="G77" t="s">
         <v>313</v>
       </c>
-      <c r="H77" t="s">
-        <v>479</v>
-      </c>
       <c r="I77" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
@@ -3851,16 +3848,19 @@
       <c r="G78" t="s">
         <v>314</v>
       </c>
+      <c r="H78" t="s">
+        <v>479</v>
+      </c>
       <c r="I78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>93</v>
@@ -3875,15 +3875,15 @@
         <v>480</v>
       </c>
       <c r="I79" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>94</v>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
@@ -3921,15 +3921,15 @@
         <v>482</v>
       </c>
       <c r="I81" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>96</v>
@@ -3944,7 +3944,7 @@
         <v>483</v>
       </c>
       <c r="I82" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3967,15 +3967,15 @@
         <v>484</v>
       </c>
       <c r="I83" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>98</v>
@@ -3995,10 +3995,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
         <v>99</v>
@@ -4009,16 +4009,19 @@
       <c r="G85" t="s">
         <v>321</v>
       </c>
+      <c r="H85" t="s">
+        <v>486</v>
+      </c>
       <c r="I85" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>100</v>
@@ -4030,10 +4033,10 @@
         <v>322</v>
       </c>
       <c r="H86" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I86" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4053,7 +4056,7 @@
         <v>323</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I87" t="s">
         <v>596</v>
@@ -4061,10 +4064,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>102</v>
@@ -4076,18 +4079,18 @@
         <v>324</v>
       </c>
       <c r="H88" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I88" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
@@ -4099,10 +4102,10 @@
         <v>325</v>
       </c>
       <c r="H89" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I89" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4122,7 +4125,7 @@
         <v>326</v>
       </c>
       <c r="I90" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4141,11 +4144,8 @@
       <c r="G91" t="s">
         <v>327</v>
       </c>
-      <c r="H91" t="s">
-        <v>490</v>
-      </c>
       <c r="I91" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4170,10 +4170,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
         <v>107</v>
@@ -4188,15 +4188,15 @@
         <v>491</v>
       </c>
       <c r="I93" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>108</v>
@@ -4207,8 +4207,11 @@
       <c r="G94" t="s">
         <v>330</v>
       </c>
+      <c r="H94" t="s">
+        <v>492</v>
+      </c>
       <c r="I94" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4228,18 +4231,18 @@
         <v>331</v>
       </c>
       <c r="H95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I95" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>110</v>
@@ -4251,18 +4254,18 @@
         <v>332</v>
       </c>
       <c r="H96" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I96" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -4273,19 +4276,16 @@
       <c r="G97" t="s">
         <v>333</v>
       </c>
-      <c r="H97" t="s">
-        <v>494</v>
-      </c>
       <c r="I97" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>112</v>
@@ -4300,15 +4300,15 @@
         <v>495</v>
       </c>
       <c r="I98" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>113</v>
@@ -4319,16 +4319,19 @@
       <c r="G99" t="s">
         <v>335</v>
       </c>
+      <c r="H99" t="s">
+        <v>496</v>
+      </c>
       <c r="I99" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>114</v>
@@ -4340,10 +4343,10 @@
         <v>336</v>
       </c>
       <c r="H100" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I100" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4363,7 +4366,7 @@
         <v>337</v>
       </c>
       <c r="H101" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I101" t="s">
         <v>593</v>
@@ -4371,10 +4374,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>116</v>
@@ -4386,18 +4389,18 @@
         <v>338</v>
       </c>
       <c r="H102" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I102" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>117</v>
@@ -4409,7 +4412,7 @@
         <v>339</v>
       </c>
       <c r="H103" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I103" t="s">
         <v>596</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
         <v>118</v>
@@ -4431,19 +4434,16 @@
       <c r="G104" t="s">
         <v>340</v>
       </c>
-      <c r="H104" t="s">
-        <v>500</v>
-      </c>
       <c r="I104" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
         <v>119</v>
@@ -4458,15 +4458,15 @@
         <v>501</v>
       </c>
       <c r="I105" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>120</v>
@@ -4481,15 +4481,15 @@
         <v>502</v>
       </c>
       <c r="I106" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
         <v>121</v>
@@ -4500,19 +4500,16 @@
       <c r="G107" t="s">
         <v>343</v>
       </c>
-      <c r="H107" t="s">
-        <v>503</v>
-      </c>
       <c r="I107" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>122</v>
@@ -4524,18 +4521,18 @@
         <v>344</v>
       </c>
       <c r="H108" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I108" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>123</v>
@@ -4546,16 +4543,19 @@
       <c r="G109" t="s">
         <v>345</v>
       </c>
+      <c r="H109" t="s">
+        <v>504</v>
+      </c>
       <c r="I109" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>124</v>
@@ -4570,15 +4570,15 @@
         <v>505</v>
       </c>
       <c r="I110" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>125</v>
@@ -4589,8 +4589,11 @@
       <c r="G111" t="s">
         <v>347</v>
       </c>
+      <c r="H111" t="s">
+        <v>506</v>
+      </c>
       <c r="I111" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4610,10 +4613,10 @@
         <v>348</v>
       </c>
       <c r="H112" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I112" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4633,18 +4636,18 @@
         <v>349</v>
       </c>
       <c r="H113" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I113" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
@@ -4656,18 +4659,18 @@
         <v>350</v>
       </c>
       <c r="H114" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I114" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>129</v>
@@ -4679,10 +4682,10 @@
         <v>351</v>
       </c>
       <c r="H115" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I115" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4702,18 +4705,18 @@
         <v>352</v>
       </c>
       <c r="H116" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I116" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>131</v>
@@ -4725,10 +4728,10 @@
         <v>353</v>
       </c>
       <c r="H117" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I117" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4748,10 +4751,10 @@
         <v>354</v>
       </c>
       <c r="H118" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I118" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4770,19 +4773,16 @@
       <c r="G119" t="s">
         <v>355</v>
       </c>
-      <c r="H119" t="s">
-        <v>513</v>
-      </c>
       <c r="I119" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>134</v>
@@ -4797,15 +4797,15 @@
         <v>514</v>
       </c>
       <c r="I120" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>135</v>
@@ -4816,11 +4816,8 @@
       <c r="G121" t="s">
         <v>357</v>
       </c>
-      <c r="H121" t="s">
-        <v>515</v>
-      </c>
       <c r="I121" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4840,7 +4837,7 @@
         <v>358</v>
       </c>
       <c r="H122" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I122" t="s">
         <v>599</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>137</v>
@@ -4862,8 +4859,11 @@
       <c r="G123" t="s">
         <v>359</v>
       </c>
+      <c r="H123" t="s">
+        <v>516</v>
+      </c>
       <c r="I123" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4886,15 +4886,15 @@
         <v>517</v>
       </c>
       <c r="I124" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>139</v>
@@ -4905,6 +4905,9 @@
       <c r="G125" t="s">
         <v>361</v>
       </c>
+      <c r="H125" t="s">
+        <v>518</v>
+      </c>
       <c r="I125" t="s">
         <v>596</v>
       </c>
@@ -4926,18 +4929,18 @@
         <v>362</v>
       </c>
       <c r="H126" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I126" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
         <v>141</v>
@@ -4948,16 +4951,19 @@
       <c r="G127" t="s">
         <v>363</v>
       </c>
+      <c r="H127" t="s">
+        <v>520</v>
+      </c>
       <c r="I127" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
         <v>142</v>
@@ -4968,19 +4974,16 @@
       <c r="G128" t="s">
         <v>364</v>
       </c>
-      <c r="H128" t="s">
-        <v>519</v>
-      </c>
       <c r="I128" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
         <v>143</v>
@@ -4992,10 +4995,10 @@
         <v>365</v>
       </c>
       <c r="H129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I129" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5014,19 +5017,16 @@
       <c r="G130" t="s">
         <v>366</v>
       </c>
-      <c r="H130" t="s">
-        <v>521</v>
-      </c>
       <c r="I130" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
         <v>145</v>
@@ -5037,19 +5037,16 @@
       <c r="G131" t="s">
         <v>367</v>
       </c>
-      <c r="H131" t="s">
-        <v>522</v>
-      </c>
       <c r="I131" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>146</v>
@@ -5061,18 +5058,18 @@
         <v>368</v>
       </c>
       <c r="H132" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I132" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>147</v>
@@ -5083,8 +5080,11 @@
       <c r="G133" t="s">
         <v>369</v>
       </c>
+      <c r="H133" t="s">
+        <v>523</v>
+      </c>
       <c r="I133" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5094,8 +5094,8 @@
       <c r="B134" t="s">
         <v>13</v>
       </c>
-      <c r="C134" t="s">
-        <v>148</v>
+      <c r="D134" t="s">
+        <v>216</v>
       </c>
       <c r="F134" t="s">
         <v>236</v>
@@ -5105,9 +5105,6 @@
       </c>
       <c r="H134" t="s">
         <v>524</v>
-      </c>
-      <c r="I134" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5118,7 +5115,7 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F135" t="s">
         <v>236</v>
@@ -5130,7 +5127,7 @@
         <v>525</v>
       </c>
       <c r="I135" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5141,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F136" t="s">
         <v>236</v>
@@ -5158,13 +5155,13 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" t="s">
-        <v>216</v>
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
       </c>
       <c r="F137" t="s">
         <v>236</v>
@@ -5175,13 +5172,16 @@
       <c r="H137" t="s">
         <v>527</v>
       </c>
+      <c r="I137" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
@@ -5196,15 +5196,15 @@
         <v>528</v>
       </c>
       <c r="I138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
@@ -5219,7 +5219,7 @@
         <v>529</v>
       </c>
       <c r="I139" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5265,7 +5265,7 @@
         <v>531</v>
       </c>
       <c r="I141" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5288,7 +5288,7 @@
         <v>532</v>
       </c>
       <c r="I142" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5311,7 +5311,7 @@
         <v>533</v>
       </c>
       <c r="I143" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5334,7 +5334,7 @@
         <v>534</v>
       </c>
       <c r="I144" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5344,8 +5344,8 @@
       <c r="B145" t="s">
         <v>13</v>
       </c>
-      <c r="C145" t="s">
-        <v>158</v>
+      <c r="D145" t="s">
+        <v>217</v>
       </c>
       <c r="F145" t="s">
         <v>237</v>
@@ -5356,9 +5356,6 @@
       <c r="H145" t="s">
         <v>535</v>
       </c>
-      <c r="I145" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -5367,8 +5364,8 @@
       <c r="B146" t="s">
         <v>13</v>
       </c>
-      <c r="D146" t="s">
-        <v>217</v>
+      <c r="C146" t="s">
+        <v>158</v>
       </c>
       <c r="F146" t="s">
         <v>237</v>
@@ -5379,6 +5376,9 @@
       <c r="H146" t="s">
         <v>536</v>
       </c>
+      <c r="I146" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -5400,15 +5400,15 @@
         <v>537</v>
       </c>
       <c r="I147" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
         <v>160</v>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>161</v>
@@ -5446,7 +5446,7 @@
         <v>539</v>
       </c>
       <c r="I149" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5492,7 +5492,7 @@
         <v>541</v>
       </c>
       <c r="I151" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5515,7 +5515,7 @@
         <v>542</v>
       </c>
       <c r="I152" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5538,7 +5538,7 @@
         <v>543</v>
       </c>
       <c r="I153" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5584,15 +5584,15 @@
         <v>545</v>
       </c>
       <c r="I155" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>168</v>
@@ -5630,7 +5630,7 @@
         <v>547</v>
       </c>
       <c r="I157" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5649,19 +5649,16 @@
       <c r="G158" t="s">
         <v>394</v>
       </c>
-      <c r="H158" t="s">
-        <v>548</v>
-      </c>
       <c r="I158" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>171</v>
@@ -5673,7 +5670,7 @@
         <v>395</v>
       </c>
       <c r="H159" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I159" t="s">
         <v>595</v>
@@ -5696,10 +5693,10 @@
         <v>396</v>
       </c>
       <c r="H160" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I160" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5719,10 +5716,10 @@
         <v>397</v>
       </c>
       <c r="H161" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I161" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5742,18 +5739,18 @@
         <v>398</v>
       </c>
       <c r="H162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I162" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
         <v>175</v>
@@ -5765,7 +5762,7 @@
         <v>399</v>
       </c>
       <c r="H163" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I163" t="s">
         <v>596</v>
@@ -5788,7 +5785,7 @@
         <v>400</v>
       </c>
       <c r="H164" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I164" t="s">
         <v>600</v>
@@ -5811,10 +5808,10 @@
         <v>401</v>
       </c>
       <c r="H165" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I165" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5834,10 +5831,10 @@
         <v>402</v>
       </c>
       <c r="H166" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I166" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5857,18 +5854,18 @@
         <v>403</v>
       </c>
       <c r="H167" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I167" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
         <v>180</v>
@@ -5879,8 +5876,11 @@
       <c r="G168" t="s">
         <v>404</v>
       </c>
+      <c r="H168" t="s">
+        <v>557</v>
+      </c>
       <c r="I168" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5926,7 +5926,7 @@
         <v>559</v>
       </c>
       <c r="I170" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5949,7 +5949,7 @@
         <v>560</v>
       </c>
       <c r="I171" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6018,15 +6018,15 @@
         <v>563</v>
       </c>
       <c r="I174" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>187</v>
@@ -6041,15 +6041,15 @@
         <v>564</v>
       </c>
       <c r="I175" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
         <v>188</v>
@@ -6064,7 +6064,7 @@
         <v>565</v>
       </c>
       <c r="I176" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6087,7 +6087,7 @@
         <v>566</v>
       </c>
       <c r="I177" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6097,8 +6097,8 @@
       <c r="B178" t="s">
         <v>13</v>
       </c>
-      <c r="C178" t="s">
-        <v>190</v>
+      <c r="D178" t="s">
+        <v>218</v>
       </c>
       <c r="F178" t="s">
         <v>239</v>
@@ -6109,9 +6109,6 @@
       <c r="H178" t="s">
         <v>567</v>
       </c>
-      <c r="I178" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
@@ -6121,7 +6118,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F179" t="s">
         <v>239</v>
@@ -6133,18 +6130,18 @@
         <v>568</v>
       </c>
       <c r="I179" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F180" t="s">
         <v>239</v>
@@ -6153,21 +6150,21 @@
         <v>416</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>453</v>
       </c>
       <c r="I180" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F181" t="s">
         <v>239</v>
@@ -6176,21 +6173,21 @@
         <v>417</v>
       </c>
       <c r="H181" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I181" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>193</v>
       </c>
       <c r="F182" t="s">
         <v>239</v>
@@ -6199,7 +6196,10 @@
         <v>418</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>570</v>
+      </c>
+      <c r="I182" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6219,10 +6219,10 @@
         <v>419</v>
       </c>
       <c r="H183" t="s">
-        <v>452</v>
+        <v>571</v>
       </c>
       <c r="I183" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6273,10 +6273,10 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
         <v>197</v>
@@ -6291,7 +6291,7 @@
         <v>574</v>
       </c>
       <c r="I186" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6319,10 +6319,10 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
         <v>199</v>
@@ -6337,15 +6337,15 @@
         <v>576</v>
       </c>
       <c r="I188" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>200</v>
@@ -6360,7 +6360,7 @@
         <v>577</v>
       </c>
       <c r="I189" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6383,15 +6383,15 @@
         <v>578</v>
       </c>
       <c r="I190" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>202</v>
@@ -6406,15 +6406,15 @@
         <v>579</v>
       </c>
       <c r="I191" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
         <v>203</v>
@@ -6429,15 +6429,15 @@
         <v>580</v>
       </c>
       <c r="I192" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>204</v>
@@ -6452,7 +6452,7 @@
         <v>581</v>
       </c>
       <c r="I193" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6475,7 +6475,7 @@
         <v>582</v>
       </c>
       <c r="I194" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6498,7 +6498,7 @@
         <v>583</v>
       </c>
       <c r="I195" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6521,7 +6521,7 @@
         <v>584</v>
       </c>
       <c r="I196" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6544,7 +6544,7 @@
         <v>585</v>
       </c>
       <c r="I197" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6567,15 +6567,15 @@
         <v>586</v>
       </c>
       <c r="I198" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
         <v>210</v>
@@ -6590,15 +6590,15 @@
         <v>587</v>
       </c>
       <c r="I199" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
         <v>211</v>
@@ -6613,7 +6613,7 @@
         <v>588</v>
       </c>
       <c r="I200" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6636,15 +6636,15 @@
         <v>589</v>
       </c>
       <c r="I201" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
         <v>213</v>
@@ -6659,7 +6659,7 @@
         <v>590</v>
       </c>
       <c r="I202" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6715,6 +6715,9 @@
       <c r="G205" t="s">
         <v>441</v>
       </c>
+      <c r="H205" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
@@ -6728,9 +6731,6 @@
       </c>
       <c r="G206" t="s">
         <v>442</v>
-      </c>
-      <c r="H206" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
+++ b/publipostage2/02tcf7a68/liste_essais_cliniques_identifies_02tcf7a68.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="640">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00337623</t>
@@ -82,15 +82,15 @@
     <t>NCT00487175</t>
   </si>
   <si>
+    <t>NCT01121653</t>
+  </si>
+  <si>
     <t>NCT00313378</t>
   </si>
   <si>
     <t>NCT00750347</t>
   </si>
   <si>
-    <t>NCT01121653</t>
-  </si>
-  <si>
     <t>NCT00487812</t>
   </si>
   <si>
@@ -103,40 +103,46 @@
     <t>NCT01116596</t>
   </si>
   <si>
+    <t>NCT00488410</t>
+  </si>
+  <si>
+    <t>NCT00852735</t>
+  </si>
+  <si>
+    <t>NCT00852384</t>
+  </si>
+  <si>
+    <t>NCT01196754</t>
+  </si>
+  <si>
+    <t>NCT01014299</t>
+  </si>
+  <si>
+    <t>NCT00487110</t>
+  </si>
+  <si>
+    <t>NCT00664157</t>
+  </si>
+  <si>
+    <t>NCT00639574</t>
+  </si>
+  <si>
     <t>NCT00484549</t>
   </si>
   <si>
-    <t>NCT00488410</t>
-  </si>
-  <si>
-    <t>NCT01196754</t>
-  </si>
-  <si>
-    <t>NCT00852384</t>
-  </si>
-  <si>
-    <t>NCT00639574</t>
-  </si>
-  <si>
-    <t>NCT00852735</t>
-  </si>
-  <si>
-    <t>NCT00487110</t>
-  </si>
-  <si>
-    <t>NCT01014299</t>
-  </si>
-  <si>
-    <t>NCT00664157</t>
-  </si>
-  <si>
     <t>NCT01196767</t>
   </si>
   <si>
+    <t>NCT01053650</t>
+  </si>
+  <si>
     <t>NCT00983125</t>
   </si>
   <si>
-    <t>NCT01053650</t>
+    <t>NCT01053845</t>
+  </si>
+  <si>
+    <t>NCT00333099</t>
   </si>
   <si>
     <t>NCT01349179</t>
@@ -145,379 +151,406 @@
     <t>NCT01206985</t>
   </si>
   <si>
-    <t>NCT01053845</t>
+    <t>NCT00917917</t>
+  </si>
+  <si>
+    <t>NCT01429909</t>
+  </si>
+  <si>
+    <t>NCT01139671</t>
+  </si>
+  <si>
+    <t>NCT01874704</t>
   </si>
   <si>
     <t>NCT01272167</t>
   </si>
   <si>
-    <t>NCT00917917</t>
-  </si>
-  <si>
     <t>NCT01225419</t>
   </si>
   <si>
-    <t>NCT01139671</t>
-  </si>
-  <si>
-    <t>NCT01429909</t>
-  </si>
-  <si>
-    <t>NCT01874704</t>
-  </si>
-  <si>
     <t>NCT01226381</t>
   </si>
   <si>
-    <t>NCT00333099</t>
+    <t>NCT01334645</t>
   </si>
   <si>
     <t>NCT00980616</t>
   </si>
   <si>
+    <t>NCT01282996</t>
+  </si>
+  <si>
     <t>NCT01766531</t>
   </si>
   <si>
-    <t>NCT01282996</t>
-  </si>
-  <si>
     <t>NCT01543386</t>
   </si>
   <si>
+    <t>NCT01685476</t>
+  </si>
+  <si>
+    <t>NCT01562704</t>
+  </si>
+  <si>
+    <t>NCT01560390</t>
+  </si>
+  <si>
+    <t>NCT01800851</t>
+  </si>
+  <si>
+    <t>NCT01426178</t>
+  </si>
+  <si>
     <t>NCT01747759</t>
   </si>
   <si>
-    <t>NCT01560390</t>
-  </si>
-  <si>
-    <t>NCT01334645</t>
-  </si>
-  <si>
-    <t>NCT01426178</t>
-  </si>
-  <si>
-    <t>NCT01800851</t>
-  </si>
-  <si>
-    <t>NCT01562704</t>
-  </si>
-  <si>
-    <t>NCT01685476</t>
+    <t>NCT01643395</t>
+  </si>
+  <si>
+    <t>NCT01536314</t>
+  </si>
+  <si>
+    <t>NCT01702779</t>
+  </si>
+  <si>
+    <t>NCT01390623</t>
+  </si>
+  <si>
+    <t>NCT01935570</t>
+  </si>
+  <si>
+    <t>NCT01600651</t>
+  </si>
+  <si>
+    <t>NCT01782638</t>
+  </si>
+  <si>
+    <t>NCT00750529</t>
+  </si>
+  <si>
+    <t>NCT01906203</t>
+  </si>
+  <si>
+    <t>NCT00690209</t>
   </si>
   <si>
     <t>NCT01520792</t>
   </si>
   <si>
+    <t>NCT01586143</t>
+  </si>
+  <si>
+    <t>NCT01955018</t>
+  </si>
+  <si>
+    <t>NCT01699269</t>
+  </si>
+  <si>
+    <t>NCT01794195</t>
+  </si>
+  <si>
+    <t>NCT00875069</t>
+  </si>
+  <si>
+    <t>NCT01794273</t>
+  </si>
+  <si>
     <t>NCT01156766</t>
   </si>
   <si>
-    <t>NCT01782638</t>
-  </si>
-  <si>
-    <t>NCT01586143</t>
-  </si>
-  <si>
-    <t>NCT01536314</t>
-  </si>
-  <si>
-    <t>NCT01935570</t>
-  </si>
-  <si>
-    <t>NCT01702779</t>
-  </si>
-  <si>
-    <t>NCT01955018</t>
-  </si>
-  <si>
-    <t>NCT00690209</t>
-  </si>
-  <si>
-    <t>NCT01794195</t>
-  </si>
-  <si>
-    <t>NCT01643395</t>
-  </si>
-  <si>
-    <t>NCT01699269</t>
-  </si>
-  <si>
     <t>NCT01017744</t>
   </si>
   <si>
-    <t>NCT00750529</t>
-  </si>
-  <si>
-    <t>NCT01600651</t>
-  </si>
-  <si>
-    <t>NCT01906203</t>
-  </si>
-  <si>
-    <t>NCT01390623</t>
-  </si>
-  <si>
-    <t>NCT00875069</t>
-  </si>
-  <si>
-    <t>NCT01794273</t>
+    <t>NCT01437371</t>
+  </si>
+  <si>
+    <t>NCT02174068</t>
+  </si>
+  <si>
+    <t>NCT02202720</t>
+  </si>
+  <si>
+    <t>NCT01793363</t>
   </si>
   <si>
     <t>NCT02082834</t>
   </si>
   <si>
+    <t>NCT02076737</t>
+  </si>
+  <si>
+    <t>NCT02206178</t>
+  </si>
+  <si>
     <t>NCT02094313</t>
   </si>
   <si>
-    <t>NCT02076737</t>
-  </si>
-  <si>
-    <t>NCT01793363</t>
-  </si>
-  <si>
-    <t>NCT02174068</t>
-  </si>
-  <si>
-    <t>NCT02206178</t>
-  </si>
-  <si>
-    <t>NCT01437371</t>
-  </si>
-  <si>
-    <t>NCT02202720</t>
+    <t>NCT02664844</t>
   </si>
   <si>
     <t>NCT02350244</t>
   </si>
   <si>
-    <t>NCT02664844</t>
+    <t>NCT01887015</t>
+  </si>
+  <si>
+    <t>NCT01249326</t>
+  </si>
+  <si>
+    <t>NCT02042612</t>
+  </si>
+  <si>
+    <t>NCT01775449</t>
   </si>
   <si>
     <t>NCT01888094</t>
   </si>
   <si>
-    <t>NCT01249326</t>
-  </si>
-  <si>
-    <t>NCT02042612</t>
-  </si>
-  <si>
-    <t>NCT01775449</t>
+    <t>NCT01828788</t>
   </si>
   <si>
     <t>NCT02048683</t>
   </si>
   <si>
-    <t>NCT01887015</t>
-  </si>
-  <si>
-    <t>NCT01828788</t>
+    <t>NCT02847611</t>
+  </si>
+  <si>
+    <t>NCT01392872</t>
+  </si>
+  <si>
+    <t>NCT03338179</t>
+  </si>
+  <si>
+    <t>NCT02596360</t>
+  </si>
+  <si>
+    <t>NCT01718249</t>
+  </si>
+  <si>
+    <t>NCT02678559</t>
+  </si>
+  <si>
+    <t>NCT02844088</t>
   </si>
   <si>
     <t>NCT01536470</t>
   </si>
   <si>
-    <t>NCT01392872</t>
-  </si>
-  <si>
-    <t>NCT02678559</t>
-  </si>
-  <si>
-    <t>NCT01718249</t>
+    <t>NCT01887028</t>
   </si>
   <si>
     <t>NCT01602185</t>
   </si>
   <si>
-    <t>NCT03338179</t>
-  </si>
-  <si>
-    <t>NCT01887028</t>
-  </si>
-  <si>
-    <t>NCT02844088</t>
-  </si>
-  <si>
-    <t>NCT02847611</t>
+    <t>NCT01785693</t>
+  </si>
+  <si>
+    <t>NCT02662816</t>
+  </si>
+  <si>
+    <t>NCT02569424</t>
   </si>
   <si>
     <t>NCT02166853</t>
   </si>
   <si>
-    <t>NCT02569424</t>
-  </si>
-  <si>
-    <t>NCT02596360</t>
-  </si>
-  <si>
-    <t>NCT02662816</t>
-  </si>
-  <si>
-    <t>NCT01785693</t>
+    <t>NCT02904538</t>
+  </si>
+  <si>
+    <t>NCT03045822</t>
+  </si>
+  <si>
+    <t>NCT01811251</t>
+  </si>
+  <si>
+    <t>NCT03745742</t>
   </si>
   <si>
     <t>NCT02824341</t>
   </si>
   <si>
+    <t>NCT02474745</t>
+  </si>
+  <si>
     <t>NCT02006810</t>
   </si>
   <si>
-    <t>NCT01811251</t>
-  </si>
-  <si>
-    <t>NCT02904538</t>
+    <t>NCT03277963</t>
+  </si>
+  <si>
+    <t>NCT02763592</t>
+  </si>
+  <si>
+    <t>NCT02100046</t>
+  </si>
+  <si>
+    <t>NCT02598804</t>
   </si>
   <si>
     <t>NCT02970513</t>
   </si>
   <si>
-    <t>NCT03045822</t>
-  </si>
-  <si>
-    <t>NCT03745742</t>
-  </si>
-  <si>
-    <t>NCT02598804</t>
-  </si>
-  <si>
-    <t>NCT03277963</t>
-  </si>
-  <si>
-    <t>NCT02100046</t>
-  </si>
-  <si>
-    <t>NCT02763592</t>
-  </si>
-  <si>
-    <t>NCT02474745</t>
-  </si>
-  <si>
     <t>NCT03113903</t>
   </si>
   <si>
+    <t>NCT02255370</t>
+  </si>
+  <si>
     <t>NCT03420261</t>
   </si>
   <si>
+    <t>NCT03125083</t>
+  </si>
+  <si>
+    <t>NCT02359461</t>
+  </si>
+  <si>
+    <t>NCT02123940</t>
+  </si>
+  <si>
+    <t>NCT03101410</t>
+  </si>
+  <si>
+    <t>NCT01586130</t>
+  </si>
+  <si>
     <t>NCT03378895</t>
   </si>
   <si>
-    <t>NCT01586130</t>
-  </si>
-  <si>
-    <t>NCT02123940</t>
-  </si>
-  <si>
-    <t>NCT02359461</t>
-  </si>
-  <si>
     <t>NCT03453918</t>
   </si>
   <si>
-    <t>NCT03101410</t>
-  </si>
-  <si>
     <t>NCT00529724</t>
   </si>
   <si>
+    <t>NCT02149589</t>
+  </si>
+  <si>
     <t>NCT02502773</t>
   </si>
   <si>
-    <t>NCT02149589</t>
-  </si>
-  <si>
-    <t>NCT03125083</t>
-  </si>
-  <si>
-    <t>NCT02255370</t>
+    <t>NCT02973503</t>
   </si>
   <si>
     <t>NCT03967782</t>
   </si>
   <si>
+    <t>NCT01935544</t>
+  </si>
+  <si>
+    <t>NCT02126332</t>
+  </si>
+  <si>
+    <t>NCT03742622</t>
+  </si>
+  <si>
+    <t>NCT03807609</t>
+  </si>
+  <si>
+    <t>NCT03166644</t>
+  </si>
+  <si>
     <t>NCT03963440</t>
   </si>
   <si>
-    <t>NCT03166644</t>
-  </si>
-  <si>
-    <t>NCT02973503</t>
-  </si>
-  <si>
-    <t>NCT03807609</t>
-  </si>
-  <si>
-    <t>NCT02126332</t>
-  </si>
-  <si>
-    <t>NCT03742622</t>
-  </si>
-  <si>
-    <t>NCT01935544</t>
+    <t>NCT02799186</t>
   </si>
   <si>
     <t>NCT04189380</t>
   </si>
   <si>
-    <t>NCT02799186</t>
+    <t>NCT03923244</t>
+  </si>
+  <si>
+    <t>NCT03887000</t>
+  </si>
+  <si>
+    <t>NCT04174209</t>
+  </si>
+  <si>
+    <t>NCT02618720</t>
   </si>
   <si>
     <t>NCT03229148</t>
   </si>
   <si>
-    <t>NCT03923244</t>
-  </si>
-  <si>
-    <t>NCT02618720</t>
-  </si>
-  <si>
     <t>NCT03840785</t>
   </si>
   <si>
-    <t>NCT04174209</t>
-  </si>
-  <si>
-    <t>NCT03887000</t>
+    <t>NCT04399278</t>
+  </si>
+  <si>
+    <t>NCT04880759</t>
+  </si>
+  <si>
+    <t>NCT02340403</t>
+  </si>
+  <si>
+    <t>NCT04391452</t>
+  </si>
+  <si>
+    <t>NCT04246788</t>
+  </si>
+  <si>
+    <t>NCT03339141</t>
   </si>
   <si>
     <t>NCT04492813</t>
   </si>
   <si>
+    <t>NCT03838939</t>
+  </si>
+  <si>
+    <t>NCT04734639</t>
+  </si>
+  <si>
     <t>NCT04700150</t>
   </si>
   <si>
-    <t>NCT02340403</t>
-  </si>
-  <si>
-    <t>NCT04399278</t>
-  </si>
-  <si>
-    <t>NCT04246788</t>
-  </si>
-  <si>
-    <t>NCT04391452</t>
-  </si>
-  <si>
-    <t>NCT03339141</t>
+    <t>NCT04371016</t>
   </si>
   <si>
     <t>NCT04739189</t>
   </si>
   <si>
-    <t>NCT03838939</t>
-  </si>
-  <si>
-    <t>NCT04371016</t>
-  </si>
-  <si>
     <t>NCT04495504</t>
   </si>
   <si>
-    <t>NCT04734639</t>
-  </si>
-  <si>
     <t>NCT04482530</t>
   </si>
   <si>
-    <t>NCT04880759</t>
+    <t>NCT05147610</t>
+  </si>
+  <si>
+    <t>NCT04935814</t>
+  </si>
+  <si>
+    <t>NCT02555982</t>
+  </si>
+  <si>
+    <t>NCT04903860</t>
+  </si>
+  <si>
+    <t>NCT04551326</t>
+  </si>
+  <si>
+    <t>NCT04268875</t>
+  </si>
+  <si>
+    <t>NCT05085119</t>
+  </si>
+  <si>
+    <t>NCT04368858</t>
+  </si>
+  <si>
+    <t>NCT04753580</t>
+  </si>
+  <si>
+    <t>NCT04236518</t>
+  </si>
+  <si>
+    <t>NCT03987789</t>
   </si>
   <si>
     <t>NCT05188755</t>
@@ -526,157 +559,232 @@
     <t>NCT04923555</t>
   </si>
   <si>
-    <t>NCT05147610</t>
-  </si>
-  <si>
-    <t>NCT05085119</t>
+    <t>NCT04624581</t>
+  </si>
+  <si>
+    <t>NCT02819778</t>
+  </si>
+  <si>
+    <t>NCT05160298</t>
   </si>
   <si>
     <t>NCT05365113</t>
   </si>
   <si>
-    <t>NCT04236518</t>
-  </si>
-  <si>
-    <t>NCT04935814</t>
-  </si>
-  <si>
-    <t>NCT03987789</t>
+    <t>NCT04902001</t>
   </si>
   <si>
     <t>NCT04355312</t>
   </si>
   <si>
-    <t>NCT05160298</t>
-  </si>
-  <si>
-    <t>NCT04624581</t>
-  </si>
-  <si>
-    <t>NCT02555982</t>
-  </si>
-  <si>
-    <t>NCT02819778</t>
-  </si>
-  <si>
-    <t>NCT04268875</t>
-  </si>
-  <si>
-    <t>NCT04902001</t>
-  </si>
-  <si>
-    <t>NCT04368858</t>
-  </si>
-  <si>
-    <t>NCT04551326</t>
-  </si>
-  <si>
-    <t>NCT04903860</t>
-  </si>
-  <si>
-    <t>NCT04753580</t>
+    <t>NCT03966092</t>
+  </si>
+  <si>
+    <t>NCT05225376</t>
+  </si>
+  <si>
+    <t>NCT06017440</t>
   </si>
   <si>
     <t>NCT04438317</t>
   </si>
   <si>
+    <t>NCT02907554</t>
+  </si>
+  <si>
+    <t>NCT04864028</t>
+  </si>
+  <si>
+    <t>NCT03971513</t>
+  </si>
+  <si>
+    <t>NCT04334083</t>
+  </si>
+  <si>
+    <t>NCT04887077</t>
+  </si>
+  <si>
+    <t>NCT04731987</t>
+  </si>
+  <si>
+    <t>NCT03981432</t>
+  </si>
+  <si>
+    <t>NCT04487639</t>
+  </si>
+  <si>
+    <t>NCT04041817</t>
+  </si>
+  <si>
+    <t>NCT04107545</t>
+  </si>
+  <si>
+    <t>NCT03818243</t>
+  </si>
+  <si>
+    <t>NCT04264949</t>
+  </si>
+  <si>
     <t>NCT03317067</t>
   </si>
   <si>
-    <t>NCT06017440</t>
-  </si>
-  <si>
-    <t>NCT04107545</t>
-  </si>
-  <si>
-    <t>NCT04334083</t>
-  </si>
-  <si>
-    <t>NCT03966092</t>
-  </si>
-  <si>
-    <t>NCT05225376</t>
-  </si>
-  <si>
-    <t>NCT04487639</t>
-  </si>
-  <si>
-    <t>NCT03971513</t>
-  </si>
-  <si>
-    <t>NCT04041817</t>
-  </si>
-  <si>
-    <t>NCT04731987</t>
-  </si>
-  <si>
-    <t>NCT04864028</t>
-  </si>
-  <si>
-    <t>NCT04887077</t>
-  </si>
-  <si>
-    <t>NCT03981432</t>
-  </si>
-  <si>
-    <t>NCT04264949</t>
-  </si>
-  <si>
-    <t>NCT03818243</t>
-  </si>
-  <si>
-    <t>NCT02907554</t>
+    <t>NCT03915223</t>
+  </si>
+  <si>
+    <t>NCT05328154</t>
+  </si>
+  <si>
+    <t>NCT05650788</t>
+  </si>
+  <si>
+    <t>NCT04935658</t>
+  </si>
+  <si>
+    <t>NCT04235608</t>
+  </si>
+  <si>
+    <t>NCT04212234</t>
+  </si>
+  <si>
+    <t>NCT04070469</t>
+  </si>
+  <si>
+    <t>NCT05026281</t>
   </si>
   <si>
     <t>NCT06396377</t>
   </si>
   <si>
-    <t>NCT04235608</t>
-  </si>
-  <si>
-    <t>NCT03915223</t>
+    <t>NCT05405088</t>
+  </si>
+  <si>
+    <t>NCT05416190</t>
   </si>
   <si>
     <t>NCT05142059</t>
   </si>
   <si>
-    <t>NCT05328154</t>
-  </si>
-  <si>
-    <t>NCT05416190</t>
-  </si>
-  <si>
-    <t>NCT05405088</t>
-  </si>
-  <si>
-    <t>NCT04212234</t>
-  </si>
-  <si>
-    <t>NCT05026281</t>
-  </si>
-  <si>
     <t>NCT05254639</t>
   </si>
   <si>
-    <t>NCT04935658</t>
+    <t>NCT04824885</t>
+  </si>
+  <si>
+    <t>NCT05552105</t>
+  </si>
+  <si>
+    <t>2006-006564-36</t>
+  </si>
+  <si>
+    <t>2009-015610-22</t>
+  </si>
+  <si>
+    <t>2006-005770-44</t>
+  </si>
+  <si>
+    <t>2010-018746-30</t>
+  </si>
+  <si>
+    <t>2010-018751-10</t>
+  </si>
+  <si>
+    <t>2010-020509-34</t>
   </si>
   <si>
     <t>2010-024547-32</t>
   </si>
   <si>
-    <t>2016-002805-21</t>
+    <t>2010-023697-39</t>
+  </si>
+  <si>
+    <t>2012-001827-11</t>
+  </si>
+  <si>
+    <t>2014-000624-22</t>
+  </si>
+  <si>
+    <t>2014-000759-10</t>
+  </si>
+  <si>
+    <t>2013-000668-27</t>
+  </si>
+  <si>
+    <t>2006-004376-12</t>
+  </si>
+  <si>
+    <t>2013-000960-26</t>
+  </si>
+  <si>
+    <t>2015-003271-30</t>
+  </si>
+  <si>
+    <t>2011-004232-66</t>
+  </si>
+  <si>
+    <t>2012-002123-15</t>
+  </si>
+  <si>
+    <t>2013-005389-21</t>
+  </si>
+  <si>
+    <t>2016-001341-41</t>
+  </si>
+  <si>
+    <t>2012-003157-29</t>
+  </si>
+  <si>
+    <t>2013-004801-26</t>
+  </si>
+  <si>
+    <t>2014-000261-51</t>
+  </si>
+  <si>
+    <t>2014-005578-84</t>
+  </si>
+  <si>
+    <t>2014-005575-84</t>
+  </si>
+  <si>
+    <t>2016-001363-37</t>
+  </si>
+  <si>
+    <t>2013-004652-37</t>
+  </si>
+  <si>
+    <t>2016-001603-23</t>
+  </si>
+  <si>
+    <t>2015-002559-84</t>
   </si>
   <si>
     <t>2015-000162-59</t>
   </si>
   <si>
-    <t>2017-004978-34</t>
-  </si>
-  <si>
-    <t>2012-002768-28</t>
-  </si>
-  <si>
-    <t>2012-002123-15</t>
+    <t>2019-001966-14</t>
+  </si>
+  <si>
+    <t>2019-000277-23</t>
+  </si>
+  <si>
+    <t>2014-003544-12</t>
+  </si>
+  <si>
+    <t>2019-001022-95</t>
+  </si>
+  <si>
+    <t>2017-000731-14</t>
+  </si>
+  <si>
+    <t>2018-003565-33</t>
+  </si>
+  <si>
+    <t>2021-005401-28</t>
+  </si>
+  <si>
+    <t>2019-002824-34</t>
+  </si>
+  <si>
+    <t>2021-005326-23</t>
   </si>
   <si>
     <t>2015-005601-37</t>
@@ -739,6 +847,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Corticosteroids and Cataracts : Prospective Study of the Impact of Systemic Corticosteroid Therapy on Lens Transparency Evaluated by Scheimpflug Photography and Quantification of Lens Autofluorescence.</t>
   </si>
   <si>
@@ -754,15 +865,15 @@
     <t>Tramadol and Pain Sensitization</t>
   </si>
   <si>
+    <t>Impact of Oral Magnesium on Neuropathic Pain</t>
+  </si>
+  <si>
     <t>Effects of Perioperative Systemic Ketamine on Development of Long-term Neuropathic Pain After Thoracotomy.</t>
   </si>
   <si>
     <t>Evaluation of the Interaction of Rimonabant (Antagonist of CB1 Receptor) on the Analgesic Effect of Paracetamol in Intravenous Administration</t>
   </si>
   <si>
-    <t>Impact of Oral Magnesium on Neuropathic Pain</t>
-  </si>
-  <si>
     <t>Prediction of Left Ventricular Remodelling in Patients Treated by Angioplasty in the Acute of Phase of a First Myocardial Infarction by Low-Dose Dobutamine Tc-99m-Mibi Gated SPECT</t>
   </si>
   <si>
@@ -775,37 +886,46 @@
     <t>Effect of Paracetamol on the Status in Glutathione for the Aged Person</t>
   </si>
   <si>
+    <t>Evaluation of the Forecasts Parameters of Real Time Three-dimensional Doppler Echocardiography in Selecting Patients With Chronic Heart Failure for Cardiac Resynchronisation Therapy</t>
+  </si>
+  <si>
+    <t>Effect of the Antioxidant Micronutrients of Rapeseed Oil on the Prevention of Cardiovascular Diseases</t>
+  </si>
+  <si>
+    <t>Non Invasive Pressure Support Ventilation (NIPPV) Versus Conventionnal Approach and Early Recruitment Maneuver (RM) for Preoxygenation of Morbidly Obese Patient</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic of Sevoflurane During a 48h Sedation in ICU With AnaConDa®</t>
+  </si>
+  <si>
+    <t>Recruitment Maneuver Increases Oxygenation After Intubation in Hypoxemic ICU Patients: a Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Facial Expression Recognition of Emotion and Categorization of Emotional Words in Parkinson's Disease. Impact of L-Dopa and Deep Brain Stimulation of Subthalamic Nucleus .</t>
+  </si>
+  <si>
+    <t>Interest of Néfopam in the Treatment of Pain During the Intense Ureteral Calculi Uncomplicated in Adults in Emergencies Unit.</t>
+  </si>
+  <si>
     <t>National, Multicenter, Prospective Study of Screening of Fabry Disease in a Population of Men Over 28 Days Old and Less Than 55 Years, Hospitalized for an Ischemic Stroke.</t>
   </si>
   <si>
-    <t>Evaluation of the Forecasts Parameters of Real Time Three-dimensional Doppler Echocardiography in Selecting Patients With Chronic Heart Failure for Cardiac Resynchronisation Therapy</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic of Sevoflurane During a 48h Sedation in ICU With AnaConDa®</t>
-  </si>
-  <si>
-    <t>Non Invasive Pressure Support Ventilation (NIPPV) Versus Conventionnal Approach and Early Recruitment Maneuver (RM) for Preoxygenation of Morbidly Obese Patient</t>
-  </si>
-  <si>
-    <t>Interest of Néfopam in the Treatment of Pain During the Intense Ureteral Calculi Uncomplicated in Adults in Emergencies Unit.</t>
-  </si>
-  <si>
-    <t>Effect of the Antioxidant Micronutrients of Rapeseed Oil on the Prevention of Cardiovascular Diseases</t>
-  </si>
-  <si>
-    <t>Recruitment Maneuver Increases Oxygenation After Intubation in Hypoxemic ICU Patients: a Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Facial Expression Recognition of Emotion and Categorization of Emotional Words in Parkinson's Disease. Impact of L-Dopa and Deep Brain Stimulation of Subthalamic Nucleus .</t>
-  </si>
-  <si>
     <t>Postoperative Analgesia After Cardiac Surgery: Effects of a Continuous Infusion of Ropivacaine Through Laterosternal Catheters</t>
   </si>
   <si>
+    <t>Placebo Effect of Paracetamol in Healthy Volunteers</t>
+  </si>
+  <si>
     <t>Effects of a Systematic Addition of Clonidine in the Local Anaesthetic and Opiate Solution for Epidural Patient Controlled Analgesia in Labour (Levobupivacaine 0.568 mg.mLl-1 + Sufentanil 0.45 µg.mL-1)</t>
   </si>
   <si>
-    <t>Placebo Effect of Paracetamol in Healthy Volunteers</t>
+    <t>MESURE ET COMPARAISON DES CONCENTRATIONS PLASMATIQUES ARTERIELLES ET VEINEUSES DE PROPOFOL CHEZ DES PATIENTS DE REANIMATION SOUS SEDATION PAR LE SYSTEME AIVOC.</t>
+  </si>
+  <si>
+    <t>Study of Integrity of Down Inhibitor Bundle at Patients Suffering of Neuropathic Pain</t>
+  </si>
+  <si>
+    <t>Effect of Enteral Immunonutrition During Chemoradiotherapy in Patients With Head and Neck Cancer or Esophageal Cancer</t>
   </si>
   <si>
     <t>Scan Evaluation at 9 Years of the Bone Acetabular Supporting Cups Without Cement (Couple Metal/Metal in Diameter 28 mm)</t>
@@ -814,383 +934,403 @@
     <t>Pharmacodynamic Study of 125 mg of Paracetamol Permucosal Administered by Sublingual and Buccal Route</t>
   </si>
   <si>
-    <t>Study of Integrity of Down Inhibitor Bundle at Patients Suffering of Neuropathic Pain</t>
+    <t>Role of Combined Intervention of Physical Activity and Nutrition in Metabolic Syndrome Treatment on Cardio-vascular Risk and Muscular- Skeletal Functions in Human Subject. Analysis of Patient's Compliance in Patient's Follow-up.</t>
+  </si>
+  <si>
+    <t>Optimization of fMRI for the Study of Basal Ganglia Activation in Parkinson's Disease: T2* Measurement in the Cortex and the Basal Ganglia</t>
+  </si>
+  <si>
+    <t>Comparison of Sufentanil and Remifentanil Infusion During General Anaesthesia for Removal of Wisdom Teeth in Ambulatory Surgery</t>
+  </si>
+  <si>
+    <t>Comparison of Biomarkers of Stress in Emergency Physicians Working a 24-hour Shift or a 14-hour Night Shift - the JOBSTRESS Randomized Trial</t>
   </si>
   <si>
     <t>Effects of a Long-term and Regular Grapefruit Juice Consumption on Vascular Protection and Bone Metabolism : a Cross-over Designed Study to Determine the Specific Role of Naringin</t>
   </si>
   <si>
-    <t>Role of Combined Intervention of Physical Activity and Nutrition in Metabolic Syndrome Treatment on Cardio-vascular Risk and Muscular- Skeletal Functions in Human Subject. Analysis of Patient's Compliance in Patient's Follow-up.</t>
-  </si>
-  <si>
     <t>Mobilization by Plerixafor of Haematopoietic Stem Cells in Children</t>
   </si>
   <si>
-    <t>Comparison of Sufentanil and Remifentanil Infusion During General Anaesthesia for Removal of Wisdom Teeth in Ambulatory Surgery</t>
-  </si>
-  <si>
-    <t>Optimization of fMRI for the Study of Basal Ganglia Activation in Parkinson's Disease: T2* Measurement in the Cortex and the Basal Ganglia</t>
-  </si>
-  <si>
-    <t>Comparison of Biomarkers of Stress in Emergency Physicians Working a 24-hour Shift or a 14-hour Night Shift - the JOBSTRESS Randomized Trial</t>
-  </si>
-  <si>
     <t>Comparative Study of the Influence of Two Antagonist Receptors 5-HT3, tropisétron and granisétron, on the Analgesic Effect of Paracétamol</t>
   </si>
   <si>
-    <t>Effect of Enteral Immunonutrition During Chemoradiotherapy in Patients With Head and Neck Cancer or Esophageal Cancer</t>
+    <t>Diagnostic Value of Copeptin Assay for Acute Coronary Syndrome Without ST-segment Elevation</t>
   </si>
   <si>
     <t>Effect of the Injection of Local Analgesia With Epinephrine During Total Hip Arthroplasty on the Blood Losses Per and Operatively.</t>
   </si>
   <si>
+    <t>Intraoperative Lung Protective Ventilation in Abdominal Surgery: A Randomized Controlled Study</t>
+  </si>
+  <si>
     <t>Evaluation of Nutritional Status in ICU : Interest for the Measurement of Body Composition by Body Bioelectrical Impedance and Comparison With Several Methods</t>
   </si>
   <si>
-    <t>Intraoperative Lung Protective Ventilation in Abdominal Surgery: A Randomized Controlled Study</t>
-  </si>
-  <si>
     <t>Effects of Curcumin Loading Dose on Vascular Reactivity of Healthy Middle-aged Smokers</t>
   </si>
   <si>
+    <t>Validation of a New Non Invasive Method for Intracranial Pressure Monitoring</t>
+  </si>
+  <si>
+    <t>Visualisation of the Central Analgesic Effect of Paracetamol in Functional MRI</t>
+  </si>
+  <si>
     <t>Use of Ketamine Associate With an Opioid for Sedation in ICU : a Randomized Controlled Double Blind Study</t>
   </si>
   <si>
-    <t>Diagnostic Value of Copeptin Assay for Acute Coronary Syndrome Without ST-segment Elevation</t>
+    <t>Calorimetry, Insulin Resistance and Energy Metabolism Study to Understand the Risk of Obesity in Kidney Transplanted Patients</t>
   </si>
   <si>
     <t>Neurally Adjusted Ventilatory Assist (NAVA) in NonInvasive Ventilation (NIV)</t>
   </si>
   <si>
-    <t>Calorimetry, Insulin Resistance and Energy Metabolism Study to Understand the Risk of Obesity in Kidney Transplanted Patients</t>
-  </si>
-  <si>
-    <t>Visualisation of the Central Analgesic Effect of Paracetamol in Functional MRI</t>
-  </si>
-  <si>
-    <t>Validation of a New Non Invasive Method for Intracranial Pressure Monitoring</t>
+    <t>VertebrOpLasty Versus Conservative Treatment in Acute Non Osteoporotic Vertebral Fractures</t>
+  </si>
+  <si>
+    <t>Preventing the Development of Neuropathic Pain Post-mastectomy/Tumorectomy by Pre-emptive or Post-operative Memantine Administration</t>
+  </si>
+  <si>
+    <t>Effets potentiels d’une supplémentation en oméga 3 sur la membrane des cardiomyocytes de patients atteints d’athérosclérose coronaire ?</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety Study of Short Term Antibiotic During Seven Days With Ceftriaxone Intravenous the First Day Then Cefixime the Second Day Till the Seventh Day of Acute Uncomplicated Pyelonephritis in Women Between 18 and 65 Years Old</t>
+  </si>
+  <si>
+    <t>Comparative Study of the Bioavailability of Magnesium Administrated by Two ChronoMag Smart Tablet® 50 mg Versus Three Mag2® Tablets 100mg.</t>
+  </si>
+  <si>
+    <t>Effects Of A Recruitment Maneuver On Plasma Levels of sRAGE, The Soluble Form of The Receptor For Advanced Glycation End Products, In Patients With Diffuse Acute Respiratory Distress Syndrome (ARDS)</t>
+  </si>
+  <si>
+    <t>Effect of Deep Brain Stimulation on Gait of Patients With Parkinson's Disease Depending on Electrode Location in Subthalamic Area.</t>
+  </si>
+  <si>
+    <t>Effects of Galantamine and Donépézil on the Amount and the Quality oh the Sleep in Patients Suffering From Alzheimer Disease.</t>
+  </si>
+  <si>
+    <t>Evaluation of Indices of Body Composition During Ultramarathon : Measure by Body Bioelectrical Impedance</t>
+  </si>
+  <si>
+    <t>Efficacy of Surgical Coronary Revascularization Associated With Stem Cells Injection in Patients With Severe Chronic Ischemic Heart Disease With Residual Viability. A Prospective, Controlled Pilot Trial.</t>
   </si>
   <si>
     <t>Paracétamol and Pharmacogenetic in Healthy Volunteers</t>
   </si>
   <si>
+    <t>Clinical Study Comparing the Efficacy of Transbuccal Paracetamol 125 mg Versus Paracetamol Injection 1g in Slow Infusion IV in Patients With Acute Pain</t>
+  </si>
+  <si>
+    <t>Comparison of the Ultra-low-dose Veo Algorithm With the Gold Standard Filtered Back Projection for Detecting Pulmonary Asbestos-related Conditions</t>
+  </si>
+  <si>
+    <t>Histopathologic Evaluation of High Grade Brain Tumors by High Order Diffusion Tensor Imaging: Peritumoral Glial Cell Infiltration Quantitative Method</t>
+  </si>
+  <si>
+    <t>Role of Mesocorticolimbic Pathway in Apathy of Patients With Parkinson's Disease. - Study Using Diffusion Tensor Imaging and Fibres Tracking</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Ethanol Lock Solution in Prevention of Catheter Related Bloodstream Infection for Patients Suffering Acute Renal Failure, and Hospitalized in Intensive Care Unit. A Multi-Center, Randomized, Versus Placebo, Double Blinded Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Compared Efficacy and Tolerance of Two Vasopressors Used to Treat Preoperative Hypotension During Carotid Surgery. Prospective Randomised Controlled and Single Centre Trial</t>
+  </si>
+  <si>
     <t>Locking Plate Versus Pins for Surgical Treatment of Posteriorly Tilted Distal Radius Fracture</t>
   </si>
   <si>
-    <t>Effect of Deep Brain Stimulation on Gait of Patients With Parkinson's Disease Depending on Electrode Location in Subthalamic Area.</t>
-  </si>
-  <si>
-    <t>Clinical Study Comparing the Efficacy of Transbuccal Paracetamol 125 mg Versus Paracetamol Injection 1g in Slow Infusion IV in Patients With Acute Pain</t>
-  </si>
-  <si>
-    <t>Preventing the Development of Neuropathic Pain Post-mastectomy/Tumorectomy by Pre-emptive or Post-operative Memantine Administration</t>
-  </si>
-  <si>
-    <t>Comparative Study of the Bioavailability of Magnesium Administrated by Two ChronoMag Smart Tablet® 50 mg Versus Three Mag2® Tablets 100mg.</t>
-  </si>
-  <si>
-    <t>Comparison of the Ultra-low-dose Veo Algorithm With the Gold Standard Filtered Back Projection for Detecting Pulmonary Asbestos-related Conditions</t>
-  </si>
-  <si>
-    <t>Efficacy of Surgical Coronary Revascularization Associated With Stem Cells Injection in Patients With Severe Chronic Ischemic Heart Disease With Residual Viability. A Prospective, Controlled Pilot Trial.</t>
-  </si>
-  <si>
-    <t>Role of Mesocorticolimbic Pathway in Apathy of Patients With Parkinson's Disease. - Study Using Diffusion Tensor Imaging and Fibres Tracking</t>
-  </si>
-  <si>
-    <t>VertebrOpLasty Versus Conservative Treatment in Acute Non Osteoporotic Vertebral Fractures</t>
-  </si>
-  <si>
-    <t>Histopathologic Evaluation of High Grade Brain Tumors by High Order Diffusion Tensor Imaging: Peritumoral Glial Cell Infiltration Quantitative Method</t>
-  </si>
-  <si>
     <t>Respiratory Mechanical Effects of Sevoflurane Administered With the Anesthetic Conserving Device in Pressure Support Ventilation</t>
   </si>
   <si>
-    <t>Effects of Galantamine and Donépézil on the Amount and the Quality oh the Sleep in Patients Suffering From Alzheimer Disease.</t>
-  </si>
-  <si>
-    <t>Effets potentiels d’une supplémentation en oméga 3 sur la membrane des cardiomyocytes de patients atteints d’athérosclérose coronaire ?</t>
-  </si>
-  <si>
-    <t>Effects Of A Recruitment Maneuver On Plasma Levels of sRAGE, The Soluble Form of The Receptor For Advanced Glycation End Products, In Patients With Diffuse Acute Respiratory Distress Syndrome (ARDS)</t>
-  </si>
-  <si>
-    <t>Evaluation of Indices of Body Composition During Ultramarathon : Measure by Body Bioelectrical Impedance</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety Study of Short Term Antibiotic During Seven Days With Ceftriaxone Intravenous the First Day Then Cefixime the Second Day Till the Seventh Day of Acute Uncomplicated Pyelonephritis in Women Between 18 and 65 Years Old</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Ethanol Lock Solution in Prevention of Catheter Related Bloodstream Infection for Patients Suffering Acute Renal Failure, and Hospitalized in Intensive Care Unit. A Multi-Center, Randomized, Versus Placebo, Double Blinded Clinical Trial.</t>
-  </si>
-  <si>
-    <t>Compared Efficacy and Tolerance of Two Vasopressors Used to Treat Preoperative Hypotension During Carotid Surgery. Prospective Randomised Controlled and Single Centre Trial</t>
+    <t>Is There a Benefit to Optimize HF (Heart Failure) Treatment in Aged Over 80 Year's Old Patients?</t>
+  </si>
+  <si>
+    <t>A Pharmacokinetic Drug Interaction and Tolerance Study of Paracetamol and Nefopam</t>
+  </si>
+  <si>
+    <t>Evaluation of Richmond Agitation Sedation Scale According to Alveolar Concentration of Sevoflurane During a Sedation With Sevoflurane in ICU Patients</t>
+  </si>
+  <si>
+    <t>Tracheostomy and Weaning From Mechanical Ventilation : Evaluation of the Lung Ultrasound Score</t>
   </si>
   <si>
     <t>Post EVAR Endoleak Detection : Model-based Iterative Reconstruction (MBIR) vs Adaptive Statistical Iterative Reconstruction (ASIR) CTA; a Prospective Study</t>
   </si>
   <si>
+    <t>Model-based Iterative Reconstruction (MB-IR VEOTM) in Ultra Low-dose Abdominal CT Versus Adaptative Statistical Iterative Reconstruction (ASIR): A Prospective Study for Acute Renal Colic</t>
+  </si>
+  <si>
+    <t>ACETAMINOPHEN ANTINOCICEPTIVE EFFECT WHEN ASSOCIATED WITH N-ACETYLCYSTENEINE</t>
+  </si>
+  <si>
     <t>Effects of Decrease in Cholesterol Levels Induced by a Statin on Sperm Quality</t>
   </si>
   <si>
-    <t>Model-based Iterative Reconstruction (MB-IR VEOTM) in Ultra Low-dose Abdominal CT Versus Adaptative Statistical Iterative Reconstruction (ASIR): A Prospective Study for Acute Renal Colic</t>
-  </si>
-  <si>
-    <t>Tracheostomy and Weaning From Mechanical Ventilation : Evaluation of the Lung Ultrasound Score</t>
-  </si>
-  <si>
-    <t>A Pharmacokinetic Drug Interaction and Tolerance Study of Paracetamol and Nefopam</t>
-  </si>
-  <si>
-    <t>ACETAMINOPHEN ANTINOCICEPTIVE EFFECT WHEN ASSOCIATED WITH N-ACETYLCYSTENEINE</t>
-  </si>
-  <si>
-    <t>Is There a Benefit to Optimize HF (Heart Failure) Treatment in Aged Over 80 Year's Old Patients?</t>
-  </si>
-  <si>
-    <t>Evaluation of Richmond Agitation Sedation Scale According to Alveolar Concentration of Sevoflurane During a Sedation With Sevoflurane in ICU Patients</t>
+    <t>Physical Activity and Food Intake Interaction: Effect of Weight Loss in Obese Adolescent</t>
   </si>
   <si>
     <t>Active Prevention of MSDs (Musculoskeletal Disorders, Upper and Spine Members) in the Context of Computer Screen Work</t>
   </si>
   <si>
-    <t>Physical Activity and Food Intake Interaction: Effect of Weight Loss in Obese Adolescent</t>
+    <t>Early Nasal High Flow Oxygen Therapy for Prevention of Postoperative Hypoxemia After Abdominal Surgery: A Multicenter Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Protein Need and Interest of " Quick Proteins " to the Obese Subject Operated by Bariatric Surgery (BIBOP)</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic Study of 48-hour Sevoflurane Inhalation Using a Disposable Delivery System (AnaConDa©) in Obese ICU Patients</t>
+  </si>
+  <si>
+    <t>Prevention of Oxaliplatin-induced Neuropathic Pain by a Specific Diet</t>
   </si>
   <si>
     <t>SUBclavian Central Venous Catheters Guidance and Examination by UltraSound : a Randomized Controlled Study Versus Landmark Method</t>
   </si>
   <si>
-    <t>Protein Need and Interest of " Quick Proteins " to the Obese Subject Operated by Bariatric Surgery (BIBOP)</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic Study of 48-hour Sevoflurane Inhalation Using a Disposable Delivery System (AnaConDa©) in Obese ICU Patients</t>
-  </si>
-  <si>
-    <t>Prevention of Oxaliplatin-induced Neuropathic Pain by a Specific Diet</t>
+    <t>Postoperative Rehabilitation After Cardiac Surgery in Patients at Risk of Respiratory Complications. Effects of a Continuous Bi-laterosternal Infusion of Ropivacaine Through Multihole Catheters.</t>
   </si>
   <si>
     <t>A Pharmacokinetic Study of Sevoflurane Inhalation in Burn ICU Patients</t>
   </si>
   <si>
-    <t>Early Nasal High Flow Oxygen Therapy for Prevention of Postoperative Hypoxemia After Abdominal Surgery: A Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Postoperative Rehabilitation After Cardiac Surgery in Patients at Risk of Respiratory Complications. Effects of a Continuous Bi-laterosternal Infusion of Ropivacaine Through Multihole Catheters.</t>
+    <t>Validation of the Dynamometer LABIN</t>
+  </si>
+  <si>
+    <t>Evaluation of Cognitive Disability and Quality of Life of Patients Suffering From Multiple Scleroses and Treat With Immunosuppressant</t>
+  </si>
+  <si>
+    <t>Evaluation of Metamemory in Patients With Schizophrenia</t>
+  </si>
+  <si>
+    <t>Dextromethorphan Effect on Central Sensitization to Pain in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Study of Conscious Behavior Under Low-frequency Deep Brain Stimulation in Chronic and Severe Post-coma Disorders of Consciousness</t>
+  </si>
+  <si>
+    <t>Preload Dependency Evaluation With Stroke Volume Variation During Alveolar Recruitment Manoeuvres</t>
+  </si>
+  <si>
+    <t>Evaluation of the Persistence in 2016 of Vaccinal Immunity Against Meningococcus C Among Children and Teenagers Who Received Meningococcus C Conjugate Vaccine in January 2002 During the Puy-de-Dôme Campaign and of Natural Immunity Among Unvaccinated People</t>
   </si>
   <si>
     <t>Effectiveness of Noradrenaline to Control Intraoperative Arterial Pressure in High-risk Surgical Patients: A Multicentre Prospective Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Evaluation of Cognitive Disability and Quality of Life of Patients Suffering From Multiple Scleroses and Treat With Immunosuppressant</t>
-  </si>
-  <si>
-    <t>Preload Dependency Evaluation With Stroke Volume Variation During Alveolar Recruitment Manoeuvres</t>
-  </si>
-  <si>
-    <t>Study of Conscious Behavior Under Low-frequency Deep Brain Stimulation in Chronic and Severe Post-coma Disorders of Consciousness</t>
+    <t>A Single-blind, Randomized Study to Compare Impacts of Intraperitoneal Pressure (8mmHg Versus 12 mmHg) and CO2 Gas (Cool, Dry CO2 Gas Versus Warmed; Humidified Co2 Gas) on Surgical Peritoneal Environment During Laparoscopic Surgery</t>
   </si>
   <si>
     <t>Antagonists NMDA in Relay to Ketamine in Neuropathic Pain</t>
   </si>
   <si>
-    <t>Evaluation of Metamemory in Patients With Schizophrenia</t>
-  </si>
-  <si>
-    <t>A Single-blind, Randomized Study to Compare Impacts of Intraperitoneal Pressure (8mmHg Versus 12 mmHg) and CO2 Gas (Cool, Dry CO2 Gas Versus Warmed; Humidified Co2 Gas) on Surgical Peritoneal Environment During Laparoscopic Surgery</t>
-  </si>
-  <si>
-    <t>Evaluation of the Persistence in 2016 of Vaccinal Immunity Against Meningococcus C Among Children and Teenagers Who Received Meningococcus C Conjugate Vaccine in January 2002 During the Puy-de-Dôme Campaign and of Natural Immunity Among Unvaccinated People</t>
-  </si>
-  <si>
-    <t>Validation of the Dynamometer LABIN</t>
+    <t>Interest of a Bi-truncal Nerve Block (Femoral + Sciatic) Extended, Systematically Associated With General Anesthesia, in the Femoropopliteal Bypass: Study of Post-operative Analgesia and Peripheral Circulation Downstream.</t>
+  </si>
+  <si>
+    <t>Feasibility Study of the Quantification of Glutathione Concentrations in Muscle and Liver Using in Vivo Proton Magnetic Resonance Spectroscopy (1H MRS)in Human</t>
+  </si>
+  <si>
+    <t>Effect of PEEP and Trendelenburg on Ultrasound Size of Internal Jugular and Subclavian Veins: A Cross-over Randomized Controlled Study</t>
   </si>
   <si>
     <t>Effect of Early 48-hour Sevoflurane Inhalation on Gas Exchange and Inflammation in Patients Presenting With Acute Respiratory Distress Syndrome (ARDS) : a Monocentric, Prospective, Randomized Study.</t>
   </si>
   <si>
-    <t>Effect of PEEP and Trendelenburg on Ultrasound Size of Internal Jugular and Subclavian Veins: A Cross-over Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Dextromethorphan Effect on Central Sensitization to Pain in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Feasibility Study of the Quantification of Glutathione Concentrations in Muscle and Liver Using in Vivo Proton Magnetic Resonance Spectroscopy (1H MRS)in Human</t>
-  </si>
-  <si>
-    <t>Interest of a Bi-truncal Nerve Block (Femoral + Sciatic) Extended, Systematically Associated With General Anesthesia, in the Femoropopliteal Bypass: Study of Post-operative Analgesia and Peripheral Circulation Downstream.</t>
+    <t>Perineural Versus Systemic Dexamethasone to Prolong Regional Anesthesia in Front Foot Surgery</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Bioimpedance Analysis in Patients With Cardiac Implantable Electronic Devices</t>
+  </si>
+  <si>
+    <t>Co-analgesic Effects of Dexamethasone and Pregabalin After Lumbar Slipped Disc Surgery</t>
+  </si>
+  <si>
+    <t>Post Myocardial Infarction's Rehabilitation Guided by Heart Rate Variability</t>
   </si>
   <si>
     <t>Exploration of the Reward System by Functional MRI in Parkinson's Disease Patients With and Without REM Sleep Behavior Disorder</t>
   </si>
   <si>
+    <t>Effect of the Type of Maternal Pushing During the Second Stage of Labor on Obstetric and Neonatal Outcome: a Multicenter Randomized Trial</t>
+  </si>
+  <si>
     <t>Development of Endothelial Biomarkers for Use in Cohort Studies. Comparison With Reference Biomarkers.</t>
   </si>
   <si>
-    <t>Co-analgesic Effects of Dexamethasone and Pregabalin After Lumbar Slipped Disc Surgery</t>
-  </si>
-  <si>
-    <t>Perineural Versus Systemic Dexamethasone to Prolong Regional Anesthesia in Front Foot Surgery</t>
+    <t>Perception of Pain During Obstructive Sleep Apnea Syndrome in Obese Patient</t>
+  </si>
+  <si>
+    <t>Impact of 5% Lidocaine Medicated Plaster on Allodynic Symptoms of Localized Neuropathic Pain After Knee Surgery</t>
+  </si>
+  <si>
+    <t>Assessment of the Effectiveness of Ethosuximide in the Treatment of Peripheral Neuropathic Pain.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of Self Management Program on Changes in Physical Activity Level of Knee Osteoarthritis Patients in Spa Therapy</t>
   </si>
   <si>
     <t>Psychological Evaluation According Colonic Colonization by Escherichia Coli of Patients After Colorectal Surgery</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of Bioimpedance Analysis in Patients With Cardiac Implantable Electronic Devices</t>
-  </si>
-  <si>
-    <t>Post Myocardial Infarction's Rehabilitation Guided by Heart Rate Variability</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of Self Management Program on Changes in Physical Activity Level of Knee Osteoarthritis Patients in Spa Therapy</t>
-  </si>
-  <si>
-    <t>Perception of Pain During Obstructive Sleep Apnea Syndrome in Obese Patient</t>
-  </si>
-  <si>
-    <t>Assessment of the Effectiveness of Ethosuximide in the Treatment of Peripheral Neuropathic Pain.</t>
-  </si>
-  <si>
-    <t>Impact of 5% Lidocaine Medicated Plaster on Allodynic Symptoms of Localized Neuropathic Pain After Knee Surgery</t>
-  </si>
-  <si>
-    <t>Effect of the Type of Maternal Pushing During the Second Stage of Labor on Obstetric and Neonatal Outcome: a Multicenter Randomized Trial</t>
-  </si>
-  <si>
     <t>Validation of the French Version of the Pain Sensitivity Questionnaire</t>
   </si>
   <si>
+    <t>Controlled, Randomized, Double Blind Study, Comparing Curcumin to Thiopurines in the Prevention of Post-op Recurrence in Crohn Disease</t>
+  </si>
+  <si>
     <t>Hemostasis Evolution During Fluid Loading in Abdominal Surgery. Effects of Fluid Choice: Saline Versus Hydroxyethyl Starch (HAEMO Study, an Ancillary Study of FLASH Trial)</t>
   </si>
   <si>
+    <t>Role of Inflammation in Psychiatric Disorders in Patients With Cutaneous Lupus</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of Pulsatile Cuts Stendo3 on Vascular Function Patients With Diabetes Type 2</t>
+  </si>
+  <si>
+    <t>Treatment Strategy in Patients With High-risk of Postextubation Distress in ICU Based on a Lung Ultrasound Score Versus Standard Strategy</t>
+  </si>
+  <si>
+    <t>Gluten Sensibility in Elite Athletes</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of Isokinetic Muscular Strengthening in Eccentric Mode in the Medical Treatment of Knee Osteoarthritis.</t>
+  </si>
+  <si>
     <t>CEPPPIA Pilot. Experimental Center of Participative and Individualized Predictive Prevention in Auvergne</t>
   </si>
   <si>
-    <t>Assessing the Impact of Isokinetic Muscular Strengthening in Eccentric Mode in the Medical Treatment of Knee Osteoarthritis.</t>
-  </si>
-  <si>
-    <t>Treatment Strategy in Patients With High-risk of Postextubation Distress in ICU Based on a Lung Ultrasound Score Versus Standard Strategy</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Pulsatile Cuts Stendo3 on Vascular Function Patients With Diabetes Type 2</t>
-  </si>
-  <si>
     <t>Effects of Polyphenols on Iron Absorption in Iron Overload Disorders.</t>
   </si>
   <si>
-    <t>Gluten Sensibility in Elite Athletes</t>
-  </si>
-  <si>
     <t>Mechanisms of Body Weight Gain in Patients With Parkinson's Disease After Subthalamic Stimulation</t>
   </si>
   <si>
+    <t>Lung Imaging for Ventilatory Setting in ARDS</t>
+  </si>
+  <si>
     <t>Fluid Loading in Abdominal Surgery: Saline Versus Hydroxyethyl Starch: A Double-blinded Multicenter Prospective Randomized Trial (FLASH Study)</t>
   </si>
   <si>
-    <t>Lung Imaging for Ventilatory Setting in ARDS</t>
-  </si>
-  <si>
-    <t>Role of Inflammation in Psychiatric Disorders in Patients With Cutaneous Lupus</t>
-  </si>
-  <si>
-    <t>Controlled, Randomized, Double Blind Study, Comparing Curcumin to Thiopurines in the Prevention of Post-op Recurrence in Crohn Disease</t>
+    <t>A Phase 3, Global, Multicenter, Open-Label Study to Investigate the Efficacy of Elbasvir/Grazoprevir Fixed-Dose Combination for 8 Weeks in Treatment-Naïve, HCV GT1b-Infected Patients, With Non-severe Fibrosis</t>
   </si>
   <si>
     <t>Effect of the Exercise-meal Timing on Energy Intake and Appetite in Adolescents With Obesity: the TIMEX 2 Study</t>
   </si>
   <si>
+    <t>Effectiveness of Two Techniques in Injection Site Spotting for Botulinum Toxin Injections: Echography or Electro Stimulation.</t>
+  </si>
+  <si>
+    <t>A MULTICENTER, RANDOMIZED, CONTROLLED STUDY OF EPIDURAL ANALGESIA FOR SEVERE ACUTE PANCREATITIS</t>
+  </si>
+  <si>
+    <t>Does Energy Replacement Modify Post-exercise Energy Intake in Adolescents With Obesity?</t>
+  </si>
+  <si>
+    <t>Does Exercise Timing Modify Post-exercise Energy Intake in Adolescents With Obesity</t>
+  </si>
+  <si>
+    <t>Individualized Goal-directed Sufentanil Administration Versus Standard Therapy in Patients Undergoing Major Abdominal Surgery: A Randomized Controlled Feasibility Trial.</t>
+  </si>
+  <si>
     <t>Cross-cultural Validation in French Language of the Questionnaire EARS Adapted to the Chronic Low Back Pain</t>
   </si>
   <si>
-    <t>Individualized Goal-directed Sufentanil Administration Versus Standard Therapy in Patients Undergoing Major Abdominal Surgery: A Randomized Controlled Feasibility Trial.</t>
-  </si>
-  <si>
-    <t>A Phase 3, Global, Multicenter, Open-Label Study to Investigate the Efficacy of Elbasvir/Grazoprevir Fixed-Dose Combination for 8 Weeks in Treatment-Naïve, HCV GT1b-Infected Patients, With Non-severe Fibrosis</t>
-  </si>
-  <si>
-    <t>Does Exercise Timing Modify Post-exercise Energy Intake in Adolescents With Obesity</t>
-  </si>
-  <si>
-    <t>A MULTICENTER, RANDOMIZED, CONTROLLED STUDY OF EPIDURAL ANALGESIA FOR SEVERE ACUTE PANCREATITIS</t>
-  </si>
-  <si>
-    <t>Does Energy Replacement Modify Post-exercise Energy Intake in Adolescents With Obesity?</t>
-  </si>
-  <si>
-    <t>Effectiveness of Two Techniques in Injection Site Spotting for Botulinum Toxin Injections: Echography or Electro Stimulation.</t>
+    <t>PREVALENCE STUDY OF FIBROMUSCULAR DYSPLASIA IN PATIENTS WITH HAEMATOMA OR SPONTANEOUS CORONARY ARTERY DISSECTION</t>
   </si>
   <si>
     <t>Therapeutic Literacy Evaluation in Liver Transplanted Patients</t>
   </si>
   <si>
-    <t>PREVALENCE STUDY OF FIBROMUSCULAR DYSPLASIA IN PATIENTS WITH HAEMATOMA OR SPONTANEOUS CORONARY ARTERY DISSECTION</t>
-  </si>
-  <si>
-    <t>Evaluation du nalméfène dans les troubles du contrôle des impulsions chez des patients ayant une maladie de Parkinson : une étude thérapeutique prospective ouverte</t>
+    <t>Dry Eye Syndrome Description During Cataract Surgery, With Multimodal Analysis of the Ocular Surface</t>
+  </si>
+  <si>
+    <t>Effect of Magnesium on Stress in Fibromyalgia: Randomized Double-blind Placebo Controlled Trial</t>
+  </si>
+  <si>
+    <t>CHOICE OF SUBJECTIVE OCULAR REFRACTION TECHNIQUE AND CORNEAL TOPOGRAPHY OF KERATOCONUS</t>
+  </si>
+  <si>
+    <t>Intravenous Versus Combined Oral and Intravenous Antimicrobial Prophylaxis for the Prevention of Surgical Site Infection in Elective Colorectal Surgery: A Double-blinded Multicenter Prospective Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Anesthesia Management in Endovascular Therapy for Ischemic Stroke: A Multicenter Randomised Study</t>
   </si>
   <si>
-    <t>Dry Eye Syndrome Description During Cataract Surgery, With Multimodal Analysis of the Ocular Surface</t>
-  </si>
-  <si>
-    <t>Intravenous Versus Combined Oral and Intravenous Antimicrobial Prophylaxis for the Prevention of Surgical Site Infection in Elective Colorectal Surgery: A Double-blinded Multicenter Prospective Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Effect of Argentine Tango Protocol on Total Physical Activity in Patients With Chronic Inflammatory Arthritis</t>
   </si>
   <si>
-    <t>CHOICE OF SUBJECTIVE OCULAR REFRACTION TECHNIQUE AND CORNEAL TOPOGRAPHY OF KERATOCONUS</t>
-  </si>
-  <si>
-    <t>Effect of Magnesium on Stress in Fibromyalgia: Randomized Double-blind Placebo Controlled Trial</t>
+    <t>End-eXpiratory Occlusion Test to Predict fluId REsponsiveness in the Operating Room: Prospective Randomized Clinical Trial Comparing Two Occlusion Tests (EXPIRE)</t>
+  </si>
+  <si>
+    <t>Pilot Study of Active Desk in Primary School : Effects on the Attention, Cognitive Capacities, Physical Capacities, Concentration and Well-being of Student and on the Classroom Climate</t>
+  </si>
+  <si>
+    <t>Exploration by NMR Spectroscopy of the Choline Concentrations in the Insular Cortex of Patients Suffering of Neuropathic Pain Induced by Oxaliplatin</t>
+  </si>
+  <si>
+    <t>Effect of a Dietary Supplement Based on Magnesium, Vitamins, Rhodiola and L-theanine (Stress Resist®), on Stress in Stressed Subjects: Randomized Study Versus Placebo.</t>
+  </si>
+  <si>
+    <t>Intensive Robotic Rehabilitation in Children With Hemiparesia Using GEOSYSTEM</t>
+  </si>
+  <si>
+    <t>Comparison of Intubating Conditions in 25° Head-up Position and Strict Supine</t>
   </si>
   <si>
     <t>Comparison of Plasmatic Concentrations of Propofol and Remifentanil During Monitored Anesthesia in Obese and Non Obese Patients.</t>
   </si>
   <si>
+    <t>Impact of Association of Individual and Group Therapeutic Education Sessions on the Acquisition of Safety Skills by Patients With Chronic Inflammatory Rheumatism (CIR) Treated With Subcutaneous Biotherapy, Compared to Individual Therapeutic Education Sessions Alone</t>
+  </si>
+  <si>
+    <t>Appetite Response to Exercise- Versus Mixed (Exercise + Dietary Restriction)-Induced Energy Deficit in Adolescents With Obesity</t>
+  </si>
+  <si>
     <t>Effect of Tai Chi Protocol on Global Physical Activity in Patients With Spondyloarthitis in Comparison With a Control Group</t>
   </si>
   <si>
-    <t>Exploration by NMR Spectroscopy of the Choline Concentrations in the Insular Cortex of Patients Suffering of Neuropathic Pain Induced by Oxaliplatin</t>
-  </si>
-  <si>
-    <t>End-eXpiratory Occlusion Test to Predict fluId REsponsiveness in the Operating Room: Prospective Randomized Clinical Trial Comparing Two Occlusion Tests (EXPIRE)</t>
-  </si>
-  <si>
-    <t>Evaluation of botulinum toxin injection efficacy in the treatment of head essential tremor by a multi-center, randomized, double–blind, parallel-group, placebo-controlled study 
- Evaluation de l’efficacité d’injections de toxine botulinique dans le traitement du tremblement du chef par une étude multicentrique, randomisée, en double aveugle, en groupe parallèle, contrôlée versus placebo</t>
-  </si>
-  <si>
-    <t>Intensive Robotic Rehabilitation in Children With Hemiparesia Using GEOSYSTEM</t>
-  </si>
-  <si>
-    <t>Effect of a Dietary Supplement Based on Magnesium, Vitamins, Rhodiola and L-theanine (Stress Resist®), on Stress in Stressed Subjects: Randomized Study Versus Placebo.</t>
-  </si>
-  <si>
-    <t>Comparison of Intubating Conditions in 25° Head-up Position and Strict Supine</t>
+    <t>Pulmonary and Ventilatory Effects of Bed Verticalization in Patients With Acute Respiratory Distress Syndrome: An Exploratory and Pathophysiology Study</t>
   </si>
   <si>
     <t>Appetite Response to Exercise- Versus Energy Restriction-induced Energy Deficit in Adolescents With Obesity.</t>
   </si>
   <si>
-    <t>Impact of Association of Individual and Group Therapeutic Education Sessions on the Acquisition of Safety Skills by Patients With Chronic Inflammatory Rheumatism (CIR) Treated With Subcutaneous Biotherapy, Compared to Individual Therapeutic Education Sessions Alone</t>
-  </si>
-  <si>
-    <t>Pulmonary and Ventilatory Effects of Bed Verticalization in Patients With Acute Respiratory Distress Syndrome: An Exploratory and Pathophysiology Study</t>
-  </si>
-  <si>
     <t>The Effect of Continuous Administration of Ropivacaine by Bi-laterosternal Multiperforated Catheters Placed Before a Sternotomy for Cardiac Surgery</t>
   </si>
   <si>
-    <t>Appetite Response to Exercise- Versus Mixed (Exercise + Dietary Restriction)-Induced Energy Deficit in Adolescents With Obesity</t>
-  </si>
-  <si>
     <t>Food Matrices Based on Fruit Pastes as Vectors of Carbohydrates for the Prevention and Management of Protein-energy Undernutrition in the Elderly: Proof of Clinical Concept</t>
   </si>
   <si>
-    <t>Pilot Study of Active Desk in Primary School : Effects on the Attention, Cognitive Capacities, Physical Capacities, Concentration and Well-being of Student and on the Classroom Climate</t>
+    <t>Estimation of the Precision of the Icare200 in the Measurement of Intraocular Pressure in Comparison to the Gold Standard : Goldmann Applanation Tonometer</t>
+  </si>
+  <si>
+    <t>Cardiac Output Response to Vasopressin Infusion In Abdominal Surgery Patients Under Mechanical Ventilation: A Clinical Pharmacodynamics Study</t>
+  </si>
+  <si>
+    <t>Evaluation of Botulinum Toxin Injection Efficacy in the Treatment of Head Essential Tremor by a Multi-center, Randomized, Double-Blind, Parallel-group, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Comparison of the Use of Conventional Ancillary Reaming and Single-use Ancillary Reaming Material in Total Hip Replacement</t>
+  </si>
+  <si>
+    <t>Immediate Effect of Hamstring Stretching in Patients With Chronic Low Back Pain</t>
+  </si>
+  <si>
+    <t>Morphological Parameters of In-stent RESTenosis Assessed and Identified by OCT</t>
+  </si>
+  <si>
+    <t>Validation of the Relationship Between Oxygenation Parameters and the Oxygen Reserve Index (ORI™), in Mechanically Ventilated ICU Patients: An Exploratory Pathophysiology Study</t>
+  </si>
+  <si>
+    <t>Towards the Use of Instrumented Tests for Screening the Risk of Falling in Patients With Chronic Illness.</t>
+  </si>
+  <si>
+    <t>Sampling of Human Microbiota in Order to Test, on a Mouse Model, Individualized Intervention Strategies During Aging</t>
+  </si>
+  <si>
+    <t>Nutritional Transitions to More Plant Proteins and Less Animal Proteins: Understanding the Induced Metabolic Reorientations and Searching for Their Biomarkers</t>
+  </si>
+  <si>
+    <t>Intraoperative Protective Mechanical Ventilation in Patients Requiring Emergency Abdominal Surgery: IMPROVE-2 Multicenter Prospective Randomized Trial</t>
   </si>
   <si>
     <t>Fitness Assessment in Young Adults Recovered From Lymphoma or Hodgkin's Disease</t>
@@ -1199,148 +1339,118 @@
     <t>Analysis of the Postprandial Effects of a Vegetable Protein Mixture Rich in Arginine, Cysteine and Leucine on Endothelial Dysfunction and Inflammation at Low Noise in Elderly People With Cardiometabolic Risk</t>
   </si>
   <si>
-    <t>Estimation of the Precision of the Icare200 in the Measurement of Intraocular Pressure in Comparison to the Gold Standard : Goldmann Applanation Tonometer</t>
-  </si>
-  <si>
-    <t>Validation of the Relationship Between Oxygenation Parameters and the Oxygen Reserve Index (ORI™), in Mechanically Ventilated ICU Patients: An Exploratory Pathophysiology Study</t>
+    <t>Genetic Characteristics and Determinants of Central Sensitization of Nociception in Fibromylagic Syndrome</t>
+  </si>
+  <si>
+    <t>Interventional Study Assessing Evaluation of the Interest of Serum S100B Protein Determination in the Management of Pediatric Mild Traumatic Brain Injury</t>
+  </si>
+  <si>
+    <t>Analgesic Effect of Bilateral Erector Spinae Plane Block With Ropivacaine After Sternotomy in Cardiac Surgery</t>
   </si>
   <si>
     <t>Comparison of Hemodynamic Effects of Two Modalities of Alveolar Recruitment Maneuvers in Major Abdominal Surgery Patients: A Physiological Study</t>
   </si>
   <si>
-    <t>Nutritional Transitions to More Plant Proteins and Less Animal Proteins: Understanding the Induced Metabolic Reorientations and Searching for Their Biomarkers</t>
-  </si>
-  <si>
-    <t>Cardiac Output Response to Vasopressin Infusion In Abdominal Surgery Patients Under Mechanical Ventilation: A Clinical Pharmacodynamics Study</t>
-  </si>
-  <si>
-    <t>Intraoperative Protective Mechanical Ventilation in Patients Requiring Emergency Abdominal Surgery: IMPROVE-2 Multicenter Prospective Randomized Trial</t>
+    <t>Role of Mechanical Load on Metabolic Exercise Adaptations in Response to Weight Loss in Obese Adolescents: The POWELL Study</t>
   </si>
   <si>
     <t>Using INDOcyanine Green to Analyse Ovarian Vascularization After Ovarian Laparoscopic CYStectomy</t>
   </si>
   <si>
-    <t>Analgesic Effect of Bilateral Erector Spinae Plane Block With Ropivacaine After Sternotomy in Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Genetic Characteristics and Determinants of Central Sensitization of Nociception in Fibromylagic Syndrome</t>
-  </si>
-  <si>
-    <t>Evaluation of Botulinum Toxin Injection Efficacy in the Treatment of Head Essential Tremor by a Multi-center, Randomized, Double-Blind, Parallel-group, Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Interventional Study Assessing Evaluation of the Interest of Serum S100B Protein Determination in the Management of Pediatric Mild Traumatic Brain Injury</t>
-  </si>
-  <si>
-    <t>Morphological Parameters of In-stent RESTenosis Assessed and Identified by OCT</t>
-  </si>
-  <si>
-    <t>Role of Mechanical Load on Metabolic Exercise Adaptations in Response to Weight Loss in Obese Adolescents: The POWELL Study</t>
-  </si>
-  <si>
-    <t>Towards the Use of Instrumented Tests for Screening the Risk of Falling in Patients With Chronic Illness.</t>
-  </si>
-  <si>
-    <t>Immediate Effect of Hamstring Stretching in Patients With Chronic Low Back Pain</t>
-  </si>
-  <si>
-    <t>Comparison of the Use of Conventional Ancillary Reaming and Single-use Ancillary Reaming Material in Total Hip Replacement</t>
-  </si>
-  <si>
-    <t>Sampling of Human Microbiota in Order to Test, on a Mouse Model, Individualized Intervention Strategies During Aging</t>
+    <t>Analgesic Effect of Bilateral Quadratus Lumborum Block in the End of Colorectal Laparosopic Surgery: a Prospective Randomized Pilot Study</t>
+  </si>
+  <si>
+    <t>Physical Activity and Sedentary Lifestyle During Pregnancy: Feasibility and Impact Study on Sedentary Behavior</t>
+  </si>
+  <si>
+    <t>Effect of Acute Exercise on Sensory and Hedonic Responses to a Fixed Meal in Adolescents With Obesity</t>
   </si>
   <si>
     <t>Thoracic Drains in Intensive Care Units. Comparison of Seldinger and Surgical Methods: A Prospective Randomized Multicenter Study</t>
   </si>
   <si>
+    <t>Effects of Cyclosporine a Pretreatment of Deceased Donor on Kidney Graft Function: a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Energy Adaptations During Active Workstation Use: Strategy for Individualization of Active Desk Programs</t>
+  </si>
+  <si>
+    <t>Trans Abdominal Plane Block (TAP Block) in Surgery of Stoma Reversal and Its Effect on Post Operative Recovery: a Prospective, Randomized, Muticenter Study</t>
+  </si>
+  <si>
+    <t>Biomarkers Of Job STRess In Emergency Senior Physicians - Detection of Stressful Events</t>
+  </si>
+  <si>
+    <t>Digital Intervention Promoting Physical Activity Among Obese People Randomized Controlled Trial: Assessing the Effects of a Digital Intervention to Promote Physical Activity in Patients With Obesity and/or Type 2 Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Orange Juice, Hesperidin and Their Role in Vascular Health Benefit: a Human Double Blind, Randomized, Controlled, Cross Over Study</t>
+  </si>
+  <si>
+    <t>Identification of the Physical and Dietary Profile on Constitutionally Lean People: the NUTRILEAN Study</t>
+  </si>
+  <si>
+    <t>Presence of SARS-CoV-2 in Semen: Impact on Fertility Preservation in Male Oncological Patients During the COVID-19 Pandemic ?</t>
+  </si>
+  <si>
+    <t>Pulmonary and Ventilatory Effects of Trigger Modulation in Intubated ICU Patients Spontaneously Breathing With Pressure Support Ventilation. A Physiopathology Exploratory Study.</t>
+  </si>
+  <si>
+    <t>Metabolic, Functional and Nutritional Responses to Weight Cycling in Athletes: The WAVE Study</t>
+  </si>
+  <si>
+    <t>Circadian Character of Food Compulsions and Impulses Control Disorders in Parkinsonian Patients With and Without Resting Leg Syndrome</t>
+  </si>
+  <si>
+    <t>E-lombactifs: Evaluation of the Impact a Smartphone Application on Adherence an Exercise Program in Chronic Low Back Pain</t>
+  </si>
+  <si>
     <t>Effects of Dexmedetomidine on Delirium Duration of Non-intubated ICU Patients (4D Trial)</t>
   </si>
   <si>
-    <t>Effect of Acute Exercise on Sensory and Hedonic Responses to a Fixed Meal in Adolescents With Obesity</t>
-  </si>
-  <si>
-    <t>Efficacy of Testosterone gel to restore normal serum values of testosterone during the acute phase of critical illness in adult ICU patients. An open-label parallel randomized controlled pilot study</t>
-  </si>
-  <si>
-    <t>Metabolic, Functional and Nutritional Responses to Weight Cycling in Athletes: The WAVE Study</t>
-  </si>
-  <si>
-    <t>Biomarkers Of Job STRess In Emergency Senior Physicians - Detection of Stressful Events</t>
-  </si>
-  <si>
-    <t>Analgesic Effect of Bilateral Quadratus Lumborum Block in the End of Colorectal Laparosopic Surgery: a Prospective Randomized Pilot Study</t>
-  </si>
-  <si>
-    <t>Physical Activity and Sedentary Lifestyle During Pregnancy: Feasibility and Impact Study on Sedentary Behavior</t>
-  </si>
-  <si>
-    <t>Presence of SARS-CoV-2 in Semen: Impact on Fertility Preservation in Male Oncological Patients During the COVID-19 Pandemic ?</t>
-  </si>
-  <si>
-    <t>Trans Abdominal Plane Block (TAP Block) in Surgery of Stoma Reversal and Its Effect on Post Operative Recovery: a Prospective, Randomized, Muticenter Study</t>
-  </si>
-  <si>
-    <t>Pulmonary and Ventilatory Effects of Trigger Modulation in Intubated ICU Patients Spontaneously Breathing With Pressure Support Ventilation. A Physiopathology Exploratory Study.</t>
-  </si>
-  <si>
-    <t>Orange Juice, Hesperidin and Their Role in Vascular Health Benefit: a Human Double Blind, Randomized, Controlled, Cross Over Study</t>
-  </si>
-  <si>
-    <t>Energy Adaptations During Active Workstation Use: Strategy for Individualization of Active Desk Programs</t>
-  </si>
-  <si>
-    <t>Digital Intervention Promoting Physical Activity Among Obese People Randomized Controlled Trial: Assessing the Effects of a Digital Intervention to Promote Physical Activity in Patients With Obesity and/or Type 2 Diabetes Mellitus</t>
-  </si>
-  <si>
-    <t>Identification of the Physical and Dietary Profile on Constitutionally Lean People: the NUTRILEAN Study</t>
-  </si>
-  <si>
-    <t>E-lombactifs: Evaluation of the Impact a Smartphone Application on Adherence an Exercise Program in Chronic Low Back Pain</t>
-  </si>
-  <si>
-    <t>Circadian Character of Food Compulsions and Impulses Control Disorders in Parkinsonian Patients With and Without Resting Leg Syndrome</t>
-  </si>
-  <si>
-    <t>Effects of Cyclosporine a Pretreatment of Deceased Donor on Kidney Graft Function: a Randomized Controlled Trial</t>
+    <t>Interest of Preoperative Corticosteroid Therapy for Surgical Fractures of the Lower Limb</t>
+  </si>
+  <si>
+    <t>Effects of the Combination of Magnesium Bisphosphonates Versus Bisphosphonates Alone on Bone Remodeling: Randomized Pilot Clinical Trial</t>
+  </si>
+  <si>
+    <t>Exploration of Differences in Metabolite Concentrations by NMR Spectroscopy in the Ventral Striatum, Anterior Cingulate Cortex and Prefrontal Cortex in Euthymic Patients With Unipolar and Bipolar Type II Mood Disorders, as Well as in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Study of Analgesic Effect of Virtual Reality During Oocyte Retrieval in in Vitro Fecondation Protocols: Controlled Randomized Trial</t>
+  </si>
+  <si>
+    <t>Sevoflurane for Sedation in Acute Respiratory Distress Syndrome: a Multicenter Prospective Randomized Trial</t>
+  </si>
+  <si>
+    <t>Echography in Pregnant Obese Women and Ultrasound Speed.</t>
+  </si>
+  <si>
+    <t>Plasma Concentrations of Amoxicillin Administered in High-doses During the First Week of Treatment : Intra- and Inter-individual Variability, Factors Associated With Overdose and Adverse Events</t>
+  </si>
+  <si>
+    <t>Intérêt de l'Utilisation du "Quantra® Haemostasis Analyser" Lors de la Prise en Charge Des Patients présentant Une hémorragie Grave Sous Anticoagulant Oral</t>
   </si>
   <si>
     <t>Interest of the Reborn® Doll as a Therapeutic Object in the Care of Residents With Alzheimer's Disease or a Related Disorder : Pilote Study</t>
   </si>
   <si>
-    <t>Sevoflurane for Sedation in Acute Respiratory Distress Syndrome: a Multicenter Prospective Randomized Trial</t>
-  </si>
-  <si>
-    <t>Interest of Preoperative Corticosteroid Therapy for Surgical Fractures of the Lower Limb</t>
+    <t>Identification of Predictive Factors of Postoperative Pain After Oral Surgery From Phenotypic Parameters Easily Accessible Preoperatively</t>
+  </si>
+  <si>
+    <t>Effect of Injectable Anticoagulants on Research for a Circulating Lupus-type Anticoagulant</t>
   </si>
   <si>
     <t>Fall Risk Assessment in a Population of Charcot-Marie-Tooth Disease Type 1A (CMT 1A) by Timed Up and Go Test</t>
   </si>
   <si>
-    <t>Effects of the Combination of Magnesium Bisphosphonates Versus Bisphosphonates Alone on Bone Remodeling: Randomized Pilot Clinical Trial</t>
-  </si>
-  <si>
-    <t>Effect of Injectable Anticoagulants on Research for a Circulating Lupus-type Anticoagulant</t>
-  </si>
-  <si>
-    <t>Identification of Predictive Factors of Postoperative Pain After Oral Surgery From Phenotypic Parameters Easily Accessible Preoperatively</t>
-  </si>
-  <si>
-    <t>Echography in Pregnant Obese Women and Ultrasound Speed.</t>
-  </si>
-  <si>
-    <t>Intérêt de l'Utilisation du "Quantra® Haemostasis Analyser" Lors de la Prise en Charge Des Patients présentant Une hémorragie Grave Sous Anticoagulant Oral</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficacy of Donepezil in the Treatment of Oxaliplatin-induced Peripheral Neuropathy: Proof of Concept Study</t>
   </si>
   <si>
-    <t>Study of Analgesic Effect of Virtual Reality During Oocyte Retrieval in in Vitro Fecondation Protocols: Controlled Randomized Trial</t>
-  </si>
-  <si>
-    <t>Rôle de la dopamine dans le comportement d’aversion à la perte : étude chez le patient parkinsonien</t>
-  </si>
-  <si>
-    <t>Intérêt d’un bloc nerveux bi-tronculaire (fémoral + sciatique) prolongé associé systématiquement à l’anesthésie générale au cours du pontage fémoro-poplité : étude de l'analgésie post-opératoire et de la circulation périphérique d’aval.</t>
+    <t>Study of a Dialysate Without Acetate on Protein Energy Wasting Syndrome in Chronic Hemodialysis Patient</t>
+  </si>
+  <si>
+    <t>The Oxylipin Response as a New PrEdictive Biomarker of Patient Responsiveness to Biotherapy in Rheumatoid Arthritis.</t>
   </si>
   <si>
     <t>IMPACT OF 5% LIDOCAINE MEDICATED PLASTER ON ALLODYNIC SYMPTOMS OF LOCALIZED NEUROPATHIC PAIN AFTER KNEE SURGERY. A prospective, randomized, placebo controlled study in parallel groups. 
@@ -1351,34 +1461,37 @@
     <t>TRAMADOL</t>
   </si>
   <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Tropisétron</t>
+  </si>
+  <si>
     <t>FIND</t>
   </si>
   <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
-    <t>Tropisétron</t>
-  </si>
-  <si>
     <t>HOP</t>
   </si>
   <si>
+    <t>PhyDoNe</t>
+  </si>
+  <si>
     <t>ETOSA</t>
   </si>
   <si>
-    <t>PhyDoNe</t>
+    <t>2010-A01115-34</t>
+  </si>
+  <si>
+    <t>SUF-REM-DDS</t>
+  </si>
+  <si>
+    <t>JOBSTRESS</t>
   </si>
   <si>
     <t>MEP1</t>
   </si>
   <si>
-    <t>SUF-REM-DDS</t>
-  </si>
-  <si>
-    <t>2010-A01115-34</t>
-  </si>
-  <si>
-    <t>JOBSTRESS</t>
+    <t>Interaction tropisétron / Granisétron - paracétamol</t>
   </si>
   <si>
     <t>IMPREA</t>
@@ -1387,275 +1500,298 @@
     <t>CURCUMIN</t>
   </si>
   <si>
+    <t>MINIPIC REA</t>
+  </si>
+  <si>
+    <t>IRMf</t>
+  </si>
+  <si>
+    <t>KetaRea</t>
+  </si>
+  <si>
+    <t>CALIMERO</t>
+  </si>
+  <si>
     <t>EPOP</t>
   </si>
   <si>
-    <t>KetaRea</t>
-  </si>
-  <si>
-    <t>CALIMERO</t>
-  </si>
-  <si>
-    <t>IRMf</t>
-  </si>
-  <si>
-    <t>MINIPIC REA</t>
+    <t>VOLCANO</t>
+  </si>
+  <si>
+    <t>MEMANTINE</t>
+  </si>
+  <si>
+    <t>CORONOMEGA3</t>
+  </si>
+  <si>
+    <t>HiFloLUS</t>
+  </si>
+  <si>
+    <t>BioChronoMag</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>IMPETRAIL</t>
   </si>
   <si>
     <t>PARAJUG</t>
   </si>
   <si>
-    <t>MEMANTINE</t>
-  </si>
-  <si>
-    <t>BioChronoMag</t>
-  </si>
-  <si>
-    <t>HiFloLUS</t>
-  </si>
-  <si>
-    <t>VOLCANO</t>
-  </si>
-  <si>
     <t>TeDi-C2</t>
   </si>
   <si>
-    <t>CORONOMEGA3</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>IMPETRAIL</t>
-  </si>
-  <si>
     <t>ELVIS</t>
   </si>
   <si>
     <t>VP-hTA-XCar</t>
   </si>
   <si>
+    <t>HF 80</t>
+  </si>
+  <si>
+    <t>PARA-NEF</t>
+  </si>
+  <si>
+    <t>SEVORASS</t>
+  </si>
+  <si>
+    <t>TRAWELUS</t>
+  </si>
+  <si>
     <t>VEOLITH</t>
   </si>
   <si>
-    <t>TRAWELUS</t>
-  </si>
-  <si>
-    <t>PARA-NEF</t>
-  </si>
-  <si>
     <t>PANACE</t>
   </si>
   <si>
-    <t>HF 80</t>
-  </si>
-  <si>
-    <t>SEVORASS</t>
-  </si>
-  <si>
     <t>I-Preventive</t>
   </si>
   <si>
+    <t>OPERA</t>
+  </si>
+  <si>
+    <t>BIBOP</t>
+  </si>
+  <si>
+    <t>CISEVOB</t>
+  </si>
+  <si>
+    <t>NEUROXAPOL</t>
+  </si>
+  <si>
     <t>SUBGEUS</t>
   </si>
   <si>
-    <t>BIBOP</t>
-  </si>
-  <si>
-    <t>CISEVOB</t>
-  </si>
-  <si>
-    <t>NEUROXAPOL</t>
+    <t>BLS-Sterno</t>
   </si>
   <si>
     <t>SEVOBURN</t>
   </si>
   <si>
-    <t>OPERA</t>
-  </si>
-  <si>
-    <t>BLS-Sterno</t>
+    <t>DYNAVAL</t>
+  </si>
+  <si>
+    <t>CoQualSEP</t>
+  </si>
+  <si>
+    <t>Hydex</t>
+  </si>
+  <si>
+    <t>Post-coma DBS</t>
+  </si>
+  <si>
+    <t>PreDeARM</t>
   </si>
   <si>
     <t>INPRESS</t>
   </si>
   <si>
-    <t>CoQualSEP</t>
-  </si>
-  <si>
-    <t>PreDeARM</t>
-  </si>
-  <si>
-    <t>Post-coma DBS</t>
-  </si>
-  <si>
     <t>NMDA</t>
   </si>
   <si>
-    <t>DYNAVAL</t>
+    <t>BLOC-FEMPOP</t>
+  </si>
+  <si>
+    <t>PEEPUS</t>
   </si>
   <si>
     <t>SEGA</t>
   </si>
   <si>
-    <t>PEEPUS</t>
-  </si>
-  <si>
-    <t>Hydex</t>
-  </si>
-  <si>
-    <t>BLOC-FEMPOP</t>
+    <t>ADRIATIC</t>
+  </si>
+  <si>
+    <t>DEXA-PG-HD</t>
+  </si>
+  <si>
+    <t>HRV REEDUC</t>
   </si>
   <si>
     <t>MP-TCSP-IRMf</t>
   </si>
   <si>
+    <t>EOLE</t>
+  </si>
+  <si>
     <t>NUTREND</t>
   </si>
   <si>
-    <t>DEXA-PG-HD</t>
-  </si>
-  <si>
-    <t>ADRIATIC</t>
+    <t>LiNe</t>
+  </si>
+  <si>
+    <t>EDONOT</t>
+  </si>
+  <si>
+    <t>GEET One</t>
   </si>
   <si>
     <t>MicrobioPSY</t>
   </si>
   <si>
-    <t>HRV REEDUC</t>
-  </si>
-  <si>
-    <t>GEET One</t>
-  </si>
-  <si>
-    <t>EDONOT</t>
-  </si>
-  <si>
-    <t>LiNe</t>
-  </si>
-  <si>
-    <t>EOLE</t>
-  </si>
-  <si>
     <t>PSQ-F</t>
   </si>
   <si>
+    <t>POPCUR</t>
+  </si>
+  <si>
     <t>HAEMO</t>
   </si>
   <si>
+    <t>RIP-LC</t>
+  </si>
+  <si>
+    <t>STENDO3</t>
+  </si>
+  <si>
+    <t>WIN IN WEAN</t>
+  </si>
+  <si>
+    <t>GLUTHEALTH</t>
+  </si>
+  <si>
+    <t>ISOGO</t>
+  </si>
+  <si>
     <t>CEPPPIA</t>
   </si>
   <si>
-    <t>ISOGO</t>
-  </si>
-  <si>
-    <t>WIN IN WEAN</t>
-  </si>
-  <si>
-    <t>STENDO3</t>
-  </si>
-  <si>
     <t>POLYFER</t>
   </si>
   <si>
-    <t>GLUTHEALTH</t>
-  </si>
-  <si>
     <t>FLASH</t>
   </si>
   <si>
-    <t>RIP-LC</t>
-  </si>
-  <si>
-    <t>POPCUR</t>
+    <t>STREAGER</t>
   </si>
   <si>
     <t>TIMEX2</t>
   </si>
   <si>
+    <t>EPIPAN</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
     <t>EARS</t>
   </si>
   <si>
-    <t>PHOENIX</t>
-  </si>
-  <si>
-    <t>STREAGER</t>
-  </si>
-  <si>
-    <t>EPIPAN</t>
+    <t>DISCO</t>
   </si>
   <si>
     <t>THELEHEPAT</t>
   </si>
   <si>
-    <t>DISCO</t>
-  </si>
-  <si>
-    <t>NALMEFENE et TCI</t>
+    <t>C-SS0</t>
+  </si>
+  <si>
+    <t>SeMAFor</t>
+  </si>
+  <si>
+    <t>RE-CON</t>
+  </si>
+  <si>
+    <t>COMBINE</t>
   </si>
   <si>
     <t>AMETIS</t>
   </si>
   <si>
-    <t>C-SS0</t>
-  </si>
-  <si>
-    <t>COMBINE</t>
-  </si>
-  <si>
     <t>IATANGO</t>
   </si>
   <si>
-    <t>RE-CON</t>
-  </si>
-  <si>
-    <t>SeMAFor</t>
+    <t>EXPIRE</t>
+  </si>
+  <si>
+    <t>BICLASS</t>
+  </si>
+  <si>
+    <t>INSULOX</t>
+  </si>
+  <si>
+    <t>MAGRITTE</t>
+  </si>
+  <si>
+    <t>RIPHIGEO</t>
+  </si>
+  <si>
+    <t>InSizeS25</t>
   </si>
   <si>
     <t>COCOPOPONO</t>
   </si>
   <si>
+    <t>ERIBIO</t>
+  </si>
+  <si>
+    <t>IDEX2</t>
+  </si>
+  <si>
     <t>TaiChiSpA</t>
   </si>
   <si>
-    <t>INSULOX</t>
-  </si>
-  <si>
-    <t>EXPIRE</t>
-  </si>
-  <si>
-    <t>Btx-HT 
- Btx-HT</t>
-  </si>
-  <si>
-    <t>RIPHIGEO</t>
-  </si>
-  <si>
-    <t>MAGRITTE</t>
-  </si>
-  <si>
-    <t>InSizeS25</t>
+    <t>ERECTION</t>
   </si>
   <si>
     <t>IDEX1</t>
   </si>
   <si>
-    <t>ERIBIO</t>
-  </si>
-  <si>
-    <t>ERECTION</t>
-  </si>
-  <si>
     <t>Pre-BLS-Sterno</t>
   </si>
   <si>
-    <t>IDEX2</t>
-  </si>
-  <si>
     <t>Fruisenior</t>
   </si>
   <si>
-    <t>BICLASS</t>
+    <t>CORVaso</t>
+  </si>
+  <si>
+    <t>Btx-HT</t>
+  </si>
+  <si>
+    <t>LUUC</t>
+  </si>
+  <si>
+    <t>EFIM1</t>
+  </si>
+  <si>
+    <t>RESTO</t>
+  </si>
+  <si>
+    <t>FiO2RI</t>
+  </si>
+  <si>
+    <t>DETECACTI</t>
+  </si>
+  <si>
+    <t>FRAGIBIOTE</t>
+  </si>
+  <si>
+    <t>ProVegOmics</t>
+  </si>
+  <si>
+    <t>IMPROVE-2</t>
   </si>
   <si>
     <t>CUPCAKE</t>
@@ -1664,139 +1800,112 @@
     <t>P-PROBS CM</t>
   </si>
   <si>
-    <t>FiO2RI</t>
+    <t>FIDGIS</t>
+  </si>
+  <si>
+    <t>PROS100B</t>
+  </si>
+  <si>
+    <t>ESB-Sterno</t>
   </si>
   <si>
     <t>CHARM-Bloc</t>
   </si>
   <si>
-    <t>ProVegOmics</t>
-  </si>
-  <si>
-    <t>CORVaso</t>
-  </si>
-  <si>
-    <t>IMPROVE-2</t>
+    <t>POWELL</t>
   </si>
   <si>
     <t>KYSINDO</t>
   </si>
   <si>
-    <t>ESB-Sterno</t>
-  </si>
-  <si>
-    <t>FIDGIS</t>
-  </si>
-  <si>
-    <t>Btx-HT</t>
-  </si>
-  <si>
-    <t>PROS100B</t>
-  </si>
-  <si>
-    <t>RESTO</t>
-  </si>
-  <si>
-    <t>POWELL</t>
-  </si>
-  <si>
-    <t>DETECACTI</t>
-  </si>
-  <si>
-    <t>EFIM1</t>
-  </si>
-  <si>
-    <t>LUUC</t>
-  </si>
-  <si>
-    <t>FRAGIBIOTE</t>
+    <t>Coloqual</t>
+  </si>
+  <si>
+    <t>PregMouv</t>
+  </si>
+  <si>
+    <t>SMASH</t>
   </si>
   <si>
     <t>DrainICU</t>
   </si>
   <si>
+    <t>Cis-A-Rein</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>DIPPAO</t>
+  </si>
+  <si>
+    <t>HESPER-HEALTH</t>
+  </si>
+  <si>
+    <t>Nutrilean</t>
+  </si>
+  <si>
+    <t>FERTICOVID</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>WAVE</t>
+  </si>
+  <si>
+    <t>RLS nighfood</t>
+  </si>
+  <si>
+    <t>E-lombactifs</t>
+  </si>
+  <si>
     <t>4D</t>
   </si>
   <si>
-    <t>SMASH</t>
-  </si>
-  <si>
-    <t>TestICU-1</t>
-  </si>
-  <si>
-    <t>WAVE</t>
-  </si>
-  <si>
-    <t>Coloqual</t>
-  </si>
-  <si>
-    <t>PregMouv</t>
-  </si>
-  <si>
-    <t>FERTICOVID</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>HESPER-HEALTH</t>
-  </si>
-  <si>
-    <t>PROFILE</t>
-  </si>
-  <si>
-    <t>DIPPAO</t>
-  </si>
-  <si>
-    <t>Nutrilean</t>
-  </si>
-  <si>
-    <t>E-lombactifs</t>
-  </si>
-  <si>
-    <t>RLS nighfood</t>
-  </si>
-  <si>
-    <t>Cis-A-Rein</t>
+    <t>ICOMI</t>
+  </si>
+  <si>
+    <t>MAGELLAN</t>
+  </si>
+  <si>
+    <t>RMN-UNIBI</t>
+  </si>
+  <si>
+    <t>REVPO</t>
+  </si>
+  <si>
+    <t>SESAR</t>
+  </si>
+  <si>
+    <t>EPOWUS</t>
+  </si>
+  <si>
+    <t>MAX-AMOX</t>
+  </si>
+  <si>
+    <t>BOA</t>
   </si>
   <si>
     <t>PROTMA</t>
   </si>
   <si>
-    <t>SESAR</t>
-  </si>
-  <si>
-    <t>ICOMI</t>
+    <t>PHEDOPO</t>
+  </si>
+  <si>
+    <t>ANTICOLA</t>
   </si>
   <si>
     <t>DeteCTCMT</t>
   </si>
   <si>
-    <t>MAGELLAN</t>
-  </si>
-  <si>
-    <t>ANTICOLA</t>
-  </si>
-  <si>
-    <t>PHEDOPO</t>
-  </si>
-  <si>
-    <t>EPOWUS</t>
-  </si>
-  <si>
-    <t>BOA</t>
-  </si>
-  <si>
     <t>DONEPEZOX</t>
   </si>
   <si>
-    <t>REVPO</t>
-  </si>
-  <si>
-    <t>Aversion à la perte MPI</t>
+    <t>EASY</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -1805,16 +1914,19 @@
     <t>DEVICE</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
@@ -2227,13 +2339,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2247,13 +2359,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2267,13 +2379,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="I4" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2287,13 +2399,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="I5" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2307,56 +2419,56 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H6" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="I6" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="I7" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2370,13 +2482,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2390,13 +2502,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="I10" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2410,13 +2522,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="I11" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2430,13 +2542,13 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2449,14 +2561,17 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="I13" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2470,16 +2585,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" t="s">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="I14" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2493,56 +2605,56 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="I15" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>293</v>
+      </c>
+      <c r="H17" t="s">
+        <v>481</v>
       </c>
       <c r="I17" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2556,13 +2668,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="I18" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2576,13 +2688,13 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" t="s">
-        <v>258</v>
+        <v>261</v>
+      </c>
+      <c r="H19" t="s">
+        <v>482</v>
       </c>
       <c r="I19" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2596,13 +2708,13 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" t="s">
-        <v>446</v>
+        <v>261</v>
+      </c>
+      <c r="G20" t="s">
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2616,13 +2728,13 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="I21" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2636,13 +2748,16 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G22" t="s">
-        <v>260</v>
+        <v>297</v>
+      </c>
+      <c r="H22" t="s">
+        <v>483</v>
       </c>
       <c r="I22" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2656,56 +2771,59 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>299</v>
+      </c>
+      <c r="H24" t="s">
+        <v>484</v>
       </c>
       <c r="I24" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" t="s">
-        <v>447</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2715,20 +2833,17 @@
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
+      <c r="D26" t="s">
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" t="s">
-        <v>448</v>
+        <v>301</v>
       </c>
       <c r="I26" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2739,102 +2854,105 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>302</v>
+      </c>
+      <c r="H27" t="s">
+        <v>485</v>
       </c>
       <c r="I27" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" t="s">
-        <v>449</v>
+        <v>303</v>
       </c>
       <c r="I28" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>304</v>
+      </c>
+      <c r="H29" t="s">
+        <v>486</v>
       </c>
       <c r="I29" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="I30" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H31" t="s">
-        <v>450</v>
+        <v>306</v>
       </c>
       <c r="I31" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2845,19 +2963,19 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="H32" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="I32" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2868,19 +2986,22 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H33" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="I33" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2891,59 +3012,62 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="H34" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="I34" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I35" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>311</v>
+      </c>
+      <c r="H36" t="s">
+        <v>490</v>
       </c>
       <c r="I36" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2954,165 +3078,174 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
-        <v>275</v>
+        <v>312</v>
+      </c>
+      <c r="H37" t="s">
+        <v>491</v>
       </c>
       <c r="I37" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>276</v>
-      </c>
-      <c r="H38" t="s">
-        <v>454</v>
+        <v>313</v>
       </c>
       <c r="I38" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="I39" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>278</v>
-      </c>
-      <c r="H40" t="s">
-        <v>455</v>
+        <v>315</v>
       </c>
       <c r="I40" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
+        <v>316</v>
       </c>
       <c r="H41" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="I41" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="H42" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="I42" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>318</v>
+      </c>
+      <c r="H43" t="s">
+        <v>494</v>
       </c>
       <c r="I43" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
+        <v>319</v>
+      </c>
+      <c r="H44" t="s">
+        <v>495</v>
       </c>
       <c r="I44" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3123,65 +3256,62 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="H45" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="I45" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G46" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="H46" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="I46" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" t="s">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="I47" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3192,16 +3322,16 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
-      </c>
-      <c r="G48" t="s">
-        <v>285</v>
+        <v>264</v>
+      </c>
+      <c r="H48" t="s">
+        <v>498</v>
       </c>
       <c r="I48" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3212,105 +3342,108 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>286</v>
+        <v>323</v>
+      </c>
+      <c r="H49" t="s">
+        <v>499</v>
       </c>
       <c r="I49" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>324</v>
+      </c>
+      <c r="H50" t="s">
+        <v>500</v>
       </c>
       <c r="I50" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="H51" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="I51" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>229</v>
-      </c>
-      <c r="G52" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="H52" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="I52" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G53" t="s">
-        <v>290</v>
-      </c>
-      <c r="H53" t="s">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="I53" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3321,36 +3454,42 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>265</v>
+      </c>
+      <c r="G54" t="s">
+        <v>327</v>
       </c>
       <c r="H54" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="I54" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>328</v>
+      </c>
+      <c r="H55" t="s">
+        <v>504</v>
       </c>
       <c r="I55" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3361,16 +3500,16 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G56" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3381,16 +3520,16 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G57" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3401,19 +3540,19 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H58" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="I58" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3424,102 +3563,102 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>295</v>
-      </c>
-      <c r="H59" t="s">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="I59" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="I60" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G61" t="s">
-        <v>297</v>
+        <v>334</v>
+      </c>
+      <c r="H61" t="s">
+        <v>506</v>
       </c>
       <c r="I61" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>215</v>
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G62" t="s">
-        <v>298</v>
-      </c>
-      <c r="H62" t="s">
-        <v>467</v>
+        <v>335</v>
+      </c>
+      <c r="I62" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G63" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="H63" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3530,19 +3669,16 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G64" t="s">
-        <v>300</v>
-      </c>
-      <c r="H64" t="s">
-        <v>469</v>
+        <v>337</v>
       </c>
       <c r="I64" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3553,39 +3689,45 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G65" t="s">
-        <v>301</v>
+        <v>338</v>
+      </c>
+      <c r="H65" t="s">
+        <v>508</v>
       </c>
       <c r="I65" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>227</v>
       </c>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G66" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H66" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="I66" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3596,19 +3738,16 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G67" t="s">
-        <v>303</v>
-      </c>
-      <c r="H67" t="s">
-        <v>471</v>
+        <v>340</v>
       </c>
       <c r="I67" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3619,36 +3758,39 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="I68" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>342</v>
+      </c>
+      <c r="H69" t="s">
+        <v>510</v>
       </c>
       <c r="I69" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3659,19 +3801,22 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="H70" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="I70" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3682,19 +3827,22 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H71" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="I71" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3705,19 +3853,19 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G72" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H72" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="I72" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3728,42 +3876,39 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G73" t="s">
-        <v>309</v>
-      </c>
-      <c r="H73" t="s">
-        <v>475</v>
+        <v>346</v>
       </c>
       <c r="I73" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H74" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="I74" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3774,42 +3919,45 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>230</v>
       </c>
       <c r="F75" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H75" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="I75" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
       </c>
       <c r="F76" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="G76" t="s">
-        <v>312</v>
-      </c>
-      <c r="H76" t="s">
-        <v>478</v>
+        <v>349</v>
       </c>
       <c r="I76" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3820,131 +3968,131 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G77" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I77" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G78" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H78" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="I78" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G79" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="H79" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G80" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H80" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="I80" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="H81" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="I81" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="H82" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="I82" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3955,19 +4103,19 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G83" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="H83" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="I83" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3978,88 +4126,91 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H84" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="I84" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>232</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="H85" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="I85" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G86" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H86" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="I86" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H87" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="I87" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4070,42 +4221,42 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>324</v>
-      </c>
-      <c r="H88" t="s">
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="I88" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>233</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H89" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="I89" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4116,16 +4267,19 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G90" t="s">
-        <v>326</v>
+        <v>363</v>
+      </c>
+      <c r="H90" t="s">
+        <v>527</v>
       </c>
       <c r="I90" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4136,16 +4290,19 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G91" t="s">
-        <v>327</v>
+        <v>364</v>
+      </c>
+      <c r="H91" t="s">
+        <v>528</v>
       </c>
       <c r="I91" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4156,108 +4313,111 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="I92" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
       </c>
       <c r="F93" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H93" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="I93" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>330</v>
-      </c>
-      <c r="H94" t="s">
-        <v>492</v>
+        <v>367</v>
       </c>
       <c r="I94" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="H95" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="I95" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>235</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G96" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H96" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="I96" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4268,131 +4428,137 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G97" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="I97" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G98" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H98" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="I98" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
+        <v>236</v>
       </c>
       <c r="F99" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="G99" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H99" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="I99" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G100" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="H100" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="I100" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F101" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G101" t="s">
-        <v>337</v>
-      </c>
-      <c r="H101" t="s">
-        <v>498</v>
+        <v>374</v>
       </c>
       <c r="I101" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>238</v>
       </c>
       <c r="F102" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G102" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H102" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="I102" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4403,85 +4569,88 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G103" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="H103" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="I103" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G104" t="s">
-        <v>340</v>
+        <v>377</v>
+      </c>
+      <c r="H104" t="s">
+        <v>537</v>
       </c>
       <c r="I104" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G105" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="H105" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="I105" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="H106" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="I106" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4492,131 +4661,134 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G107" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="I107" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="H108" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="I108" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>239</v>
       </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G109" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="H109" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="I109" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G110" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="H110" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="I110" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G111" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="H111" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="I111" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G112" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="H112" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="I112" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4627,42 +4799,48 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="D113" t="s">
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G113" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="H113" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="I113" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="D114" t="s">
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G114" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="H114" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="I114" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4673,19 +4851,19 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F115" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="H115" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="I115" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4696,19 +4874,19 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G116" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="H116" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="I116" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4719,19 +4897,19 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G117" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H117" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="I117" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4742,82 +4920,88 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="H118" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="I118" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G119" t="s">
-        <v>355</v>
+        <v>392</v>
+      </c>
+      <c r="H119" t="s">
+        <v>551</v>
       </c>
       <c r="I119" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H120" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="I120" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G121" t="s">
-        <v>357</v>
+        <v>394</v>
+      </c>
+      <c r="H121" t="s">
+        <v>553</v>
       </c>
       <c r="I121" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4828,42 +5012,36 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G122" t="s">
-        <v>358</v>
-      </c>
-      <c r="H122" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="I122" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G123" t="s">
-        <v>359</v>
-      </c>
-      <c r="H123" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="I123" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4874,88 +5052,91 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="G124" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="H124" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="I124" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G125" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="H125" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="I125" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G126" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="H126" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="I126" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F127" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G127" t="s">
-        <v>363</v>
-      </c>
-      <c r="H127" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="I127" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4966,79 +5147,88 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G128" t="s">
-        <v>364</v>
+        <v>401</v>
+      </c>
+      <c r="H128" t="s">
+        <v>557</v>
       </c>
       <c r="I128" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F129" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G129" t="s">
-        <v>365</v>
-      </c>
-      <c r="H129" t="s">
-        <v>521</v>
+        <v>402</v>
       </c>
       <c r="I129" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F130" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G130" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="I130" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G131" t="s">
-        <v>367</v>
+        <v>404</v>
+      </c>
+      <c r="H131" t="s">
+        <v>558</v>
       </c>
       <c r="I131" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5049,19 +5239,19 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F132" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G132" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="H132" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="I132" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5072,19 +5262,19 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G133" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H133" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="I133" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5094,40 +5284,43 @@
       <c r="B134" t="s">
         <v>13</v>
       </c>
-      <c r="D134" t="s">
-        <v>216</v>
+      <c r="C134" t="s">
+        <v>147</v>
       </c>
       <c r="F134" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="G134" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="H134" t="s">
-        <v>524</v>
+        <v>561</v>
+      </c>
+      <c r="I134" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
       </c>
       <c r="F135" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G135" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="H135" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="I135" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5141,85 +5334,88 @@
         <v>149</v>
       </c>
       <c r="F136" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G136" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="H136" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="I136" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G137" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="H137" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="I137" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
       </c>
+      <c r="D138" t="s">
+        <v>246</v>
+      </c>
       <c r="F138" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G138" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="H138" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="I138" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G139" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="H139" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="I139" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5233,16 +5429,16 @@
         <v>153</v>
       </c>
       <c r="F140" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G140" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H140" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="I140" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5256,16 +5452,16 @@
         <v>154</v>
       </c>
       <c r="F141" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G141" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H141" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="I141" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5279,16 +5475,16 @@
         <v>155</v>
       </c>
       <c r="F142" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="H142" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="I142" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5302,16 +5498,16 @@
         <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G143" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="H143" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="I143" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5325,16 +5521,16 @@
         <v>157</v>
       </c>
       <c r="F144" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G144" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H144" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="I144" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5344,40 +5540,43 @@
       <c r="B145" t="s">
         <v>13</v>
       </c>
-      <c r="D145" t="s">
-        <v>217</v>
+      <c r="C145" t="s">
+        <v>158</v>
       </c>
       <c r="F145" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G145" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="H145" t="s">
-        <v>535</v>
+        <v>572</v>
+      </c>
+      <c r="I145" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F146" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G146" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="H146" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="I146" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5388,42 +5587,42 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F147" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G147" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="H147" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="I147" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F148" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G148" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="H148" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="I148" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5434,19 +5633,19 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F149" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G149" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="H149" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="I149" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5457,19 +5656,19 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F150" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G150" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="H150" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="I150" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5480,19 +5679,19 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F151" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G151" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="H151" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="I151" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5503,19 +5702,19 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F152" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G152" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H152" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="I152" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5526,19 +5725,19 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F153" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G153" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="H153" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="I153" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5549,19 +5748,19 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F154" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G154" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="H154" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="I154" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5572,19 +5771,16 @@
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F155" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="G155" t="s">
-        <v>391</v>
-      </c>
-      <c r="H155" t="s">
-        <v>545</v>
+        <v>428</v>
       </c>
       <c r="I155" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5595,19 +5791,19 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F156" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G156" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="H156" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="I156" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5618,19 +5814,22 @@
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="D157" t="s">
+        <v>247</v>
       </c>
       <c r="F157" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G157" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="H157" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="I157" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5641,16 +5840,19 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F158" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G158" t="s">
-        <v>394</v>
+        <v>431</v>
+      </c>
+      <c r="H158" t="s">
+        <v>584</v>
       </c>
       <c r="I158" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5661,19 +5863,19 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F159" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G159" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="H159" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="I159" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5684,19 +5886,19 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F160" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G160" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="H160" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="I160" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5707,19 +5909,19 @@
         <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F161" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G161" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="H161" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="I161" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5730,42 +5932,42 @@
         <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F162" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G162" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="H162" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="I162" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F163" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G163" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="H163" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="I163" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5776,42 +5978,42 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F164" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G164" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="H164" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="I164" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F165" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G165" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="H165" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="I165" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5822,19 +6024,19 @@
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F166" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G166" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="H166" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="I166" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5845,65 +6047,65 @@
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F167" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G167" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="H167" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="I167" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F168" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="H168" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="I168" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F169" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G169" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="H169" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="I169" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5914,19 +6116,19 @@
         <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F170" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G170" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="H170" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="I170" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5937,19 +6139,19 @@
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F171" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G171" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="H171" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="I171" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5960,19 +6162,19 @@
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G172" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="H172" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="I172" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5983,19 +6185,22 @@
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D173" t="s">
+        <v>248</v>
       </c>
       <c r="F173" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G173" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="H173" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="I173" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6006,65 +6211,68 @@
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="D174" t="s">
+        <v>249</v>
       </c>
       <c r="F174" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="G174" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="H174" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="I174" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F175" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G175" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="H175" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="I175" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F176" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G176" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="H176" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="I176" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6075,39 +6283,45 @@
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F177" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G177" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="H177" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="I177" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
       </c>
       <c r="D178" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F178" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G178" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="H178" t="s">
-        <v>567</v>
+        <v>604</v>
+      </c>
+      <c r="I178" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6118,19 +6332,19 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F179" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G179" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="H179" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="I179" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6141,19 +6355,22 @@
         <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>251</v>
       </c>
       <c r="F180" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G180" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="H180" t="s">
-        <v>453</v>
+        <v>606</v>
       </c>
       <c r="I180" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6164,19 +6381,19 @@
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F181" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G181" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>489</v>
       </c>
       <c r="I181" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6187,42 +6404,42 @@
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F182" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G182" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="H182" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="I182" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F183" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G183" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="I183" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6233,19 +6450,19 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F184" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G184" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="H184" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="I184" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6256,42 +6473,42 @@
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F185" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G185" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="I185" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F186" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G186" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="H186" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="I186" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6302,42 +6519,42 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F187" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G187" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="H187" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="I187" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F188" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G188" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="H188" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="I188" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6348,42 +6565,45 @@
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F189" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G189" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="H189" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="I189" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="D190" t="s">
+        <v>252</v>
       </c>
       <c r="F190" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G190" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="H190" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="I190" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6394,42 +6614,48 @@
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>253</v>
       </c>
       <c r="F191" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G191" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="I191" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="D192" t="s">
+        <v>254</v>
       </c>
       <c r="F192" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="G192" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="H192" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="I192" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6440,19 +6666,19 @@
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F193" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G193" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="H193" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="I193" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6463,19 +6689,19 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F194" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G194" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="H194" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="I194" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6486,19 +6712,19 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F195" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G195" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="H195" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="I195" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6509,19 +6735,19 @@
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F196" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G196" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="H196" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="I196" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6532,19 +6758,22 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="D197" t="s">
+        <v>255</v>
       </c>
       <c r="F197" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G197" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="H197" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="I197" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6555,19 +6784,19 @@
         <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F198" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G198" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="H198" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="I198" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6578,42 +6807,42 @@
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F199" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G199" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="H199" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="I199" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F200" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G200" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="H200" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="I200" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6624,19 +6853,19 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F201" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G201" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="H201" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="I201" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6647,42 +6876,45 @@
         <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F202" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G202" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="H202" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="I202" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D203" t="s">
+        <v>256</v>
       </c>
       <c r="F203" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G203" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="H203" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="I203" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6692,14 +6924,20 @@
       <c r="B204" t="s">
         <v>13</v>
       </c>
-      <c r="D204" t="s">
-        <v>219</v>
+      <c r="C204" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" t="s">
+        <v>277</v>
       </c>
       <c r="G204" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="H204" t="s">
-        <v>592</v>
+        <v>629</v>
+      </c>
+      <c r="I204" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6709,14 +6947,20 @@
       <c r="B205" t="s">
         <v>13</v>
       </c>
-      <c r="D205" t="s">
-        <v>220</v>
+      <c r="C205" t="s">
+        <v>218</v>
+      </c>
+      <c r="F205" t="s">
+        <v>277</v>
       </c>
       <c r="G205" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="H205" t="s">
-        <v>495</v>
+        <v>517</v>
+      </c>
+      <c r="I205" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6727,10 +6971,13 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G206" t="s">
-        <v>442</v>
+        <v>479</v>
+      </c>
+      <c r="I206" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
